--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -552,6 +552,9 @@
     <t>供应商分类描述</t>
   </si>
   <si>
+    <t>供应商分类所属公司，来源于t_company表</t>
+  </si>
+  <si>
     <t>supplyTypeStatus</t>
   </si>
   <si>
@@ -630,6 +633,9 @@
     <t>供应商分类编号，来源于t_supply_type表</t>
   </si>
   <si>
+    <t>供应商所属公司，来源于t_company表</t>
+  </si>
+  <si>
     <t>supplyStatus</t>
   </si>
   <si>
@@ -657,6 +663,9 @@
     <t>配件分类描述</t>
   </si>
   <si>
+    <t>配件分类所属公司，来源于t_company表</t>
+  </si>
+  <si>
     <t>accTypeStatus</t>
   </si>
   <si>
@@ -678,6 +687,12 @@
     <t>配件名称，not null</t>
   </si>
   <si>
+    <t>accCommodityCode</t>
+  </si>
+  <si>
+    <t>配件商品条码，not null</t>
+  </si>
+  <si>
     <t>accDes</t>
   </si>
   <si>
@@ -735,6 +750,9 @@
     <t>配件所属分类编号，来源于t_accessories_type表</t>
   </si>
   <si>
+    <t>配件所属公司，来源于t_company表</t>
+  </si>
+  <si>
     <t>accStatus</t>
   </si>
   <si>
@@ -750,220 +768,358 @@
     <t>配件采购编号，UUID,主键</t>
   </si>
   <si>
-    <t>不需要外键关联，可为空</t>
+    <t>配件编号，来源于t_accessories表。配件的采购分为两种方式，一种是新增配件采购，一种是已有配件采购。如果是新增配件采购，则需要在t_accessories表中新增记录，并把上accId设置成t_accessories表中新增的记录的accId；如果是已有配件采购，则不需要在t_accessories表中新增记录，而是直接选择某个配件</t>
   </si>
   <si>
     <t>accBuyCount</t>
   </si>
   <si>
+    <t>配件购买数量，not null</t>
+  </si>
+  <si>
     <t>accBuyPrice</t>
   </si>
   <si>
+    <t>配件购买单价，not null</t>
+  </si>
+  <si>
+    <t>accBuyTotal</t>
+  </si>
+  <si>
+    <t>配件购买总价，not null</t>
+  </si>
+  <si>
+    <t>accBuyDiscount</t>
+  </si>
+  <si>
+    <t>配件购买折扣，not null, default 0。可选择折扣，也可选择减价</t>
+  </si>
+  <si>
     <t>accBuyMoney</t>
   </si>
   <si>
+    <t>配件购买最终价，not null</t>
+  </si>
+  <si>
+    <t>accBuyTime</t>
+  </si>
+  <si>
+    <t>配件购买时间，not null</t>
+  </si>
+  <si>
     <t>accBuyCreatedTime</t>
   </si>
   <si>
+    <t>配件购买记录创建时间</t>
+  </si>
+  <si>
+    <t>配件购买记录所属公司，来源于t_company表</t>
+  </si>
+  <si>
     <t>accBuyStatus</t>
   </si>
   <si>
+    <t>配件购买记录状态，Y表示可用，N表示不可用</t>
+  </si>
+  <si>
     <t>配件销售表t_accessories_sale</t>
   </si>
   <si>
     <t>accSaleId</t>
   </si>
   <si>
+    <t>配件销售编号</t>
+  </si>
+  <si>
+    <t>配件编号，来源于t_accessories表</t>
+  </si>
+  <si>
     <t>accSaledTime</t>
   </si>
   <si>
+    <t>配件销售时间，not null</t>
+  </si>
+  <si>
     <t>accSaleCount</t>
   </si>
   <si>
+    <t>配件销售数量，not null</t>
+  </si>
+  <si>
+    <t>配件销售单价，not null</t>
+  </si>
+  <si>
+    <t>accSaleTotal</t>
+  </si>
+  <si>
+    <t>配件销售总价，not null</t>
+  </si>
+  <si>
+    <t>accSaleDiscount</t>
+  </si>
+  <si>
+    <t>配件销售折扣，not null, default 0。可选择折扣，也可选择减价</t>
+  </si>
+  <si>
     <t>accSaleMoney</t>
   </si>
   <si>
+    <t>配件销售最终价，not null</t>
+  </si>
+  <si>
     <t>accSaleCreatedTime</t>
   </si>
   <si>
-    <t>保养项目表t_maintain_item</t>
+    <t>配件销售记录创建时间</t>
+  </si>
+  <si>
+    <t>配件销售记录所属公司，来源于t_company表</t>
+  </si>
+  <si>
+    <t>accSaleStatus</t>
+  </si>
+  <si>
+    <t>配件销售记录状态，Y表示可用，N表示不可用</t>
+  </si>
+  <si>
+    <t>维修保养项目表t_maintain_fix</t>
   </si>
   <si>
     <t>maintainId</t>
   </si>
   <si>
+    <t>维修保养项目编号，UUID，主键</t>
+  </si>
+  <si>
     <t>maintainName</t>
   </si>
   <si>
+    <t>维修保养项目名称，not null</t>
+  </si>
+  <si>
     <t>maintainHour</t>
   </si>
   <si>
+    <t>维修保养项目工时,not null</t>
+  </si>
+  <si>
     <t>maintainMoney</t>
   </si>
   <si>
+    <t>维修保养项目基础费用</t>
+  </si>
+  <si>
+    <t>maintainManHourFee</t>
+  </si>
+  <si>
+    <t>维修保养项目工时费</t>
+  </si>
+  <si>
+    <t>maintainOrFix</t>
+  </si>
+  <si>
+    <t>标识是保养还是维修</t>
+  </si>
+  <si>
     <t>maintainDes</t>
   </si>
   <si>
-    <t>保养项目配件关联表t_maintain_acc</t>
+    <t>维修保养项目描述</t>
+  </si>
+  <si>
+    <t>维修保养项目所属公司，来源于t_company表</t>
+  </si>
+  <si>
+    <t>maintainStatus</t>
+  </si>
+  <si>
+    <t>维修保养项目状态，Y表示可用，N表示不可用</t>
+  </si>
+  <si>
+    <t>维修保养项目配件关联表t_maintain_fix_acc</t>
   </si>
   <si>
     <t>mainAccId</t>
   </si>
   <si>
-    <t>关联到t_maintain_item表</t>
-  </si>
-  <si>
-    <t>关联到t_car_accessories表</t>
-  </si>
-  <si>
-    <t>维修项目表t_fix_item</t>
-  </si>
-  <si>
-    <t>fixId</t>
-  </si>
-  <si>
-    <t>fixName</t>
-  </si>
-  <si>
-    <t>fixHour</t>
-  </si>
-  <si>
-    <t>fixMoney</t>
-  </si>
-  <si>
-    <t>fixDes</t>
-  </si>
-  <si>
-    <t>维修项目配件关联表t_fix_acc</t>
+    <t>保养项目配件编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>保养项目编号，来源于t_maintain_item表</t>
+  </si>
+  <si>
+    <t>预约表t_appointment</t>
+  </si>
+  <si>
+    <t>appointmentId</t>
+  </si>
+  <si>
+    <t>预约编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>用户编号，来源于t_user表，可为空，当为空时，表示非注册车主用户预约</t>
+  </si>
+  <si>
+    <t>车主姓名</t>
+  </si>
+  <si>
+    <t>车主电话</t>
+  </si>
+  <si>
+    <t>汽车品牌编号，可为空</t>
+  </si>
+  <si>
+    <t>汽车颜色编号，可为空</t>
+  </si>
+  <si>
+    <t>汽车车型编号，可为空</t>
+  </si>
+  <si>
+    <t>汽车车牌编号，not null</t>
+  </si>
+  <si>
+    <t>carPlate</t>
+  </si>
+  <si>
+    <t>汽车车牌，not null</t>
+  </si>
+  <si>
+    <t>arriveTime</t>
+  </si>
+  <si>
+    <t>预估到店时间，not null</t>
+  </si>
+  <si>
+    <t>appCreatedTime</t>
+  </si>
+  <si>
+    <t>预约记录创建时间，not null</t>
+  </si>
+  <si>
+    <t>汽修公司编号，来源于t_company表</t>
+  </si>
+  <si>
+    <t>appoitmentStatus</t>
+  </si>
+  <si>
+    <t>预约状态，Y表示可用，N表示不可用</t>
+  </si>
+  <si>
+    <t>登记表t_checkin</t>
+  </si>
+  <si>
+    <t>checkinId</t>
+  </si>
+  <si>
+    <t>登记编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>用户编号，来源于t_user表，可为空，当为空时，表示非注册车主用户登记</t>
+  </si>
+  <si>
+    <t>汽车品牌编号</t>
+  </si>
+  <si>
+    <t>汽车颜色编号</t>
+  </si>
+  <si>
+    <t>汽车车型编号</t>
+  </si>
+  <si>
+    <t>汽车车牌编号</t>
+  </si>
+  <si>
+    <t>到店时间，not null</t>
+  </si>
+  <si>
+    <t>carMileage</t>
+  </si>
+  <si>
+    <t>汽车行驶里程</t>
+  </si>
+  <si>
+    <t>carThings</t>
+  </si>
+  <si>
+    <t>车上物品描述</t>
+  </si>
+  <si>
+    <t>intactDegrees</t>
+  </si>
+  <si>
+    <t>汽车完好度描述</t>
+  </si>
+  <si>
+    <t>userRequests</t>
+  </si>
+  <si>
+    <t>用户要求描述</t>
+  </si>
+  <si>
+    <t>checkinCreatedTime</t>
+  </si>
+  <si>
+    <t>登记记录创建的时间</t>
+  </si>
+  <si>
+    <t>checkinStatus</t>
+  </si>
+  <si>
+    <t>登记记录状态，Y表示可用，N表示不可用</t>
+  </si>
+  <si>
+    <t>维修保养记录表t_maintain_record</t>
+  </si>
+  <si>
+    <t>recordId</t>
+  </si>
+  <si>
+    <t>关联到t_user</t>
+  </si>
+  <si>
+    <t>appointmentTime</t>
+  </si>
+  <si>
+    <t>关联到t_appointment  预约时间</t>
+  </si>
+  <si>
+    <t>maintenanceTime</t>
+  </si>
+  <si>
+    <t>关联到t_maintain_detailed 维修保养时间</t>
+  </si>
+  <si>
+    <t>关联到t_maintain_item  保养项目</t>
+  </si>
+  <si>
+    <t>chargebillId</t>
+  </si>
+  <si>
+    <t>关联到t_charge_bill  收费单据</t>
+  </si>
+  <si>
+    <t>维修保养明细表t_maintain_detail</t>
+  </si>
+  <si>
+    <t>maintainDetailId</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>maintainItemId</t>
+  </si>
+  <si>
+    <t>关联t_user表</t>
   </si>
   <si>
     <t>fixAccId</t>
   </si>
   <si>
-    <t>关联到t_fix_item表</t>
-  </si>
-  <si>
-    <t>预约表t_appointment</t>
-  </si>
-  <si>
-    <t>appointmentId</t>
-  </si>
-  <si>
-    <t>车主的姓名或者称呼</t>
-  </si>
-  <si>
-    <t>userTel</t>
-  </si>
-  <si>
-    <t>车主的联系方式</t>
-  </si>
-  <si>
-    <t>carBrand</t>
-  </si>
-  <si>
-    <t>汽车的品牌</t>
-  </si>
-  <si>
-    <t>carColor</t>
-  </si>
-  <si>
-    <t>汽车的颜色</t>
-  </si>
-  <si>
-    <t>carModel</t>
-  </si>
-  <si>
-    <t>汽车的车型</t>
-  </si>
-  <si>
-    <t>carPlate</t>
-  </si>
-  <si>
-    <t>汽车的车牌</t>
-  </si>
-  <si>
-    <t>carMileage</t>
-  </si>
-  <si>
-    <t>汽车的最新行程</t>
+    <t>关联t_fix_acc表</t>
   </si>
   <si>
     <t>maintainTime</t>
-  </si>
-  <si>
-    <t>保养的时间</t>
-  </si>
-  <si>
-    <t>appoitmentStatus</t>
-  </si>
-  <si>
-    <t>预约状态</t>
-  </si>
-  <si>
-    <t>登记表t_checkin</t>
-  </si>
-  <si>
-    <t>checkinId</t>
-  </si>
-  <si>
-    <t>checkinCreatedTime</t>
-  </si>
-  <si>
-    <t>保养创建的时间</t>
-  </si>
-  <si>
-    <t>checkinStatus</t>
-  </si>
-  <si>
-    <t>登记状态</t>
-  </si>
-  <si>
-    <t>维修保养记录表t_maintain_record</t>
-  </si>
-  <si>
-    <t>recordId</t>
-  </si>
-  <si>
-    <t>关联到t_user</t>
-  </si>
-  <si>
-    <t>appointmentTime</t>
-  </si>
-  <si>
-    <t>关联到t_appointment  预约时间</t>
-  </si>
-  <si>
-    <t>maintenanceTime</t>
-  </si>
-  <si>
-    <t>关联到t_maintain_detailed 维修保养时间</t>
-  </si>
-  <si>
-    <t>关联到t_maintain_item  保养项目</t>
-  </si>
-  <si>
-    <t>chargebillId</t>
-  </si>
-  <si>
-    <t>关联到t_charge_bill  收费单据</t>
-  </si>
-  <si>
-    <t>维修保养明细表t_maintain_detailed</t>
-  </si>
-  <si>
-    <t>maintainDetailId</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>关联t_maintain_acc表，以便打印已保养的项目：保养名称、保养所需时间、保养金额、保养所需配件</t>
-  </si>
-  <si>
-    <t>关联t_user表，以便打印车主用户姓名、电话</t>
-  </si>
-  <si>
-    <t>关联t_fix_acc表， 以便打印已维修的项目：维修名称、维修所需时间、维修金额、维修所需配件</t>
   </si>
   <si>
     <t>保养时间</t>
@@ -1150,6 +1306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>etailed</t>
@@ -1217,6 +1374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -1225,6 +1383,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>r</t>
@@ -1233,6 +1392,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>Id</t>
@@ -1258,6 +1418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -1266,6 +1427,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>essageId</t>
@@ -1428,9 +1590,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1466,12 +1628,50 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,31 +1692,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1528,17 +1708,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1554,24 +1733,24 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1583,38 +1762,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1628,13 +1789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,7 +1813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,13 +1849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,7 +1861,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,37 +1933,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,79 +1969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,6 +1984,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1833,15 +2009,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1861,17 +2028,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1893,29 +2074,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1927,10 +2088,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1939,136 +2100,136 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2079,11 +2240,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2094,7 +2255,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2445,10 +2606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D357"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:A152"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2456,28 +2617,28 @@
     <col min="1" max="1" width="5.51327433628319" customWidth="1"/>
     <col min="2" max="2" width="23.9911504424779" customWidth="1"/>
     <col min="3" max="3" width="13.929203539823" customWidth="1"/>
-    <col min="4" max="4" width="98.1327433628319" customWidth="1"/>
+    <col min="4" max="4" width="97.2389380530973" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2667,21 +2828,21 @@
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2969,21 +3130,21 @@
       <c r="A40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3047,21 +3208,21 @@
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3125,21 +3286,21 @@
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3231,21 +3392,21 @@
       <c r="A63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3309,21 +3470,21 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3387,21 +3548,21 @@
       <c r="A77" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3465,21 +3626,21 @@
       <c r="A84" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3571,21 +3732,21 @@
       <c r="A93" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3663,21 +3824,21 @@
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3741,21 +3902,21 @@
       <c r="A108" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3806,200 +3967,200 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
         <v>178</v>
       </c>
-      <c r="C113" t="s">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" t="s">
         <v>40</v>
       </c>
-      <c r="D113" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1" t="s">
+      <c r="D114" t="s">
         <v>180</v>
       </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
-        <v>181</v>
-      </c>
-      <c r="C117" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" t="s">
+        <v>182</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
         <v>183</v>
-      </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B119" t="s">
+        <v>184</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
         <v>185</v>
-      </c>
-      <c r="C119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120" t="s">
+        <v>186</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
         <v>187</v>
-      </c>
-      <c r="C120" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
         <v>189</v>
-      </c>
-      <c r="C121" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
         <v>191</v>
-      </c>
-      <c r="C122" t="s">
-        <v>106</v>
-      </c>
-      <c r="D122" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
+        <v>192</v>
+      </c>
+      <c r="C123" t="s">
+        <v>106</v>
+      </c>
+      <c r="D123" t="s">
         <v>193</v>
-      </c>
-      <c r="C123" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
+        <v>194</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
         <v>195</v>
-      </c>
-      <c r="C124" t="s">
-        <v>29</v>
-      </c>
-      <c r="D124" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
+        <v>196</v>
+      </c>
+      <c r="C125" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" t="s">
         <v>197</v>
-      </c>
-      <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
+        <v>198</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
         <v>199</v>
-      </c>
-      <c r="C126" t="s">
-        <v>29</v>
-      </c>
-      <c r="D126" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
+        <v>200</v>
+      </c>
+      <c r="C127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" t="s">
         <v>201</v>
-      </c>
-      <c r="C127" t="s">
-        <v>61</v>
-      </c>
-      <c r="D127" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D128" t="s">
         <v>203</v>
@@ -4007,1851 +4168,2465 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
         <v>13</v>
       </c>
-      <c r="B129" t="s">
-        <v>204</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" t="s">
         <v>40</v>
       </c>
-      <c r="D129" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="3" t="s">
+      <c r="D131" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133" t="s">
-        <v>207</v>
-      </c>
-      <c r="C133" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134">
-        <v>2</v>
-      </c>
-      <c r="B134" t="s">
-        <v>209</v>
-      </c>
-      <c r="C134" t="s">
-        <v>29</v>
-      </c>
-      <c r="D134" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C135" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D135" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>211</v>
+      </c>
+      <c r="C136" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>213</v>
+      </c>
+      <c r="C137" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
         <v>4</v>
       </c>
-      <c r="B136" t="s">
-        <v>213</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>216</v>
+      </c>
+      <c r="C139" t="s">
         <v>40</v>
       </c>
-      <c r="D136" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="3" t="s">
+      <c r="D139" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D142" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140">
-        <v>1</v>
-      </c>
-      <c r="B140" t="s">
-        <v>216</v>
-      </c>
-      <c r="C140" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141">
-        <v>2</v>
-      </c>
-      <c r="B141" t="s">
-        <v>218</v>
-      </c>
-      <c r="C141" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142">
-        <v>3</v>
-      </c>
-      <c r="B142" t="s">
-        <v>220</v>
-      </c>
-      <c r="C142" t="s">
-        <v>37</v>
-      </c>
-      <c r="D142" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C145" t="s">
-        <v>227</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C146" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C147" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C148" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D148" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="D149" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C150" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="D150" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D151" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>238</v>
+      </c>
+      <c r="C152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D152" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>182</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>241</v>
+      </c>
+      <c r="C154" t="s">
+        <v>61</v>
+      </c>
+      <c r="D154" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
         <v>13</v>
       </c>
-      <c r="B152" t="s">
-        <v>239</v>
-      </c>
-      <c r="C152" t="s">
-        <v>40</v>
-      </c>
-      <c r="D152" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4">
+      <c r="B155" t="s">
+        <v>209</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>14</v>
+      </c>
       <c r="B156" t="s">
-        <v>242</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>15</v>
+      </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>245</v>
+      </c>
+      <c r="C157" t="s">
+        <v>40</v>
       </c>
       <c r="D157" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
-      <c r="B160" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="161" spans="2:2">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>1</v>
+      </c>
       <c r="B161" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
+        <v>248</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="162" ht="40.5" spans="1:4">
+      <c r="A162">
+        <v>2</v>
+      </c>
       <c r="B162" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
+        <v>219</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>3</v>
+      </c>
       <c r="B163" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="C163" t="s">
+        <v>232</v>
+      </c>
+      <c r="D163" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>253</v>
+      </c>
+      <c r="C164" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+      <c r="A165">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="3" t="s">
+      <c r="A166">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>257</v>
+      </c>
+      <c r="C166" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>259</v>
+      </c>
+      <c r="C167" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>261</v>
+      </c>
+      <c r="C168" t="s">
+        <v>61</v>
+      </c>
+      <c r="D168" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>263</v>
+      </c>
+      <c r="C169" t="s">
+        <v>61</v>
+      </c>
+      <c r="D169" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>11</v>
+      </c>
+      <c r="B171" t="s">
+        <v>266</v>
+      </c>
+      <c r="C171" t="s">
+        <v>40</v>
+      </c>
+      <c r="D171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D174" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4">
-      <c r="B168" t="s">
-        <v>216</v>
-      </c>
-      <c r="D168" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" t="s">
-        <v>255</v>
-      </c>
-    </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>269</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="3" t="s">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
+        <v>219</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>272</v>
+      </c>
+      <c r="C177" t="s">
+        <v>61</v>
+      </c>
+      <c r="D177" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>274</v>
+      </c>
+      <c r="C178" t="s">
+        <v>232</v>
+      </c>
+      <c r="D178" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>229</v>
+      </c>
+      <c r="C179" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>277</v>
+      </c>
+      <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>279</v>
+      </c>
+      <c r="C181" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>281</v>
+      </c>
+      <c r="C182" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
+        <v>283</v>
+      </c>
+      <c r="C183" t="s">
+        <v>61</v>
+      </c>
+      <c r="D183" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>286</v>
+      </c>
+      <c r="C185" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D188" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
-      <c r="B177" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="3" t="s">
+    <row r="189" spans="1:4">
+      <c r="A189">
         <v>1</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B189" t="s">
+        <v>289</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
         <v>2</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="B190" t="s">
+        <v>291</v>
+      </c>
+      <c r="C190" t="s">
+        <v>29</v>
+      </c>
+      <c r="D190" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
         <v>3</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="B191" t="s">
+        <v>293</v>
+      </c>
+      <c r="C191" t="s">
+        <v>32</v>
+      </c>
+      <c r="D191" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4">
-      <c r="B186" t="s">
-        <v>257</v>
-      </c>
-      <c r="D186" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4">
-      <c r="B187" t="s">
-        <v>216</v>
-      </c>
-      <c r="D187" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="3" t="s">
+      <c r="B192" t="s">
+        <v>295</v>
+      </c>
+      <c r="C192" t="s">
+        <v>32</v>
+      </c>
+      <c r="D192" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>297</v>
+      </c>
+      <c r="C193" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>299</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>301</v>
+      </c>
+      <c r="C195" t="s">
+        <v>37</v>
+      </c>
+      <c r="D195" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
+        <v>304</v>
+      </c>
+      <c r="C197" t="s">
+        <v>40</v>
+      </c>
+      <c r="D197" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C200" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D200" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
-      <c r="B191" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" t="s">
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201" t="s">
+        <v>307</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202" t="s">
+        <v>289</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>219</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="3" t="s">
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B206" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D206" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
-      <c r="B199" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4">
-      <c r="B200" t="s">
-        <v>267</v>
-      </c>
-      <c r="D200" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4">
-      <c r="B201" t="s">
-        <v>216</v>
-      </c>
-      <c r="D201" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="3" t="s">
+    <row r="207" spans="1:4">
+      <c r="A207">
         <v>1</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B207" t="s">
+        <v>311</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
         <v>2</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="B208" t="s">
+        <v>43</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
         <v>3</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="B209" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4">
-      <c r="B206" t="s">
+      <c r="B210" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>130</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>139</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>153</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>163</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>320</v>
+      </c>
+      <c r="C215" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>322</v>
+      </c>
+      <c r="C216" t="s">
+        <v>61</v>
+      </c>
+      <c r="D216" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>11</v>
+      </c>
+      <c r="B217" t="s">
+        <v>299</v>
+      </c>
+      <c r="C217" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>12</v>
+      </c>
+      <c r="B218" t="s">
+        <v>324</v>
+      </c>
+      <c r="C218" t="s">
+        <v>61</v>
+      </c>
+      <c r="D218" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>327</v>
+      </c>
+      <c r="C220" t="s">
+        <v>40</v>
+      </c>
+      <c r="D220" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>330</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
+        <v>43</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>3</v>
+      </c>
+      <c r="B226" t="s">
         <v>56</v>
       </c>
-      <c r="D206" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4">
-      <c r="B207" t="s">
-        <v>278</v>
-      </c>
-      <c r="D207" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4">
-      <c r="B208" t="s">
-        <v>280</v>
-      </c>
-      <c r="D208" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4">
-      <c r="B209" t="s">
-        <v>282</v>
-      </c>
-      <c r="D209" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4">
-      <c r="B210" t="s">
-        <v>284</v>
-      </c>
-      <c r="D210" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4">
-      <c r="B211" t="s">
-        <v>286</v>
-      </c>
-      <c r="D211" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4">
-      <c r="B212" t="s">
-        <v>288</v>
-      </c>
-      <c r="D212" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4">
-      <c r="B213" t="s">
-        <v>290</v>
-      </c>
-      <c r="D213" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4">
-      <c r="B214" t="s">
-        <v>292</v>
-      </c>
-      <c r="D214" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="3" t="s">
+      <c r="C226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>4</v>
+      </c>
+      <c r="B227" t="s">
+        <v>47</v>
+      </c>
+      <c r="C227" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228" t="s">
+        <v>130</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>139</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>7</v>
+      </c>
+      <c r="B230" t="s">
+        <v>153</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>8</v>
+      </c>
+      <c r="B231" t="s">
+        <v>163</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>9</v>
+      </c>
+      <c r="B232" t="s">
+        <v>320</v>
+      </c>
+      <c r="C232" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>322</v>
+      </c>
+      <c r="C233" t="s">
+        <v>61</v>
+      </c>
+      <c r="D233" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>11</v>
+      </c>
+      <c r="B234" t="s">
+        <v>338</v>
+      </c>
+      <c r="C234" t="s">
+        <v>32</v>
+      </c>
+      <c r="D234" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>12</v>
+      </c>
+      <c r="B235" t="s">
+        <v>340</v>
+      </c>
+      <c r="C235" t="s">
+        <v>37</v>
+      </c>
+      <c r="D235" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>13</v>
+      </c>
+      <c r="B236" t="s">
+        <v>342</v>
+      </c>
+      <c r="C236" t="s">
+        <v>37</v>
+      </c>
+      <c r="D236" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>344</v>
+      </c>
+      <c r="C237" t="s">
+        <v>37</v>
+      </c>
+      <c r="D237" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>15</v>
+      </c>
+      <c r="B238" t="s">
+        <v>299</v>
+      </c>
+      <c r="C238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D238" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>16</v>
+      </c>
+      <c r="B239" t="s">
+        <v>346</v>
+      </c>
+      <c r="C239" t="s">
+        <v>61</v>
+      </c>
+      <c r="D239" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>17</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>18</v>
+      </c>
+      <c r="B241" t="s">
+        <v>348</v>
+      </c>
+      <c r="C241" t="s">
+        <v>40</v>
+      </c>
+      <c r="D241" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B244" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C244" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D244" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
-      <c r="B220" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4">
-      <c r="B221" t="s">
-        <v>56</v>
-      </c>
-      <c r="D221" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4">
-      <c r="B222" t="s">
-        <v>278</v>
-      </c>
-      <c r="D222" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4">
-      <c r="B223" t="s">
-        <v>280</v>
-      </c>
-      <c r="D223" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4">
-      <c r="B224" t="s">
-        <v>282</v>
-      </c>
-      <c r="D224" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4">
-      <c r="B225" t="s">
-        <v>284</v>
-      </c>
-      <c r="D225" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="226" spans="2:4">
-      <c r="B226" t="s">
-        <v>286</v>
-      </c>
-      <c r="D226" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4">
-      <c r="B227" t="s">
-        <v>288</v>
-      </c>
-      <c r="D227" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4">
-      <c r="B228" t="s">
-        <v>296</v>
-      </c>
-      <c r="D228" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="229" spans="2:4">
-      <c r="B229" t="s">
-        <v>298</v>
-      </c>
-      <c r="D229" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="234" spans="2:4">
-      <c r="B234" t="s">
-        <v>43</v>
-      </c>
-      <c r="D234" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="235" spans="2:4">
-      <c r="B235" t="s">
-        <v>303</v>
-      </c>
-      <c r="D235" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4">
-      <c r="B236" t="s">
-        <v>305</v>
-      </c>
-      <c r="D236" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="237" spans="2:4">
-      <c r="B237" t="s">
-        <v>257</v>
-      </c>
-      <c r="D237" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="238" spans="2:4">
-      <c r="B238" t="s">
-        <v>308</v>
-      </c>
-      <c r="D238" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="239" customFormat="1"/>
-    <row r="240" spans="1:4">
-      <c r="A240" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="2:4">
-      <c r="B242" t="s">
-        <v>311</v>
-      </c>
-      <c r="D242" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="243" spans="2:4">
-      <c r="B243" t="s">
-        <v>263</v>
-      </c>
-      <c r="D243" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="244" spans="2:4">
-      <c r="B244" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="245" spans="2:4">
+    <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>273</v>
-      </c>
-      <c r="D245" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="D246" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
     <row r="247" spans="2:4">
       <c r="B247" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="D247" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="248" customFormat="1"/>
-    <row r="249" spans="1:4">
-      <c r="A249" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4">
+      <c r="B248" t="s">
+        <v>355</v>
+      </c>
+      <c r="D248" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4">
+      <c r="B249" t="s">
+        <v>289</v>
+      </c>
+      <c r="D249" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4">
+      <c r="B250" t="s">
+        <v>358</v>
+      </c>
+      <c r="D250" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="251" customFormat="1"/>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B253" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C253" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D253" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="2:4">
-      <c r="B251" t="s">
-        <v>320</v>
-      </c>
-      <c r="D251" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="252" spans="2:4">
-      <c r="B252" t="s">
-        <v>216</v>
-      </c>
-      <c r="D252" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="253" spans="2:4">
-      <c r="B253" t="s">
-        <v>323</v>
-      </c>
-      <c r="D253" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="D254" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>326</v>
-      </c>
-      <c r="D255" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="256" spans="2:4">
-      <c r="B256" t="s">
-        <v>328</v>
-      </c>
-      <c r="D256" t="s">
-        <v>329</v>
+      <c r="B256" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="D257" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="258" customFormat="1"/>
-    <row r="259" spans="1:4">
-      <c r="A259" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4">
+      <c r="B258" t="s">
+        <v>367</v>
+      </c>
+      <c r="D258" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4">
+      <c r="B259" t="s">
+        <v>369</v>
+      </c>
+      <c r="D259" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="260" customFormat="1"/>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B262" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C262" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D262" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:4">
-      <c r="B261" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5" t="s">
+    <row r="263" spans="2:4">
+      <c r="B263" t="s">
+        <v>372</v>
+      </c>
+      <c r="D263" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4">
+      <c r="B264" t="s">
+        <v>219</v>
+      </c>
+      <c r="D264" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4">
+      <c r="B265" t="s">
+        <v>375</v>
+      </c>
+      <c r="D265" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4">
+      <c r="B266" t="s">
+        <v>289</v>
+      </c>
+      <c r="D266" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4">
+      <c r="B267" t="s">
+        <v>378</v>
+      </c>
+      <c r="D267" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4">
+      <c r="B268" t="s">
+        <v>380</v>
+      </c>
+      <c r="D268" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4">
+      <c r="B269" t="s">
+        <v>382</v>
+      </c>
+      <c r="D269" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="270" customFormat="1"/>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="2:4">
-      <c r="B262" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="263" spans="2:4">
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-    </row>
-    <row r="264" spans="2:4">
-      <c r="B264" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C264" s="5"/>
-      <c r="D264" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="265" spans="2:4">
-      <c r="B265" s="5" t="s">
+      <c r="B272" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4">
+      <c r="B273" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4">
+      <c r="B274" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4">
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+    </row>
+    <row r="276" spans="2:4">
+      <c r="B276" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4">
+      <c r="B277" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C265" s="5"/>
-      <c r="D265" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="266" spans="2:4">
-      <c r="B266" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="267" spans="2:4">
-      <c r="B267" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C267" s="5"/>
-      <c r="D267" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="268" customFormat="1" spans="2:4">
-      <c r="B268" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C268" s="5"/>
-      <c r="D268" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="269" customFormat="1" spans="2:4">
-      <c r="B269" s="5"/>
-      <c r="C269" s="5"/>
-      <c r="D269" s="5"/>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="3" t="s">
+      <c r="C277" s="5"/>
+      <c r="D277" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4">
+      <c r="B278" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4">
+      <c r="B279" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="280" customFormat="1" spans="2:4">
+      <c r="B280" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="281" customFormat="1" spans="2:4">
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B283" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C283" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D283" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="2:4">
-      <c r="B272" t="s">
-        <v>346</v>
-      </c>
-      <c r="D272" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="273" spans="2:4">
-      <c r="B273" t="s">
-        <v>348</v>
-      </c>
-      <c r="D273" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="274" spans="2:4">
-      <c r="B274" t="s">
-        <v>350</v>
-      </c>
-      <c r="D274" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="275" spans="2:4">
-      <c r="B275" t="s">
-        <v>352</v>
-      </c>
-      <c r="D275" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="276" spans="2:4">
-      <c r="B276" t="s">
-        <v>354</v>
-      </c>
-      <c r="D276" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="277" spans="2:4">
-      <c r="B277" t="s">
-        <v>356</v>
-      </c>
-      <c r="D277" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="278" spans="2:4">
-      <c r="B278" t="s">
-        <v>358</v>
-      </c>
-      <c r="D278" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="279" customFormat="1"/>
-    <row r="280" spans="1:4">
-      <c r="A280" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="2:4">
-      <c r="B282" t="s">
-        <v>361</v>
-      </c>
-      <c r="D282" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="283" spans="2:4">
-      <c r="B283" t="s">
-        <v>348</v>
-      </c>
-      <c r="D283" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="D284" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="D285" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="D286" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="D287" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="288" customFormat="1" spans="2:4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="D288" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="289" customFormat="1"/>
-    <row r="290" spans="1:4">
-      <c r="A290" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="B289" t="s">
+        <v>408</v>
+      </c>
+      <c r="D289" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
+        <v>410</v>
+      </c>
+      <c r="D290" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="291" customFormat="1"/>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B293" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C293" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="D293" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="2:4">
-      <c r="B292" t="s">
-        <v>368</v>
-      </c>
-      <c r="D292" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="293" spans="2:4">
-      <c r="B293" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D293" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="294" customFormat="1" spans="2:4">
+    <row r="294" spans="2:4">
       <c r="B294" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="D294" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="295" customFormat="1" spans="2:4">
-      <c r="B295" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D295" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="296" customFormat="1" spans="2:4">
-      <c r="B296" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D296" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4">
+      <c r="B295" t="s">
+        <v>400</v>
+      </c>
+      <c r="D295" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4">
+      <c r="B296" t="s">
+        <v>402</v>
+      </c>
+      <c r="D296" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="297" spans="2:4">
-      <c r="B297" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D297" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="298" customFormat="1" spans="2:4">
-      <c r="B298" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D298" s="7" t="s">
-        <v>381</v>
+      <c r="B297" t="s">
+        <v>404</v>
+      </c>
+      <c r="D297" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4">
+      <c r="B298" t="s">
+        <v>406</v>
+      </c>
+      <c r="D298" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="299" spans="2:4">
-      <c r="B299" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D299" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="300" spans="2:4">
-      <c r="B300" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D300" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="301" customFormat="1" spans="2:4">
-      <c r="B301" s="7"/>
-      <c r="D301" s="7"/>
-    </row>
+      <c r="B299" t="s">
+        <v>415</v>
+      </c>
+      <c r="D299" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="300" customFormat="1" spans="2:4">
+      <c r="B300" t="s">
+        <v>417</v>
+      </c>
+      <c r="D300" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="301" customFormat="1"/>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="D303" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="304" spans="2:4">
-      <c r="B304" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C304" s="8"/>
-      <c r="D304" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="305" customFormat="1" spans="2:4">
-      <c r="B305" s="8" t="s">
+      <c r="B304" t="s">
+        <v>420</v>
+      </c>
+      <c r="D304" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4">
+      <c r="B305" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D305" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="306" customFormat="1" spans="2:4">
+      <c r="B306" t="s">
+        <v>424</v>
+      </c>
+      <c r="D306" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="307" customFormat="1" spans="2:4">
+      <c r="B307" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="308" customFormat="1" spans="2:4">
+      <c r="B308" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4">
+      <c r="B309" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="310" customFormat="1" spans="2:4">
+      <c r="B310" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4">
+      <c r="B311" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4">
+      <c r="B312" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="313" customFormat="1" spans="2:4">
+      <c r="B313" s="7"/>
+      <c r="D313" s="7"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="B316" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C316" s="8"/>
+      <c r="D316" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="317" customFormat="1" spans="2:4">
+      <c r="B317" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C305" s="8"/>
-      <c r="D305" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="306" customFormat="1" spans="2:4">
-      <c r="B306" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C306" s="8"/>
-      <c r="D306" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="3" t="s">
+      <c r="C317" s="8"/>
+      <c r="D317" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="318" customFormat="1" spans="2:4">
+      <c r="B318" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C318" s="8"/>
+      <c r="D318" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B322" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C322" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="D322" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="2:4">
-      <c r="B311" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C311" s="8"/>
-      <c r="D311" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="312" spans="2:4">
-      <c r="B312" s="8" t="s">
+    <row r="323" spans="2:4">
+      <c r="B323" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C323" s="8"/>
+      <c r="D323" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4">
+      <c r="B324" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C312" s="8"/>
-      <c r="D312" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="313" spans="2:4">
-      <c r="B313" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C313" s="8"/>
-      <c r="D313" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="314" spans="2:4">
-      <c r="B314" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C314" s="8"/>
-      <c r="D314" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="315" customFormat="1" spans="2:4">
-      <c r="B315" s="8"/>
-      <c r="C315" s="8"/>
-      <c r="D315" s="8"/>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
-      <c r="D316" s="2"/>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="3" t="s">
+      <c r="C324" s="8"/>
+      <c r="D324" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4">
+      <c r="B325" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C325" s="8"/>
+      <c r="D325" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4">
+      <c r="B326" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C326" s="8"/>
+      <c r="D326" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="327" customFormat="1" spans="2:4">
+      <c r="B327" s="8"/>
+      <c r="C327" s="8"/>
+      <c r="D327" s="8"/>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B329" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C329" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D317" s="3" t="s">
+      <c r="D329" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="2:4">
-      <c r="B318" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C318" s="5"/>
-      <c r="D318" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="319" spans="2:4">
-      <c r="B319" s="5" t="s">
+    <row r="330" spans="2:4">
+      <c r="B330" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4">
+      <c r="B331" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C319" s="5"/>
-      <c r="D319" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="320" spans="2:4">
-      <c r="B320" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C320" s="5"/>
-      <c r="D320" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="321" spans="2:4">
-      <c r="B321" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C321" s="5"/>
-      <c r="D321" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="322" customFormat="1" spans="2:4">
-      <c r="B322" s="5"/>
-      <c r="C322" s="5"/>
-      <c r="D322" s="5"/>
-    </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
-    </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="3" t="s">
+      <c r="C331" s="5"/>
+      <c r="D331" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4">
+      <c r="B332" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4">
+      <c r="B333" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="334" customFormat="1" spans="2:4">
+      <c r="B334" s="5"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B336" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C336" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D336" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="2:4">
-      <c r="B325" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C325" s="5"/>
-      <c r="D325" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="326" customFormat="1" spans="2:4">
-      <c r="B326" t="s">
+    <row r="337" spans="2:4">
+      <c r="B337" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="338" customFormat="1" spans="2:4">
+      <c r="B338" t="s">
         <v>43</v>
       </c>
-      <c r="D326" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="327" customFormat="1" spans="2:4">
-      <c r="B327" t="s">
-        <v>411</v>
-      </c>
-      <c r="D327" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="328" customFormat="1" spans="2:4">
-      <c r="B328" t="s">
-        <v>413</v>
-      </c>
-      <c r="D328" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="329" spans="2:4">
-      <c r="B329" t="s">
-        <v>415</v>
-      </c>
-      <c r="D329" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="330" customFormat="1"/>
-    <row r="331" spans="1:4">
-      <c r="A331" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="3" t="s">
+      <c r="D338" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="339" customFormat="1" spans="2:4">
+      <c r="B339" t="s">
+        <v>463</v>
+      </c>
+      <c r="D339" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="340" customFormat="1" spans="2:4">
+      <c r="B340" t="s">
+        <v>465</v>
+      </c>
+      <c r="D340" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="B341" t="s">
+        <v>467</v>
+      </c>
+      <c r="D341" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="342" customFormat="1"/>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B344" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C344" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D344" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="333" spans="2:4">
-      <c r="B333" t="s">
-        <v>418</v>
-      </c>
-      <c r="C333" t="s">
-        <v>227</v>
-      </c>
-      <c r="D333" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="334" spans="2:4">
-      <c r="B334" t="s">
-        <v>420</v>
-      </c>
-      <c r="C334" t="s">
-        <v>421</v>
-      </c>
-      <c r="D334" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="335" customFormat="1"/>
-    <row r="336" spans="1:4">
-      <c r="A336" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="2:4">
-      <c r="B338" t="s">
-        <v>424</v>
-      </c>
-      <c r="C338" t="s">
-        <v>227</v>
-      </c>
-      <c r="D338" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4">
-      <c r="B339" t="s">
-        <v>420</v>
-      </c>
-      <c r="C339" t="s">
-        <v>421</v>
-      </c>
-      <c r="D339" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="340" customFormat="1"/>
-    <row r="341" spans="1:4">
-      <c r="A341" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-    </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4">
-      <c r="B343" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C343" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D343" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4">
-      <c r="B344" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C344" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D344" s="4" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="345" spans="2:4">
       <c r="B345" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="C345" t="s">
+        <v>232</v>
+      </c>
+      <c r="D345" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4">
+      <c r="B346" t="s">
+        <v>472</v>
+      </c>
+      <c r="C346" t="s">
+        <v>473</v>
+      </c>
+      <c r="D346" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="347" customFormat="1"/>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4">
+      <c r="B350" t="s">
+        <v>476</v>
+      </c>
+      <c r="C350" t="s">
+        <v>232</v>
+      </c>
+      <c r="D350" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4">
+      <c r="B351" t="s">
+        <v>472</v>
+      </c>
+      <c r="C351" t="s">
+        <v>473</v>
+      </c>
+      <c r="D351" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="352" customFormat="1"/>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4">
+      <c r="B355" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4">
+      <c r="B356" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4">
+      <c r="B357" t="s">
+        <v>482</v>
+      </c>
+      <c r="C357" t="s">
         <v>26</v>
       </c>
-      <c r="D345" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="346" customFormat="1" spans="2:4">
-      <c r="B346" t="s">
-        <v>432</v>
-      </c>
-      <c r="C346" t="s">
-        <v>421</v>
-      </c>
-      <c r="D346" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="347" customFormat="1" spans="2:4">
-      <c r="B347" t="s">
-        <v>434</v>
-      </c>
-      <c r="C347" t="s">
-        <v>227</v>
-      </c>
-      <c r="D347" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="348" customFormat="1" spans="2:4">
-      <c r="B348" t="s">
-        <v>436</v>
-      </c>
-      <c r="C348" t="s">
+      <c r="D357" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="358" customFormat="1" spans="2:4">
+      <c r="B358" t="s">
+        <v>484</v>
+      </c>
+      <c r="C358" t="s">
+        <v>473</v>
+      </c>
+      <c r="D358" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="359" customFormat="1" spans="2:4">
+      <c r="B359" t="s">
+        <v>486</v>
+      </c>
+      <c r="C359" t="s">
+        <v>232</v>
+      </c>
+      <c r="D359" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="360" customFormat="1" spans="2:4">
+      <c r="B360" t="s">
+        <v>488</v>
+      </c>
+      <c r="C360" t="s">
         <v>32</v>
       </c>
-      <c r="D348" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="349" customFormat="1"/>
-    <row r="350" spans="1:4">
-      <c r="A350" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
-    </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="3" t="s">
+      <c r="D360" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="361" customFormat="1"/>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B363" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="C363" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D351" s="3" t="s">
+      <c r="D363" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="2:2">
-      <c r="B352" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2">
-      <c r="B353" t="s">
+    <row r="364" spans="2:2">
+      <c r="B364" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="354" spans="2:2">
-      <c r="B354" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="355" spans="2:2">
-      <c r="B355" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="356" spans="2:2">
-      <c r="B356" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="357" spans="2:2">
-      <c r="B357" t="s">
-        <v>443</v>
+    <row r="366" spans="2:2">
+      <c r="B366" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="36">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A40:D40"/>
@@ -5864,32 +6639,30 @@
     <mergeCell ref="A93:D93"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A249:D249"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A270:D270"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A292:D292"/>
     <mergeCell ref="A302:D302"/>
-    <mergeCell ref="A309:D309"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A331:D331"/>
-    <mergeCell ref="A336:D336"/>
-    <mergeCell ref="A341:D341"/>
-    <mergeCell ref="A350:D350"/>
+    <mergeCell ref="A314:D314"/>
+    <mergeCell ref="A321:D321"/>
+    <mergeCell ref="A328:D328"/>
+    <mergeCell ref="A335:D335"/>
+    <mergeCell ref="A343:D343"/>
+    <mergeCell ref="A348:D348"/>
+    <mergeCell ref="A353:D353"/>
+    <mergeCell ref="A362:D362"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -108,7 +108,7 @@
     <t>varchar(50)</t>
   </si>
   <si>
-    <t>规模,页面直接选择，不需要输入</t>
+    <t>公司规模,页面直接选择，不需要输入</t>
   </si>
   <si>
     <t>companyLongitude</t>
@@ -711,6 +711,12 @@
     <t>配件售价，not null</t>
   </si>
   <si>
+    <t>accUnit</t>
+  </si>
+  <si>
+    <t>配件计量单位</t>
+  </si>
+  <si>
     <t>accTotal</t>
   </si>
   <si>
@@ -906,13 +912,13 @@
     <t>maintainMoney</t>
   </si>
   <si>
-    <t>维修保养项目基础费用</t>
+    <t>维修保养项目基础费用，not null</t>
   </si>
   <si>
     <t>maintainManHourFee</t>
   </si>
   <si>
-    <t>维修保养项目工时费</t>
+    <t>维修保养项目工时费,not null</t>
   </si>
   <si>
     <t>maintainOrFix</t>
@@ -945,7 +951,13 @@
     <t>保养项目配件编号，UUID,主键</t>
   </si>
   <si>
-    <t>保养项目编号，来源于t_maintain_item表</t>
+    <t>保养项目编号，来源于t_maintain_fix表</t>
+  </si>
+  <si>
+    <t>accCount</t>
+  </si>
+  <si>
+    <t>配件个数</t>
   </si>
   <si>
     <t>预约表t_appointment</t>
@@ -1017,6 +1029,9 @@
     <t>用户编号，来源于t_user表，可为空，当为空时，表示非注册车主用户登记</t>
   </si>
   <si>
+    <t>预约编号，来源于t_appointment表，可为空，当为空时，表示未预约过</t>
+  </si>
+  <si>
     <t>汽车品牌编号</t>
   </si>
   <si>
@@ -1074,28 +1089,52 @@
     <t>recordId</t>
   </si>
   <si>
-    <t>关联到t_user</t>
-  </si>
-  <si>
-    <t>appointmentTime</t>
-  </si>
-  <si>
-    <t>关联到t_appointment  预约时间</t>
-  </si>
-  <si>
-    <t>maintenanceTime</t>
-  </si>
-  <si>
-    <t>关联到t_maintain_detailed 维修保养时间</t>
-  </si>
-  <si>
-    <t>关联到t_maintain_item  保养项目</t>
-  </si>
-  <si>
-    <t>chargebillId</t>
-  </si>
-  <si>
-    <t>关联到t_charge_bill  收费单据</t>
+    <t>维修保养记录编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>维修保养登记编号，来源于t_checkin表</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>维修保养开始时间</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>维修保养预估结束时间</t>
+  </si>
+  <si>
+    <t>actualEndTime</t>
+  </si>
+  <si>
+    <t>维修保养实际结束时间</t>
+  </si>
+  <si>
+    <t>recordCreatedTime</t>
+  </si>
+  <si>
+    <t>维修保养记录创建时间</t>
+  </si>
+  <si>
+    <t>pickupTime</t>
+  </si>
+  <si>
+    <t>维修保养结束车主提车时间</t>
+  </si>
+  <si>
+    <t>recordDes</t>
+  </si>
+  <si>
+    <t>维修保养记录描述</t>
+  </si>
+  <si>
+    <t>recordStatus</t>
+  </si>
+  <si>
+    <t>维修保养记录状态，Y表示可用，N表示不可用</t>
   </si>
   <si>
     <t>维修保养明细表t_maintain_detail</t>
@@ -1104,70 +1143,58 @@
     <t>maintainDetailId</t>
   </si>
   <si>
-    <t>主键</t>
+    <t>维修保养明细编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>maintainRecordId</t>
+  </si>
+  <si>
+    <t>维修保养记录编号，来源于t_maintain_record表</t>
   </si>
   <si>
     <t>maintainItemId</t>
   </si>
   <si>
-    <t>关联t_user表</t>
-  </si>
-  <si>
-    <t>fixAccId</t>
-  </si>
-  <si>
-    <t>关联t_fix_acc表</t>
-  </si>
-  <si>
-    <t>maintainTime</t>
-  </si>
-  <si>
-    <t>保养时间</t>
-  </si>
-  <si>
-    <t>fixTime</t>
-  </si>
-  <si>
-    <t>维修时间</t>
-  </si>
-  <si>
-    <t>物料清单表t_materiel_list</t>
-  </si>
-  <si>
-    <t>materielId</t>
-  </si>
-  <si>
-    <t>物料清单id</t>
-  </si>
-  <si>
-    <t>关联配件表</t>
-  </si>
-  <si>
-    <t>materielCount</t>
+    <t>维修保养项目编号，来源于t_maintain_fix表，可为空</t>
+  </si>
+  <si>
+    <t>maintainDiscount</t>
+  </si>
+  <si>
+    <t>维修保养项目折扣，default 0,可选择折扣，也可选择减价</t>
+  </si>
+  <si>
+    <t>mdCreatedTime</t>
+  </si>
+  <si>
+    <t>维修保养明细创建时间</t>
+  </si>
+  <si>
+    <t>物料清单表t_material_list</t>
+  </si>
+  <si>
+    <t>materialId</t>
+  </si>
+  <si>
+    <t>物料清单记录编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>materialCount</t>
   </si>
   <si>
     <t>物料数量</t>
   </si>
   <si>
-    <t>关联物料所属维修保养记录表</t>
-  </si>
-  <si>
-    <t>materiel_Receive_Time</t>
-  </si>
-  <si>
-    <t>物料领取时间</t>
-  </si>
-  <si>
-    <t>materielTime</t>
-  </si>
-  <si>
-    <t>生成物料清单日期</t>
-  </si>
-  <si>
-    <t>materielStatus</t>
-  </si>
-  <si>
-    <t>物料清单状态</t>
+    <t>materialCreatedTime</t>
+  </si>
+  <si>
+    <t>物料清单记录创建时间</t>
+  </si>
+  <si>
+    <t>materialStatus</t>
+  </si>
+  <si>
+    <t>物料清单状态，Y表示可用，N表示不可用</t>
   </si>
   <si>
     <t>工单信息表t_work_info</t>
@@ -1176,100 +1203,76 @@
     <t>workId</t>
   </si>
   <si>
-    <t>workDes</t>
-  </si>
-  <si>
-    <t>介绍，要求</t>
-  </si>
-  <si>
-    <t>userConactNumber</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>车主姓名昵称</t>
-  </si>
-  <si>
-    <t>workCommitTime</t>
-  </si>
-  <si>
-    <t>提交时间</t>
-  </si>
-  <si>
-    <t>workCompletionTime</t>
-  </si>
-  <si>
-    <t>预计完成时间</t>
+    <t>工单编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>工单指派的用户编号，来源于t_user表</t>
+  </si>
+  <si>
+    <t>workAssignTime</t>
+  </si>
+  <si>
+    <t>工单指派时间</t>
+  </si>
+  <si>
+    <t>workCreatedTime</t>
+  </si>
+  <si>
+    <t>工单创建时间</t>
   </si>
   <si>
     <t>workStatus</t>
   </si>
   <si>
-    <t>当前状态</t>
-  </si>
-  <si>
-    <t>领料信息表t_material_info</t>
-  </si>
-  <si>
-    <t>materialId</t>
-  </si>
-  <si>
-    <t>领料编号</t>
-  </si>
-  <si>
-    <t>materialName</t>
-  </si>
-  <si>
-    <t>材料名称</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>计量单位</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>materialPeople</t>
-  </si>
-  <si>
-    <t>领料人</t>
-  </si>
-  <si>
-    <t>materialDate</t>
+    <t>当前状态,Y表示可用，N表示不可用</t>
+  </si>
+  <si>
+    <t>领料信息表t_material_use</t>
+  </si>
+  <si>
+    <t>materialUseId</t>
+  </si>
+  <si>
+    <t>领料记录编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>matainRecordId</t>
+  </si>
+  <si>
+    <t>领料数量</t>
+  </si>
+  <si>
+    <t>muCreatedTime</t>
+  </si>
+  <si>
+    <t>领料记录创建时间</t>
+  </si>
+  <si>
+    <t>muUseDate</t>
   </si>
   <si>
     <t>领料时间</t>
   </si>
   <si>
-    <t>退料信息表t_return_material</t>
-  </si>
-  <si>
-    <t>returnId</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>returnPeople</t>
-  </si>
-  <si>
-    <t>退料人</t>
-  </si>
-  <si>
-    <t>returnDate</t>
+    <t>退料信息表t_material_return</t>
+  </si>
+  <si>
+    <t>materialReturnId</t>
+  </si>
+  <si>
+    <t>退料记录编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>退料数量</t>
+  </si>
+  <si>
+    <t>mrCreatedDate</t>
+  </si>
+  <si>
+    <t>退料记录创建时间</t>
+  </si>
+  <si>
+    <t>mrReturnDate</t>
   </si>
   <si>
     <t>退料时间</t>
@@ -1281,54 +1284,7 @@
     <t>chargeBillId</t>
   </si>
   <si>
-    <t>收费id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>maintain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>etailed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Id</t>
-    </r>
-  </si>
-  <si>
-    <t>保养明细id</t>
-  </si>
-  <si>
-    <t>chargeBillDateTime</t>
-  </si>
-  <si>
-    <t>收费日期</t>
+    <t>收费单据编号，UUID,主键</t>
   </si>
   <si>
     <t>chargeBillMoney</t>
@@ -1346,72 +1302,79 @@
     <t>actualPayment</t>
   </si>
   <si>
-    <t>实际付款</t>
+    <t>实付款</t>
+  </si>
+  <si>
+    <t>chargeTime</t>
+  </si>
+  <si>
+    <t>收费时间</t>
+  </si>
+  <si>
+    <t>chargeCreatedTime</t>
+  </si>
+  <si>
+    <t>收费单据创建时间</t>
+  </si>
+  <si>
+    <t>chargeBillDes</t>
+  </si>
+  <si>
+    <t>收费单据描述</t>
   </si>
   <si>
     <t>chargeBillStatus</t>
   </si>
   <si>
-    <t>收费状态</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t>收费单据描述</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>付款人id</t>
+    <t>收费状态,Y表示可用，N表示不可用</t>
   </si>
   <si>
     <t>保养提醒记录表t_maintain_remind</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Id</t>
-    </r>
-  </si>
-  <si>
-    <t>提醒记录编号</t>
-  </si>
-  <si>
-    <t>用户编号</t>
+    <t>remindId</t>
+  </si>
+  <si>
+    <t>保养提醒记录编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>lastMaintainTime</t>
+  </si>
+  <si>
+    <t>上次保养时间</t>
+  </si>
+  <si>
+    <t>lastMaintainMileage</t>
+  </si>
+  <si>
+    <t>上次保养汽车行驶里程</t>
+  </si>
+  <si>
+    <t>remindMsg</t>
+  </si>
+  <si>
+    <t>保养提醒消息</t>
   </si>
   <si>
     <t>remindTime</t>
   </si>
   <si>
-    <t>提醒时间</t>
-  </si>
-  <si>
-    <t>短信发送记录表t_send_message</t>
+    <t>保养提醒时间</t>
+  </si>
+  <si>
+    <t>remindType</t>
+  </si>
+  <si>
+    <t>保养提醒方式，如邮箱，手机短信。默认使用手机短信方式发送提醒</t>
+  </si>
+  <si>
+    <t>remindCreatedTime</t>
+  </si>
+  <si>
+    <t>保养提醒记录创建时间</t>
+  </si>
+  <si>
+    <t>短信发送记录表t_message_send</t>
   </si>
   <si>
     <r>
@@ -1434,19 +1397,25 @@
     </r>
   </si>
   <si>
-    <t>发送记录编号</t>
-  </si>
-  <si>
-    <t>sendDes</t>
-  </si>
-  <si>
-    <t>发送内容</t>
+    <t>短信发送记录编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>sendMsg</t>
+  </si>
+  <si>
+    <t>短信发送内容</t>
   </si>
   <si>
     <t>sendTime</t>
   </si>
   <si>
-    <t>发送时间</t>
+    <t>短信发送时间</t>
+  </si>
+  <si>
+    <t>sendCreatedTime</t>
+  </si>
+  <si>
+    <t>短信发送记录创建时间</t>
   </si>
   <si>
     <t>投诉表t_complaint</t>
@@ -1455,115 +1424,151 @@
     <t>complaintId</t>
   </si>
   <si>
-    <t>投诉id</t>
-  </si>
-  <si>
-    <t>关联t_user表，投诉人，客户</t>
-  </si>
-  <si>
-    <t>complaintDes</t>
+    <t>投诉编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>complaintContent</t>
   </si>
   <si>
     <t>投诉内容</t>
   </si>
   <si>
-    <t>complaintTime</t>
+    <t>complaintCreatedTime</t>
   </si>
   <si>
     <t>投诉时间</t>
   </si>
   <si>
-    <t>跟踪回访表t_track_visit</t>
-  </si>
-  <si>
-    <t>tvId</t>
-  </si>
-  <si>
-    <t>跟踪回访id</t>
-  </si>
-  <si>
-    <t>关联t_user表,回访人</t>
-  </si>
-  <si>
-    <t>tvIssuse</t>
+    <t>complaintReply</t>
+  </si>
+  <si>
+    <t>投诉回复内容</t>
+  </si>
+  <si>
+    <t>complaintReplyTime</t>
+  </si>
+  <si>
+    <t>投诉回复时间</t>
+  </si>
+  <si>
+    <t>complaintReplyUser</t>
+  </si>
+  <si>
+    <t>投诉回复人，来源于t_user表</t>
+  </si>
+  <si>
+    <t>跟踪回访表t_track_list</t>
+  </si>
+  <si>
+    <t>trackId</t>
+  </si>
+  <si>
+    <t>跟踪回访编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>trackContent</t>
   </si>
   <si>
     <t>回访的问题</t>
   </si>
   <si>
-    <t>tvServiceEvaluate</t>
-  </si>
-  <si>
-    <t>本次服务评价</t>
-  </si>
-  <si>
-    <t>tvTime</t>
-  </si>
-  <si>
-    <t>回访时间</t>
-  </si>
-  <si>
-    <t>支出类型表t_expenditure_type</t>
-  </si>
-  <si>
-    <t>e_Id</t>
-  </si>
-  <si>
-    <t>支出Id</t>
-  </si>
-  <si>
-    <t>typeName</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>支出类型</t>
-  </si>
-  <si>
-    <t>收入类型表t_income_type</t>
-  </si>
-  <si>
-    <t>i_Id</t>
-  </si>
-  <si>
-    <t>收入ID</t>
-  </si>
-  <si>
-    <t>收入类型</t>
-  </si>
-  <si>
-    <t>收支记录表trevenue_record</t>
-  </si>
-  <si>
-    <t>支出ID控制该条数据是支出(可以为空,关联支出类型表)</t>
-  </si>
-  <si>
-    <t>收入Id控制该条数据是收入(可以为空，关联收入类型表)</t>
-  </si>
-  <si>
-    <t>r_time</t>
-  </si>
-  <si>
-    <t>收支录入信息时间</t>
-  </si>
-  <si>
-    <t>r_des</t>
-  </si>
-  <si>
-    <t>收支描述</t>
-  </si>
-  <si>
-    <t>r_Id</t>
-  </si>
-  <si>
-    <t>收支录入的用户Id</t>
-  </si>
-  <si>
-    <t>r_price</t>
-  </si>
-  <si>
-    <t>收支金钱</t>
+    <t>serviceEvaluate</t>
+  </si>
+  <si>
+    <t>本次服务评价,1-10分</t>
+  </si>
+  <si>
+    <t>trackUser</t>
+  </si>
+  <si>
+    <t>跟踪回访用户，来源于t_user表</t>
+  </si>
+  <si>
+    <t>trackCreatedTime</t>
+  </si>
+  <si>
+    <t>跟踪回访创建时间</t>
+  </si>
+  <si>
+    <t>支出类型表t_outgoing_type</t>
+  </si>
+  <si>
+    <t>outTypeId</t>
+  </si>
+  <si>
+    <t>支出类型编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>outTypeName</t>
+  </si>
+  <si>
+    <t>支出类型名称</t>
+  </si>
+  <si>
+    <t>outTypeStatus</t>
+  </si>
+  <si>
+    <t>支出类型状态，Y表示可用，N表示不可用</t>
+  </si>
+  <si>
+    <t>收入类型表t_incoming_type</t>
+  </si>
+  <si>
+    <t>inTypeId</t>
+  </si>
+  <si>
+    <t>收入类型编号，UUID,主键</t>
+  </si>
+  <si>
+    <t>inTypeName</t>
+  </si>
+  <si>
+    <t>收入类型名称</t>
+  </si>
+  <si>
+    <t>inTypeStatus</t>
+  </si>
+  <si>
+    <t>收入类型状态，Y表示可用，N表示不可用</t>
+  </si>
+  <si>
+    <t>收支记录表t_incoming_outgoing</t>
+  </si>
+  <si>
+    <t>inOutId</t>
+  </si>
+  <si>
+    <t>收支记录编号，UUID，主键</t>
+  </si>
+  <si>
+    <t>收入类型编号，来源于t_incoming_type表</t>
+  </si>
+  <si>
+    <t>支出类型编号，来源于t_outgoing_type表</t>
+  </si>
+  <si>
+    <t>inOutMoney</t>
+  </si>
+  <si>
+    <t>收支金额</t>
+  </si>
+  <si>
+    <t>inOutCreatedUser</t>
+  </si>
+  <si>
+    <t>收支记录创建人，来源于t_user表</t>
+  </si>
+  <si>
+    <t>inOutCreatedTime</t>
+  </si>
+  <si>
+    <t>收支记录创建时间</t>
+  </si>
+  <si>
+    <t>inOutStatus</t>
+  </si>
+  <si>
+    <t>收支记录状态，Y表示可用，N表示不可用</t>
   </si>
   <si>
     <t>工资发放表t_salary</t>
@@ -1572,16 +1577,43 @@
     <t>salaryId</t>
   </si>
   <si>
+    <t>工资发放编号，UUID,主键</t>
+  </si>
+  <si>
     <t>prizeSalary</t>
   </si>
   <si>
+    <t>奖金</t>
+  </si>
+  <si>
     <t>minusSalay</t>
   </si>
   <si>
+    <t>罚款</t>
+  </si>
+  <si>
     <t>totalSalary</t>
   </si>
   <si>
+    <t>总工资</t>
+  </si>
+  <si>
+    <t>salaryDes</t>
+  </si>
+  <si>
+    <t>工资发放描述</t>
+  </si>
+  <si>
+    <t>salaryTime</t>
+  </si>
+  <si>
+    <t>工资发放时间</t>
+  </si>
+  <si>
     <t>salaryCreatedTime</t>
+  </si>
+  <si>
+    <t>工资发放创建时间</t>
   </si>
 </sst>
 </file>
@@ -1589,15 +1621,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1612,17 +1650,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1632,7 +1691,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1640,8 +1698,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,11 +1721,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1677,8 +1751,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1686,14 +1761,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1709,52 +1784,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1762,20 +1791,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1789,13 +1813,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,7 +1915,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,55 +1969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,91 +1987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,51 +2004,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2039,11 +2018,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2072,11 +2049,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2088,10 +2112,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2100,162 +2124,165 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2606,10 +2633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2621,24 +2648,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2825,24 +2852,24 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3127,24 +3154,24 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3205,24 +3232,24 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3283,24 +3310,24 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3389,24 +3416,24 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3467,24 +3494,24 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3545,24 +3572,24 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3623,24 +3650,24 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3729,24 +3756,24 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3821,24 +3848,24 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3899,24 +3926,24 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3991,24 +4018,24 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4209,24 +4236,24 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4301,24 +4328,24 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4414,10 +4441,10 @@
         <v>231</v>
       </c>
       <c r="C149" t="s">
+        <v>146</v>
+      </c>
+      <c r="D149" t="s">
         <v>232</v>
-      </c>
-      <c r="D149" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4425,10 +4452,10 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
+        <v>233</v>
+      </c>
+      <c r="C150" t="s">
         <v>234</v>
-      </c>
-      <c r="C150" t="s">
-        <v>232</v>
       </c>
       <c r="D150" t="s">
         <v>235</v>
@@ -4442,7 +4469,7 @@
         <v>236</v>
       </c>
       <c r="C151" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="D151" t="s">
         <v>237</v>
@@ -4467,13 +4494,13 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D153" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4481,10 +4508,10 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C154" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D154" t="s">
         <v>242</v>
@@ -4495,13 +4522,13 @@
         <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D155" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4509,13 +4536,13 @@
         <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4523,722 +4550,722 @@
         <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>16</v>
+      </c>
+      <c r="B158" t="s">
         <v>247</v>
       </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="C158" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D161" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161">
+    <row r="162" spans="1:4">
+      <c r="A162">
         <v>1</v>
       </c>
-      <c r="B161" t="s">
-        <v>248</v>
-      </c>
-      <c r="C161" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="162" ht="40.5" spans="1:4">
-      <c r="A162">
+      <c r="B162" t="s">
+        <v>250</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" ht="40.5" spans="1:4">
+      <c r="A163">
         <v>2</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>219</v>
       </c>
-      <c r="C162" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163">
-        <v>3</v>
-      </c>
-      <c r="B163" t="s">
-        <v>251</v>
-      </c>
       <c r="C163" t="s">
-        <v>232</v>
-      </c>
-      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
-      </c>
-      <c r="D164" t="s">
-        <v>254</v>
+        <v>146</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="D165" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C166" t="s">
         <v>32</v>
       </c>
       <c r="D166" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C167" t="s">
         <v>32</v>
       </c>
       <c r="D167" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C168" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D168" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C169" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D169" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D170" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>265</v>
+      </c>
+      <c r="C171" t="s">
+        <v>61</v>
+      </c>
+      <c r="D171" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
         <v>11</v>
       </c>
-      <c r="B171" t="s">
-        <v>266</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>268</v>
+      </c>
+      <c r="C173" t="s">
         <v>40</v>
       </c>
-      <c r="D171" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2" t="s">
+      <c r="D173" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C176" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D176" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175" t="s">
-        <v>269</v>
-      </c>
-      <c r="C175" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176">
-        <v>2</v>
-      </c>
-      <c r="B176" t="s">
-        <v>219</v>
-      </c>
-      <c r="C176" t="s">
-        <v>6</v>
-      </c>
-      <c r="D176" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B177" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
         <v>272</v>
-      </c>
-      <c r="C177" t="s">
-        <v>61</v>
-      </c>
-      <c r="D177" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D179" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
+        <v>276</v>
+      </c>
+      <c r="C180" t="s">
+        <v>234</v>
+      </c>
+      <c r="D180" t="s">
         <v>277</v>
-      </c>
-      <c r="C180" t="s">
-        <v>32</v>
-      </c>
-      <c r="D180" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="C181" t="s">
         <v>32</v>
       </c>
       <c r="D181" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C182" t="s">
         <v>32</v>
       </c>
       <c r="D182" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C183" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D183" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D184" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
+        <v>285</v>
+      </c>
+      <c r="C185" t="s">
+        <v>61</v>
+      </c>
+      <c r="D185" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>10</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
         <v>11</v>
       </c>
-      <c r="B185" t="s">
-        <v>286</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B187" t="s">
+        <v>288</v>
+      </c>
+      <c r="C187" t="s">
         <v>40</v>
       </c>
-      <c r="D185" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2" t="s">
+      <c r="D187" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D190" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189" t="s">
-        <v>289</v>
-      </c>
-      <c r="C189" t="s">
-        <v>6</v>
-      </c>
-      <c r="D189" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190">
-        <v>2</v>
-      </c>
-      <c r="B190" t="s">
-        <v>291</v>
-      </c>
-      <c r="C190" t="s">
-        <v>29</v>
-      </c>
-      <c r="D190" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C191" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C192" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D192" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C193" t="s">
         <v>32</v>
       </c>
       <c r="D193" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D194" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C195" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D195" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>303</v>
+      </c>
+      <c r="C197" t="s">
+        <v>37</v>
+      </c>
+      <c r="D197" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
         <v>9</v>
       </c>
-      <c r="B197" t="s">
-        <v>304</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="B199" t="s">
+        <v>306</v>
+      </c>
+      <c r="C199" t="s">
         <v>40</v>
       </c>
-      <c r="D197" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2" t="s">
+      <c r="D199" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C202" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D202" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201">
-        <v>1</v>
-      </c>
-      <c r="B201" t="s">
-        <v>307</v>
-      </c>
-      <c r="C201" t="s">
-        <v>6</v>
-      </c>
-      <c r="D201" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202">
-        <v>2</v>
-      </c>
-      <c r="B202" t="s">
-        <v>289</v>
-      </c>
-      <c r="C202" t="s">
-        <v>6</v>
-      </c>
-      <c r="D202" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203" t="s">
+        <v>309</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
+        <v>291</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
         <v>3</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B205" t="s">
         <v>219</v>
       </c>
-      <c r="C203" t="s">
-        <v>6</v>
-      </c>
-      <c r="D203" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="2" t="s">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>312</v>
+      </c>
+      <c r="C206" t="s">
+        <v>234</v>
+      </c>
+      <c r="D206" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C209" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D209" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207" t="s">
-        <v>311</v>
-      </c>
-      <c r="C207" t="s">
-        <v>6</v>
-      </c>
-      <c r="D207" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208">
-        <v>2</v>
-      </c>
-      <c r="B208" t="s">
-        <v>43</v>
-      </c>
-      <c r="C208" t="s">
-        <v>6</v>
-      </c>
-      <c r="D208" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209">
-        <v>3</v>
-      </c>
-      <c r="B209" t="s">
-        <v>56</v>
-      </c>
-      <c r="C209" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B210" t="s">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="C210" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B211" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
       </c>
       <c r="D214" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>320</v>
+        <v>139</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D215" t="s">
         <v>321</v>
@@ -5246,41 +5273,41 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B216" t="s">
+        <v>153</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
         <v>322</v>
-      </c>
-      <c r="C216" t="s">
-        <v>61</v>
-      </c>
-      <c r="D216" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="C217" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B218" t="s">
         <v>324</v>
       </c>
       <c r="C218" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D218" t="s">
         <v>325</v>
@@ -5288,217 +5315,217 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>326</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D219" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
+        <v>11</v>
+      </c>
+      <c r="B220" t="s">
+        <v>301</v>
+      </c>
+      <c r="C220" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>12</v>
+      </c>
+      <c r="B221" t="s">
+        <v>328</v>
+      </c>
+      <c r="C221" t="s">
+        <v>61</v>
+      </c>
+      <c r="D221" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>13</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
         <v>14</v>
       </c>
-      <c r="B220" t="s">
-        <v>327</v>
-      </c>
-      <c r="C220" t="s">
+      <c r="B223" t="s">
+        <v>331</v>
+      </c>
+      <c r="C223" t="s">
         <v>40</v>
       </c>
-      <c r="D220" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2" t="s">
+      <c r="D223" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C226" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D226" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224" t="s">
-        <v>330</v>
-      </c>
-      <c r="C224" t="s">
-        <v>6</v>
-      </c>
-      <c r="D224" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225">
-        <v>2</v>
-      </c>
-      <c r="B225" t="s">
-        <v>43</v>
-      </c>
-      <c r="C225" t="s">
-        <v>6</v>
-      </c>
-      <c r="D225" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226">
-        <v>3</v>
-      </c>
-      <c r="B226" t="s">
-        <v>56</v>
-      </c>
-      <c r="C226" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>47</v>
+        <v>334</v>
       </c>
       <c r="C227" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B228" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D231" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="C232" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B233" t="s">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="C233" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D233" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="C234" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D234" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>340</v>
+        <v>163</v>
       </c>
       <c r="C235" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D235" t="s">
         <v>341</v>
@@ -5506,1123 +5533,1816 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B236" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C236" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D236" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B237" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C237" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D237" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B238" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D238" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B239" t="s">
+        <v>345</v>
+      </c>
+      <c r="C239" t="s">
+        <v>37</v>
+      </c>
+      <c r="D239" t="s">
         <v>346</v>
-      </c>
-      <c r="C239" t="s">
-        <v>61</v>
-      </c>
-      <c r="D239" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>347</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D240" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
+        <v>15</v>
+      </c>
+      <c r="B241" t="s">
+        <v>349</v>
+      </c>
+      <c r="C241" t="s">
+        <v>37</v>
+      </c>
+      <c r="D241" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>16</v>
+      </c>
+      <c r="B242" t="s">
+        <v>301</v>
+      </c>
+      <c r="C242" t="s">
         <v>18</v>
       </c>
-      <c r="B241" t="s">
-        <v>348</v>
-      </c>
-      <c r="C241" t="s">
+      <c r="D242" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>17</v>
+      </c>
+      <c r="B243" t="s">
+        <v>351</v>
+      </c>
+      <c r="C243" t="s">
+        <v>61</v>
+      </c>
+      <c r="D243" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>18</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>19</v>
+      </c>
+      <c r="B245" t="s">
+        <v>353</v>
+      </c>
+      <c r="C245" t="s">
         <v>40</v>
       </c>
-      <c r="D241" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2" t="s">
+      <c r="D245" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B248" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C248" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D248" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
-      <c r="B245" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4">
-      <c r="B246" t="s">
-        <v>43</v>
-      </c>
-      <c r="D246" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="247" spans="2:4">
-      <c r="B247" t="s">
-        <v>353</v>
-      </c>
-      <c r="D247" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4">
-      <c r="B248" t="s">
-        <v>355</v>
-      </c>
-      <c r="D248" t="s">
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="249" spans="2:4">
-      <c r="B249" t="s">
-        <v>289</v>
+      <c r="C249" t="s">
+        <v>6</v>
       </c>
       <c r="D249" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="250" spans="2:4">
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>2</v>
+      </c>
       <c r="B250" t="s">
+        <v>334</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="s">
         <v>358</v>
       </c>
-      <c r="D250" t="s">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="251" customFormat="1"/>
+      <c r="C251" t="s">
+        <v>61</v>
+      </c>
+      <c r="D251" t="s">
+        <v>360</v>
+      </c>
+    </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
+      <c r="A252">
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>361</v>
+      </c>
+      <c r="C252" t="s">
+        <v>61</v>
+      </c>
+      <c r="D252" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="2" t="s">
+      <c r="A253">
+        <v>5</v>
+      </c>
+      <c r="B253" t="s">
+        <v>363</v>
+      </c>
+      <c r="C253" t="s">
+        <v>61</v>
+      </c>
+      <c r="D253" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>6</v>
+      </c>
+      <c r="B254" t="s">
+        <v>365</v>
+      </c>
+      <c r="C254" t="s">
+        <v>61</v>
+      </c>
+      <c r="D254" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>7</v>
+      </c>
+      <c r="B255" t="s">
+        <v>367</v>
+      </c>
+      <c r="C255" t="s">
+        <v>61</v>
+      </c>
+      <c r="D255" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="256" customFormat="1" spans="1:4">
+      <c r="A256">
+        <v>8</v>
+      </c>
+      <c r="B256" t="s">
+        <v>369</v>
+      </c>
+      <c r="C256" t="s">
+        <v>37</v>
+      </c>
+      <c r="D256" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="257" customFormat="1" spans="1:4">
+      <c r="A257">
+        <v>9</v>
+      </c>
+      <c r="B257" t="s">
+        <v>371</v>
+      </c>
+      <c r="C257" t="s">
+        <v>40</v>
+      </c>
+      <c r="D257" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="258" customFormat="1"/>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B260" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C260" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D260" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="2:4">
-      <c r="B254" t="s">
-        <v>361</v>
-      </c>
-      <c r="D254" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4">
-      <c r="B256" s="4" t="s">
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>374</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="B262" t="s">
+        <v>376</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263" t="s">
+        <v>378</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="264" customFormat="1" spans="1:4">
+      <c r="A264">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>380</v>
+      </c>
+      <c r="C264" t="s">
+        <v>32</v>
+      </c>
+      <c r="D264" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="265" customFormat="1" spans="1:4">
+      <c r="A265">
+        <v>5</v>
+      </c>
+      <c r="B265" t="s">
+        <v>382</v>
+      </c>
+      <c r="C265" t="s">
+        <v>61</v>
+      </c>
+      <c r="D265" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="266" customFormat="1"/>
+    <row r="267" spans="1:4">
+      <c r="A267" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269" t="s">
+        <v>385</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>2</v>
+      </c>
+      <c r="B270" t="s">
+        <v>376</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>3</v>
+      </c>
+      <c r="B271" t="s">
+        <v>219</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>4</v>
+      </c>
+      <c r="B272" t="s">
+        <v>387</v>
+      </c>
+      <c r="C272" t="s">
+        <v>234</v>
+      </c>
+      <c r="D272" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
+        <v>389</v>
+      </c>
+      <c r="C273" t="s">
+        <v>61</v>
+      </c>
+      <c r="D273" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>6</v>
+      </c>
+      <c r="B274" t="s">
+        <v>391</v>
+      </c>
+      <c r="C274" t="s">
+        <v>40</v>
+      </c>
+      <c r="D274" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="275" customFormat="1"/>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>2</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>3</v>
+      </c>
+      <c r="B280" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4">
-      <c r="B257" t="s">
-        <v>365</v>
-      </c>
-      <c r="D257" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4">
-      <c r="B258" t="s">
-        <v>367</v>
-      </c>
-      <c r="D258" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="259" spans="2:4">
-      <c r="B259" t="s">
-        <v>369</v>
-      </c>
-      <c r="D259" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="260" customFormat="1"/>
-    <row r="261" spans="1:4">
-      <c r="A261" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="2:4">
-      <c r="B263" t="s">
-        <v>372</v>
-      </c>
-      <c r="D263" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="264" spans="2:4">
-      <c r="B264" t="s">
-        <v>219</v>
-      </c>
-      <c r="D264" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="265" spans="2:4">
-      <c r="B265" t="s">
-        <v>375</v>
-      </c>
-      <c r="D265" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="266" spans="2:4">
-      <c r="B266" t="s">
-        <v>289</v>
-      </c>
-      <c r="D266" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="267" spans="2:4">
-      <c r="B267" t="s">
-        <v>378</v>
-      </c>
-      <c r="D267" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="268" spans="2:4">
-      <c r="B268" t="s">
-        <v>380</v>
-      </c>
-      <c r="D268" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="269" spans="2:4">
-      <c r="B269" t="s">
-        <v>382</v>
-      </c>
-      <c r="D269" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="270" customFormat="1"/>
-    <row r="271" spans="1:4">
-      <c r="A271" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="2:4">
-      <c r="B273" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C273" s="5"/>
-      <c r="D273" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="2:4">
-      <c r="B274" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C274" s="5"/>
-      <c r="D274" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="275" spans="2:4">
-      <c r="B275" s="5"/>
-      <c r="C275" s="5"/>
-      <c r="D275" s="5"/>
-    </row>
-    <row r="276" spans="2:4">
-      <c r="B276" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C276" s="5"/>
-      <c r="D276" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="277" spans="2:4">
-      <c r="B277" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C277" s="5"/>
-      <c r="D277" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="278" spans="2:4">
-      <c r="B278" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C278" s="5"/>
-      <c r="D278" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="279" spans="2:4">
-      <c r="B279" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C279" s="5"/>
-      <c r="D279" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="280" customFormat="1" spans="2:4">
-      <c r="B280" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C280" s="5"/>
+      <c r="C280" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D280" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="281" customFormat="1" spans="2:4">
-      <c r="B281" s="5"/>
-      <c r="C281" s="5"/>
-      <c r="D281" s="5"/>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="1" t="s">
+    <row r="281" customFormat="1" spans="1:4">
+      <c r="A281">
+        <v>4</v>
+      </c>
+      <c r="B281" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2" t="s">
+      <c r="C281" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="282" customFormat="1" spans="1:4">
+      <c r="A282">
+        <v>5</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="283" customFormat="1" spans="1:4">
+      <c r="A283">
+        <v>6</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="284" customFormat="1" spans="2:4">
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B286" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C286" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D286" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="2:4">
-      <c r="B284" t="s">
-        <v>398</v>
-      </c>
-      <c r="D284" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="285" spans="2:4">
-      <c r="B285" t="s">
-        <v>400</v>
-      </c>
-      <c r="D285" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="286" spans="2:4">
-      <c r="B286" t="s">
-        <v>402</v>
-      </c>
-      <c r="D286" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="287" spans="2:4">
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>1</v>
+      </c>
       <c r="B287" t="s">
         <v>404</v>
       </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
       <c r="D287" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="288" spans="2:4">
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>2</v>
+      </c>
       <c r="B288" t="s">
         <v>406</v>
       </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
       <c r="D288" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>3</v>
+      </c>
+      <c r="B289" t="s">
+        <v>219</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>4</v>
+      </c>
+      <c r="B290" t="s">
+        <v>312</v>
+      </c>
+      <c r="C290" t="s">
+        <v>234</v>
+      </c>
+      <c r="D290" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="289" spans="2:4">
-      <c r="B289" t="s">
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>5</v>
+      </c>
+      <c r="B291" t="s">
         <v>408</v>
       </c>
-      <c r="D289" t="s">
+      <c r="C291" t="s">
+        <v>61</v>
+      </c>
+      <c r="D291" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="290" spans="2:4">
-      <c r="B290" t="s">
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>6</v>
+      </c>
+      <c r="B292" t="s">
         <v>410</v>
       </c>
-      <c r="D290" t="s">
+      <c r="C292" t="s">
+        <v>61</v>
+      </c>
+      <c r="D292" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="291" customFormat="1"/>
-    <row r="292" spans="1:4">
-      <c r="A292" s="1" t="s">
+    <row r="293" customFormat="1"/>
+    <row r="294" spans="1:4">
+      <c r="A294" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2" t="s">
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B295" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C295" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D295" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="2:4">
-      <c r="B294" t="s">
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296" t="s">
         <v>413</v>
       </c>
-      <c r="D294" t="s">
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="295" spans="2:4">
-      <c r="B295" t="s">
-        <v>400</v>
-      </c>
-      <c r="D295" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="296" spans="2:4">
-      <c r="B296" t="s">
-        <v>402</v>
-      </c>
-      <c r="D296" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="297" spans="2:4">
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>2</v>
+      </c>
       <c r="B297" t="s">
-        <v>404</v>
+        <v>406</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
       </c>
       <c r="D297" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="298" spans="2:4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>3</v>
+      </c>
       <c r="B298" t="s">
-        <v>406</v>
+        <v>219</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="299" spans="2:4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>4</v>
+      </c>
       <c r="B299" t="s">
+        <v>312</v>
+      </c>
+      <c r="C299" t="s">
+        <v>234</v>
+      </c>
+      <c r="D299" t="s">
         <v>415</v>
       </c>
-      <c r="D299" t="s">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="300" customFormat="1" spans="2:4">
-      <c r="B300" t="s">
+      <c r="C300" t="s">
+        <v>61</v>
+      </c>
+      <c r="D300" t="s">
         <v>417</v>
       </c>
-      <c r="D300" t="s">
+    </row>
+    <row r="301" customFormat="1" spans="1:4">
+      <c r="A301">
+        <v>6</v>
+      </c>
+      <c r="B301" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="301" customFormat="1"/>
-    <row r="302" spans="1:4">
-      <c r="A302" s="1" t="s">
+      <c r="C301" t="s">
+        <v>61</v>
+      </c>
+      <c r="D301" t="s">
         <v>419</v>
       </c>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
-    </row>
+    </row>
+    <row r="302" customFormat="1"/>
     <row r="303" spans="1:4">
       <c r="A303" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B304" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C304" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D303" s="2" t="s">
+      <c r="D304" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="2:4">
-      <c r="B304" t="s">
-        <v>420</v>
-      </c>
-      <c r="D304" t="s">
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>1</v>
+      </c>
+      <c r="B305" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="305" spans="2:4">
-      <c r="B305" s="7" t="s">
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
         <v>422</v>
       </c>
-      <c r="D305" s="7" t="s">
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>2</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="307" customFormat="1" spans="1:4">
+      <c r="A307">
+        <v>3</v>
+      </c>
+      <c r="B307" s="7" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="306" customFormat="1" spans="2:4">
-      <c r="B306" t="s">
+      <c r="C307" t="s">
+        <v>32</v>
+      </c>
+      <c r="D307" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D306" t="s">
+    </row>
+    <row r="308" customFormat="1" spans="1:4">
+      <c r="A308">
+        <v>4</v>
+      </c>
+      <c r="B308" s="7" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="307" customFormat="1" spans="2:4">
-      <c r="B307" s="7" t="s">
+      <c r="C308" t="s">
+        <v>18</v>
+      </c>
+      <c r="D308" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D307" s="7" t="s">
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>5</v>
+      </c>
+      <c r="B309" s="7" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="308" customFormat="1" spans="2:4">
-      <c r="B308" s="7" t="s">
+      <c r="C309" t="s">
+        <v>32</v>
+      </c>
+      <c r="D309" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D308" s="7" t="s">
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>6</v>
+      </c>
+      <c r="B310" s="7" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="309" spans="2:4">
-      <c r="B309" s="7" t="s">
+      <c r="C310" t="s">
+        <v>61</v>
+      </c>
+      <c r="D310" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D309" s="7" t="s">
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>7</v>
+      </c>
+      <c r="B311" s="7" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="310" customFormat="1" spans="2:4">
-      <c r="B310" s="7" t="s">
+      <c r="C311" t="s">
+        <v>61</v>
+      </c>
+      <c r="D311" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="D310" s="7" t="s">
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>8</v>
+      </c>
+      <c r="B312" s="7" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="311" spans="2:4">
-      <c r="B311" s="7" t="s">
+      <c r="C312" t="s">
+        <v>37</v>
+      </c>
+      <c r="D312" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="D311" s="7" t="s">
+    </row>
+    <row r="313" customFormat="1" spans="1:4">
+      <c r="A313">
+        <v>9</v>
+      </c>
+      <c r="B313" s="7" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="312" spans="2:4">
-      <c r="B312" s="7" t="s">
+      <c r="C313" t="s">
+        <v>40</v>
+      </c>
+      <c r="D313" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D312" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="313" customFormat="1" spans="2:4">
-      <c r="B313" s="7"/>
-      <c r="D313" s="7"/>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B314" s="1"/>
-      <c r="C314" s="1"/>
-      <c r="D314" s="1"/>
+    </row>
+    <row r="314" customFormat="1" spans="2:4">
+      <c r="B314" s="7"/>
+      <c r="D314" s="7"/>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B316" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C316" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D315" s="2" t="s">
+      <c r="D316" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="2:4">
-      <c r="B316" s="8" t="s">
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C316" s="8"/>
-      <c r="D316" s="8" t="s">
+    </row>
+    <row r="318" customFormat="1" spans="1:4">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="319" customFormat="1" spans="1:4">
+      <c r="A319">
+        <v>3</v>
+      </c>
+      <c r="B319" s="9" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="317" customFormat="1" spans="2:4">
-      <c r="B317" s="8" t="s">
+      <c r="C319" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="320" customFormat="1" spans="1:4">
+      <c r="A320">
+        <v>4</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="321" customFormat="1" spans="1:4">
+      <c r="A321">
+        <v>5</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="322" customFormat="1" spans="1:4">
+      <c r="A322">
+        <v>6</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D322" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="323" customFormat="1" spans="1:4">
+      <c r="A323">
+        <v>7</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="324" customFormat="1" spans="1:4">
+      <c r="A324">
+        <v>8</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D324" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>2</v>
+      </c>
+      <c r="B329" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C317" s="8"/>
-      <c r="D317" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="318" customFormat="1" spans="2:4">
-      <c r="B318" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C318" s="8"/>
-      <c r="D318" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
-      <c r="D321" s="1"/>
-    </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2" t="s">
+      <c r="C329" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330">
+        <v>3</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331">
+        <v>4</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="332" customFormat="1" spans="1:4">
+      <c r="A332">
+        <v>5</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="333" customFormat="1" spans="2:4">
+      <c r="B333" s="9"/>
+      <c r="C333" s="9"/>
+      <c r="D333" s="9"/>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B335" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C335" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D322" s="2" t="s">
+      <c r="D335" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="2:4">
-      <c r="B323" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C323" s="8"/>
-      <c r="D323" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="324" spans="2:4">
-      <c r="B324" s="8" t="s">
+    <row r="336" spans="1:4">
+      <c r="A336">
+        <v>1</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337">
+        <v>2</v>
+      </c>
+      <c r="B337" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C324" s="8"/>
-      <c r="D324" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="325" spans="2:4">
-      <c r="B325" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C325" s="8"/>
-      <c r="D325" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="326" spans="2:4">
-      <c r="B326" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="C326" s="8"/>
-      <c r="D326" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="327" customFormat="1" spans="2:4">
-      <c r="B327" s="8"/>
-      <c r="C327" s="8"/>
-      <c r="D327" s="8"/>
-    </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C329" s="2" t="s">
+      <c r="C337" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338">
         <v>3</v>
       </c>
-      <c r="D329" s="2" t="s">
+      <c r="B338" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="2:4">
-      <c r="B330" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C330" s="5"/>
-      <c r="D330" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="331" spans="2:4">
-      <c r="B331" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C331" s="5"/>
-      <c r="D331" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="332" spans="2:4">
-      <c r="B332" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C332" s="5"/>
-      <c r="D332" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="333" spans="2:4">
-      <c r="B333" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C333" s="5"/>
-      <c r="D333" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="334" customFormat="1" spans="2:4">
-      <c r="B334" s="5"/>
-      <c r="C334" s="5"/>
-      <c r="D334" s="5"/>
-    </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
-    </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337" spans="2:4">
-      <c r="B337" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C337" s="5"/>
-      <c r="D337" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="338" customFormat="1" spans="2:4">
-      <c r="B338" t="s">
-        <v>43</v>
-      </c>
-      <c r="D338" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="339" customFormat="1" spans="2:4">
-      <c r="B339" t="s">
-        <v>463</v>
-      </c>
-      <c r="D339" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="340" customFormat="1" spans="2:4">
-      <c r="B340" t="s">
-        <v>465</v>
-      </c>
-      <c r="D340" t="s">
+      <c r="B339" s="5" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="341" spans="2:4">
-      <c r="B341" t="s">
+      <c r="C339" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D339" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="D341" t="s">
+    </row>
+    <row r="340" customFormat="1" spans="1:4">
+      <c r="A340">
+        <v>5</v>
+      </c>
+      <c r="B340" s="5" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="342" customFormat="1"/>
-    <row r="343" spans="1:4">
-      <c r="A343" s="1" t="s">
+      <c r="C340" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D340" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
+    </row>
+    <row r="341" customFormat="1" spans="1:4">
+      <c r="A341">
+        <v>6</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="342" customFormat="1" spans="1:4">
+      <c r="A342">
+        <v>7</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="343" customFormat="1" spans="2:4">
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B345" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C345" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D344" s="2" t="s">
+      <c r="D345" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="2:4">
-      <c r="B345" t="s">
-        <v>470</v>
-      </c>
-      <c r="C345" t="s">
-        <v>232</v>
-      </c>
-      <c r="D345" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4">
-      <c r="B346" t="s">
-        <v>472</v>
-      </c>
-      <c r="C346" t="s">
-        <v>473</v>
-      </c>
-      <c r="D346" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="347" customFormat="1"/>
-    <row r="348" spans="1:4">
-      <c r="A348" s="1" t="s">
+    <row r="346" spans="1:4">
+      <c r="A346">
+        <v>1</v>
+      </c>
+      <c r="B346" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
-    </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B349" s="2" t="s">
+      <c r="C346" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="347" customFormat="1" spans="1:4">
+      <c r="A347">
         <v>2</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="B347" t="s">
+        <v>43</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="348" customFormat="1" spans="1:4">
+      <c r="A348">
         <v>3</v>
       </c>
-      <c r="D349" s="2" t="s">
+      <c r="B348" t="s">
+        <v>477</v>
+      </c>
+      <c r="C348" t="s">
+        <v>37</v>
+      </c>
+      <c r="D348" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="349" customFormat="1" spans="1:4">
+      <c r="A349">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="2:4">
+      <c r="B349" t="s">
+        <v>479</v>
+      </c>
+      <c r="C349" t="s">
+        <v>234</v>
+      </c>
+      <c r="D349" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="350" customFormat="1" spans="1:4">
+      <c r="A350">
+        <v>5</v>
+      </c>
       <c r="B350" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C350" t="s">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="D350" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351">
+        <v>6</v>
+      </c>
       <c r="B351" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="C351" t="s">
-        <v>473</v>
+        <v>61</v>
       </c>
       <c r="D351" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="352" customFormat="1"/>
     <row r="353" spans="1:4">
-      <c r="A353" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
+      <c r="A353" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2"/>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="C354" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D354" s="2" t="s">
+      <c r="D354" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="2:4">
-      <c r="B355" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D355" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="356" spans="2:4">
-      <c r="B356" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D356" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="357" spans="2:4">
+    <row r="355" spans="1:4">
+      <c r="A355">
+        <v>1</v>
+      </c>
+      <c r="B355" t="s">
+        <v>486</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356">
+        <v>2</v>
+      </c>
+      <c r="B356" t="s">
+        <v>488</v>
+      </c>
+      <c r="C356" t="s">
+        <v>18</v>
+      </c>
+      <c r="D356" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="357" customFormat="1" spans="1:4">
+      <c r="A357">
+        <v>3</v>
+      </c>
       <c r="B357" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C357" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D357" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="358" customFormat="1" spans="2:4">
-      <c r="B358" t="s">
-        <v>484</v>
-      </c>
-      <c r="C358" t="s">
-        <v>473</v>
-      </c>
-      <c r="D358" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="359" customFormat="1" spans="2:4">
-      <c r="B359" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="358" customFormat="1"/>
+    <row r="359" spans="1:4">
+      <c r="A359" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361">
+        <v>1</v>
+      </c>
+      <c r="B361" t="s">
+        <v>493</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362">
+        <v>2</v>
+      </c>
+      <c r="B362" t="s">
+        <v>495</v>
+      </c>
+      <c r="C362" t="s">
+        <v>18</v>
+      </c>
+      <c r="D362" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="363" customFormat="1" spans="1:4">
+      <c r="A363">
+        <v>3</v>
+      </c>
+      <c r="B363" t="s">
+        <v>497</v>
+      </c>
+      <c r="C363" t="s">
+        <v>40</v>
+      </c>
+      <c r="D363" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="364" customFormat="1"/>
+    <row r="365" spans="1:4">
+      <c r="A365" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" s="1" customFormat="1" spans="1:4">
+      <c r="A367" s="1">
+        <v>1</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="368" s="1" customFormat="1" spans="1:4">
+      <c r="A368" s="1">
+        <v>2</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>3</v>
+      </c>
+      <c r="B369" t="s">
         <v>486</v>
       </c>
-      <c r="C359" t="s">
-        <v>232</v>
-      </c>
-      <c r="D359" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="360" customFormat="1" spans="2:4">
-      <c r="B360" t="s">
-        <v>488</v>
-      </c>
-      <c r="C360" t="s">
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="370" customFormat="1" spans="1:4">
+      <c r="A370" s="1">
+        <v>4</v>
+      </c>
+      <c r="B370" t="s">
+        <v>504</v>
+      </c>
+      <c r="C370" t="s">
         <v>32</v>
       </c>
-      <c r="D360" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="361" customFormat="1"/>
-    <row r="362" spans="1:4">
-      <c r="A362" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="1"/>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2" t="s">
+      <c r="D370" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="371" customFormat="1" spans="1:4">
+      <c r="A371" s="1">
+        <v>5</v>
+      </c>
+      <c r="B371" t="s">
+        <v>506</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="372" customFormat="1" spans="1:4">
+      <c r="A372" s="1">
+        <v>6</v>
+      </c>
+      <c r="B372" t="s">
+        <v>508</v>
+      </c>
+      <c r="C372" t="s">
+        <v>61</v>
+      </c>
+      <c r="D372" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="373" customFormat="1" spans="1:4">
+      <c r="A373" s="1">
+        <v>7</v>
+      </c>
+      <c r="B373" t="s">
+        <v>510</v>
+      </c>
+      <c r="C373" t="s">
+        <v>40</v>
+      </c>
+      <c r="D373" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="374" customFormat="1"/>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B376" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="C376" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D363" s="2" t="s">
+      <c r="D376" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="2:2">
-      <c r="B364" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="365" spans="2:2">
-      <c r="B365" t="s">
+    <row r="377" spans="1:4">
+      <c r="A377">
+        <v>1</v>
+      </c>
+      <c r="B377" t="s">
+        <v>513</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378">
+        <v>2</v>
+      </c>
+      <c r="B378" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="366" spans="2:2">
-      <c r="B366" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="367" spans="2:2">
-      <c r="B367" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="368" spans="2:2">
-      <c r="B368" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2">
-      <c r="B369" t="s">
-        <v>495</v>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379">
+        <v>3</v>
+      </c>
+      <c r="B379" t="s">
+        <v>515</v>
+      </c>
+      <c r="C379" t="s">
+        <v>32</v>
+      </c>
+      <c r="D379" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380">
+        <v>4</v>
+      </c>
+      <c r="B380" t="s">
+        <v>517</v>
+      </c>
+      <c r="C380" t="s">
+        <v>32</v>
+      </c>
+      <c r="D380" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381">
+        <v>5</v>
+      </c>
+      <c r="B381" t="s">
+        <v>519</v>
+      </c>
+      <c r="C381" t="s">
+        <v>32</v>
+      </c>
+      <c r="D381" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382">
+        <v>6</v>
+      </c>
+      <c r="B382" t="s">
+        <v>521</v>
+      </c>
+      <c r="C382" t="s">
+        <v>37</v>
+      </c>
+      <c r="D382" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383">
+        <v>7</v>
+      </c>
+      <c r="B383" t="s">
+        <v>523</v>
+      </c>
+      <c r="C383" t="s">
+        <v>61</v>
+      </c>
+      <c r="D383" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384">
+        <v>8</v>
+      </c>
+      <c r="B384" t="s">
+        <v>525</v>
+      </c>
+      <c r="C384" t="s">
+        <v>61</v>
+      </c>
+      <c r="D384" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -6642,27 +7362,27 @@
     <mergeCell ref="A116:D116"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A271:D271"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A292:D292"/>
-    <mergeCell ref="A302:D302"/>
-    <mergeCell ref="A314:D314"/>
-    <mergeCell ref="A321:D321"/>
-    <mergeCell ref="A328:D328"/>
-    <mergeCell ref="A335:D335"/>
-    <mergeCell ref="A343:D343"/>
-    <mergeCell ref="A348:D348"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="A294:D294"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A315:D315"/>
+    <mergeCell ref="A326:D326"/>
+    <mergeCell ref="A334:D334"/>
+    <mergeCell ref="A344:D344"/>
     <mergeCell ref="A353:D353"/>
-    <mergeCell ref="A362:D362"/>
+    <mergeCell ref="A359:D359"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A375:D375"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9000"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -1083,6 +1083,15 @@
     <t>登记记录状态，Y表示可用，N表示不可用</t>
   </si>
   <si>
+    <t>oilCount</t>
+  </si>
+  <si>
+    <t>油量</t>
+  </si>
+  <si>
+    <t>用于标识是否需要洗车，默认是N，需要则是Y</t>
+  </si>
+  <si>
     <t>维修保养记录表t_maintain_record</t>
   </si>
   <si>
@@ -1137,22 +1146,19 @@
     <t>维修保养记录状态，Y表示可用，N表示不可用</t>
   </si>
   <si>
+    <t>来源于t_company表公司Id</t>
+  </si>
+  <si>
     <t>维修保养明细表t_maintain_detail</t>
   </si>
   <si>
-    <t>maintainDetailId</t>
+    <t>detailId</t>
   </si>
   <si>
     <t>维修保养明细编号，UUID,主键</t>
   </si>
   <si>
-    <t>maintainRecordId</t>
-  </si>
-  <si>
     <t>维修保养记录编号，来源于t_maintain_record表</t>
-  </si>
-  <si>
-    <t>maintainItemId</t>
   </si>
   <si>
     <t>维修保养项目编号，来源于t_maintain_fix表，可为空</t>
@@ -1621,10 +1627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1655,57 +1661,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1714,15 +1669,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1731,6 +1680,20 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1745,15 +1708,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1768,7 +1742,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1784,6 +1781,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1791,17 +1796,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1813,13 +1819,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,13 +1879,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,25 +1975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,115 +1993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,6 +2010,86 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2024,236 +2110,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2633,18 +2639,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D384"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A262" sqref="A262:D262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.51327433628319" customWidth="1"/>
-    <col min="2" max="2" width="23.9911504424779" customWidth="1"/>
-    <col min="3" max="3" width="13.929203539823" customWidth="1"/>
-    <col min="4" max="4" width="97.2389380530973" customWidth="1"/>
+    <col min="1" max="1" width="5.50925925925926" customWidth="1"/>
+    <col min="2" max="2" width="23.9907407407407" customWidth="1"/>
+    <col min="3" max="3" width="13.9259259259259" customWidth="1"/>
+    <col min="4" max="4" width="97.2407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4609,7 +4615,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" ht="40.5" spans="1:4">
+    <row r="163" ht="43.2" spans="1:4">
       <c r="A163">
         <v>2</v>
       </c>
@@ -5671,65 +5677,65 @@
         <v>354</v>
       </c>
     </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>20</v>
+      </c>
+      <c r="B246" t="s">
+        <v>355</v>
+      </c>
+      <c r="C246" t="s">
+        <v>32</v>
+      </c>
+      <c r="D246" t="s">
+        <v>356</v>
+      </c>
+    </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="3" t="s">
+      <c r="A247">
+        <v>21</v>
+      </c>
+      <c r="B247" t="s">
+        <v>356</v>
+      </c>
+      <c r="C247" t="s">
+        <v>40</v>
+      </c>
+      <c r="D247" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B250" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C250" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D250" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249">
-        <v>1</v>
-      </c>
-      <c r="B249" t="s">
-        <v>356</v>
-      </c>
-      <c r="C249" t="s">
-        <v>6</v>
-      </c>
-      <c r="D249" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250">
-        <v>2</v>
-      </c>
-      <c r="B250" t="s">
-        <v>334</v>
-      </c>
-      <c r="C250" t="s">
-        <v>6</v>
-      </c>
-      <c r="D250" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B251" t="s">
         <v>359</v>
       </c>
       <c r="C251" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D251" t="s">
         <v>360</v>
@@ -5737,255 +5743,255 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B252" t="s">
+        <v>334</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
         <v>361</v>
-      </c>
-      <c r="C252" t="s">
-        <v>61</v>
-      </c>
-      <c r="D252" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C253" t="s">
         <v>61</v>
       </c>
       <c r="D253" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C254" t="s">
         <v>61</v>
       </c>
       <c r="D254" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B255" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C255" t="s">
         <v>61</v>
       </c>
       <c r="D255" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>6</v>
+      </c>
+      <c r="B256" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="256" customFormat="1" spans="1:4">
-      <c r="A256">
+      <c r="C256" t="s">
+        <v>61</v>
+      </c>
+      <c r="D256" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>7</v>
+      </c>
+      <c r="B257" t="s">
+        <v>370</v>
+      </c>
+      <c r="C257" t="s">
+        <v>61</v>
+      </c>
+      <c r="D257" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="258" customFormat="1" spans="1:4">
+      <c r="A258">
         <v>8</v>
       </c>
-      <c r="B256" t="s">
-        <v>369</v>
-      </c>
-      <c r="C256" t="s">
+      <c r="B258" t="s">
+        <v>372</v>
+      </c>
+      <c r="C258" t="s">
         <v>37</v>
       </c>
-      <c r="D256" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="257" customFormat="1" spans="1:4">
-      <c r="A257">
+      <c r="D258" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="259" customFormat="1" spans="1:4">
+      <c r="A259">
         <v>9</v>
       </c>
-      <c r="B257" t="s">
-        <v>371</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="B259" t="s">
+        <v>374</v>
+      </c>
+      <c r="C259" t="s">
         <v>40</v>
       </c>
-      <c r="D257" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="258" customFormat="1"/>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="3" t="s">
+      <c r="D259" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="260" customFormat="1" spans="1:4">
+      <c r="A260">
+        <v>10</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="261" customFormat="1"/>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B263" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C263" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D263" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261">
+    <row r="264" spans="1:4">
+      <c r="A264">
         <v>1</v>
       </c>
-      <c r="B261" t="s">
-        <v>374</v>
-      </c>
-      <c r="C261" t="s">
-        <v>6</v>
-      </c>
-      <c r="D261" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262">
+      <c r="B264" t="s">
+        <v>378</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
         <v>2</v>
       </c>
-      <c r="B262" t="s">
-        <v>376</v>
-      </c>
-      <c r="C262" t="s">
-        <v>6</v>
-      </c>
-      <c r="D262" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263">
+      <c r="B265" t="s">
+        <v>359</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
         <v>3</v>
       </c>
-      <c r="B263" t="s">
-        <v>378</v>
-      </c>
-      <c r="C263" t="s">
-        <v>6</v>
-      </c>
-      <c r="D263" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="264" customFormat="1" spans="1:4">
-      <c r="A264">
+      <c r="B266" t="s">
+        <v>291</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="267" customFormat="1" spans="1:4">
+      <c r="A267">
         <v>4</v>
       </c>
-      <c r="B264" t="s">
-        <v>380</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="B267" t="s">
+        <v>382</v>
+      </c>
+      <c r="C267" t="s">
         <v>32</v>
       </c>
-      <c r="D264" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="265" customFormat="1" spans="1:4">
-      <c r="A265">
+      <c r="D267" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="268" customFormat="1" spans="1:4">
+      <c r="A268">
         <v>5</v>
       </c>
-      <c r="B265" t="s">
-        <v>382</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="B268" t="s">
+        <v>384</v>
+      </c>
+      <c r="C268" t="s">
         <v>61</v>
       </c>
-      <c r="D265" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="266" customFormat="1"/>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="3" t="s">
+      <c r="D268" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="269" customFormat="1"/>
+    <row r="270" spans="1:4">
+      <c r="A270" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B271" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C271" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D271" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269">
-        <v>1</v>
-      </c>
-      <c r="B269" t="s">
-        <v>385</v>
-      </c>
-      <c r="C269" t="s">
-        <v>6</v>
-      </c>
-      <c r="D269" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270">
-        <v>2</v>
-      </c>
-      <c r="B270" t="s">
-        <v>376</v>
-      </c>
-      <c r="C270" t="s">
-        <v>6</v>
-      </c>
-      <c r="D270" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271">
-        <v>3</v>
-      </c>
-      <c r="B271" t="s">
-        <v>219</v>
-      </c>
-      <c r="C271" t="s">
-        <v>6</v>
-      </c>
-      <c r="D271" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B272" t="s">
         <v>387</v>
       </c>
       <c r="C272" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="D272" t="s">
         <v>388</v>
@@ -5993,217 +5999,217 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B273" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="C273" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D273" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B274" t="s">
+        <v>219</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>4</v>
+      </c>
+      <c r="B275" t="s">
+        <v>389</v>
+      </c>
+      <c r="C275" t="s">
+        <v>234</v>
+      </c>
+      <c r="D275" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
         <v>391</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C276" t="s">
+        <v>61</v>
+      </c>
+      <c r="D276" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>6</v>
+      </c>
+      <c r="B277" t="s">
+        <v>393</v>
+      </c>
+      <c r="C277" t="s">
         <v>40</v>
       </c>
-      <c r="D274" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="275" customFormat="1"/>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="3" t="s">
+      <c r="D277" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="278" customFormat="1"/>
+    <row r="279" spans="1:4">
+      <c r="A279" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B280" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C280" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D280" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278">
+    <row r="281" spans="1:4">
+      <c r="A281">
         <v>1</v>
       </c>
-      <c r="B278" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279">
+      <c r="B281" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
         <v>2</v>
       </c>
-      <c r="B279" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280">
+      <c r="B282" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
         <v>3</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B283" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C280" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D280" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="281" customFormat="1" spans="1:4">
-      <c r="A281">
+      <c r="C283" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="284" customFormat="1" spans="1:4">
+      <c r="A284">
         <v>4</v>
       </c>
-      <c r="B281" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C281" s="5" t="s">
+      <c r="B284" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C284" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D281" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="282" customFormat="1" spans="1:4">
-      <c r="A282">
+      <c r="D284" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="285" customFormat="1" spans="1:4">
+      <c r="A285">
         <v>5</v>
       </c>
-      <c r="B282" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C282" s="5" t="s">
+      <c r="B285" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C285" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D282" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="283" customFormat="1" spans="1:4">
-      <c r="A283">
-        <v>6</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C283" s="5" t="s">
+      <c r="D285" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="286" customFormat="1" spans="1:4">
+      <c r="A286">
+        <v>6</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C286" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D283" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="284" customFormat="1" spans="2:4">
-      <c r="B284" s="5"/>
-      <c r="C284" s="5"/>
-      <c r="D284" s="5"/>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="3" t="s">
+      <c r="D286" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="287" customFormat="1" spans="2:4">
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B289" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C289" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D289" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287">
-        <v>1</v>
-      </c>
-      <c r="B287" t="s">
-        <v>404</v>
-      </c>
-      <c r="C287" t="s">
-        <v>6</v>
-      </c>
-      <c r="D287" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288">
-        <v>2</v>
-      </c>
-      <c r="B288" t="s">
-        <v>406</v>
-      </c>
-      <c r="C288" t="s">
-        <v>6</v>
-      </c>
-      <c r="D288" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289">
-        <v>3</v>
-      </c>
-      <c r="B289" t="s">
-        <v>219</v>
-      </c>
-      <c r="C289" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B290" t="s">
-        <v>312</v>
+        <v>406</v>
       </c>
       <c r="C290" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="D290" t="s">
         <v>407</v>
@@ -6211,1138 +6217,1180 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B291" t="s">
         <v>408</v>
       </c>
       <c r="C291" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D291" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B292" t="s">
+        <v>219</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>4</v>
+      </c>
+      <c r="B293" t="s">
+        <v>312</v>
+      </c>
+      <c r="C293" t="s">
+        <v>234</v>
+      </c>
+      <c r="D293" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>5</v>
+      </c>
+      <c r="B294" t="s">
         <v>410</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C294" t="s">
         <v>61</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D294" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="293" customFormat="1"/>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2" t="s">
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295" t="s">
         <v>412</v>
       </c>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="3" t="s">
+      <c r="C295" t="s">
+        <v>61</v>
+      </c>
+      <c r="D295" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="296" customFormat="1"/>
+    <row r="297" spans="1:4">
+      <c r="A297" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296">
-        <v>1</v>
-      </c>
-      <c r="B296" t="s">
-        <v>413</v>
-      </c>
-      <c r="C296" t="s">
-        <v>6</v>
-      </c>
-      <c r="D296" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297">
-        <v>2</v>
-      </c>
-      <c r="B297" t="s">
-        <v>406</v>
-      </c>
-      <c r="C297" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298">
-        <v>3</v>
-      </c>
-      <c r="B298" t="s">
-        <v>219</v>
-      </c>
-      <c r="C298" t="s">
-        <v>6</v>
-      </c>
-      <c r="D298" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B299" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="C299" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="D299" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="B300" t="s">
+        <v>408</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>3</v>
+      </c>
+      <c r="B301" t="s">
+        <v>219</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>4</v>
+      </c>
+      <c r="B302" t="s">
+        <v>312</v>
+      </c>
+      <c r="C302" t="s">
+        <v>234</v>
+      </c>
+      <c r="D302" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
         <v>5</v>
       </c>
-      <c r="B300" t="s">
-        <v>416</v>
-      </c>
-      <c r="C300" t="s">
+      <c r="B303" t="s">
+        <v>418</v>
+      </c>
+      <c r="C303" t="s">
         <v>61</v>
       </c>
-      <c r="D300" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="301" customFormat="1" spans="1:4">
-      <c r="A301">
-        <v>6</v>
-      </c>
-      <c r="B301" t="s">
-        <v>418</v>
-      </c>
-      <c r="C301" t="s">
+      <c r="D303" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="304" customFormat="1" spans="1:4">
+      <c r="A304">
+        <v>6</v>
+      </c>
+      <c r="B304" t="s">
+        <v>420</v>
+      </c>
+      <c r="C304" t="s">
         <v>61</v>
       </c>
-      <c r="D301" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="302" customFormat="1"/>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="3" t="s">
+      <c r="D304" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="305" customFormat="1"/>
+    <row r="306" spans="1:4">
+      <c r="A306" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B307" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C307" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D307" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305">
+    <row r="308" spans="1:4">
+      <c r="A308">
         <v>1</v>
       </c>
-      <c r="B305" t="s">
-        <v>421</v>
-      </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-      <c r="D305" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306">
-        <v>2</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C306" t="s">
-        <v>6</v>
-      </c>
-      <c r="D306" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="307" customFormat="1" spans="1:4">
-      <c r="A307">
-        <v>3</v>
-      </c>
-      <c r="B307" s="7" t="s">
+      <c r="B308" t="s">
         <v>423</v>
       </c>
-      <c r="C307" t="s">
-        <v>32</v>
-      </c>
-      <c r="D307" s="7" t="s">
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="308" customFormat="1" spans="1:4">
-      <c r="A308">
-        <v>4</v>
-      </c>
-      <c r="B308" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C308" t="s">
-        <v>18</v>
-      </c>
-      <c r="D308" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>5</v>
-      </c>
-      <c r="B309" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="310" customFormat="1" spans="1:4">
+      <c r="A310">
+        <v>3</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C310" t="s">
+        <v>32</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="311" customFormat="1" spans="1:4">
+      <c r="A311">
+        <v>4</v>
+      </c>
+      <c r="B311" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C309" t="s">
-        <v>32</v>
-      </c>
-      <c r="D309" s="7" t="s">
+      <c r="C311" t="s">
+        <v>18</v>
+      </c>
+      <c r="D311" s="7" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310">
-        <v>6</v>
-      </c>
-      <c r="B310" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C310" t="s">
-        <v>61</v>
-      </c>
-      <c r="D310" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311">
-        <v>7</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C311" t="s">
-        <v>61</v>
-      </c>
-      <c r="D311" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
+        <v>5</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C312" t="s">
+        <v>32</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>6</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C313" t="s">
+        <v>61</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>7</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C314" t="s">
+        <v>61</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
         <v>8</v>
       </c>
-      <c r="B312" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="C312" t="s">
+      <c r="B315" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C315" t="s">
         <v>37</v>
       </c>
-      <c r="D312" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="313" customFormat="1" spans="1:4">
-      <c r="A313">
+      <c r="D315" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="316" customFormat="1" spans="1:4">
+      <c r="A316">
         <v>9</v>
       </c>
-      <c r="B313" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="C313" t="s">
+      <c r="B316" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C316" t="s">
         <v>40</v>
       </c>
-      <c r="D313" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="314" customFormat="1" spans="2:4">
-      <c r="B314" s="7"/>
-      <c r="D314" s="7"/>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="3" t="s">
+      <c r="D316" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="317" customFormat="1" spans="2:4">
+      <c r="B317" s="7"/>
+      <c r="D317" s="7"/>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B319" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C319" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="D319" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317">
+    <row r="320" spans="1:4">
+      <c r="A320">
         <v>1</v>
       </c>
-      <c r="B317" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C317" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D317" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="318" customFormat="1" spans="1:4">
-      <c r="A318">
-        <v>2</v>
-      </c>
-      <c r="B318" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C318" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D318" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="319" customFormat="1" spans="1:4">
-      <c r="A319">
-        <v>3</v>
-      </c>
-      <c r="B319" s="9" t="s">
+      <c r="B320" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C319" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D319" s="9" t="s">
+      <c r="C320" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" s="9" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="320" customFormat="1" spans="1:4">
-      <c r="A320">
-        <v>4</v>
-      </c>
-      <c r="B320" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C320" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D320" s="9" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="321" customFormat="1" spans="1:4">
       <c r="A321">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>444</v>
+        <v>43</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>445</v>
+        <v>119</v>
       </c>
     </row>
     <row r="322" customFormat="1" spans="1:4">
       <c r="A322">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C322" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="323" customFormat="1" spans="1:4">
       <c r="A323">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="324" customFormat="1" spans="1:4">
       <c r="A324">
+        <v>5</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D324" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="325" customFormat="1" spans="1:4">
+      <c r="A325">
+        <v>6</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="326" customFormat="1" spans="1:4">
+      <c r="A326">
+        <v>7</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D326" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="327" customFormat="1" spans="1:4">
+      <c r="A327">
         <v>8</v>
       </c>
-      <c r="B324" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C324" s="9" t="s">
+      <c r="B327" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C327" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D324" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-    </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="3" t="s">
+      <c r="D327" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B330" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C330" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="D330" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
-      <c r="A328">
-        <v>1</v>
-      </c>
-      <c r="B328" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C328" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D328" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329">
-        <v>2</v>
-      </c>
-      <c r="B329" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C329" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D329" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330">
-        <v>3</v>
-      </c>
-      <c r="B330" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C330" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D330" s="9" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332">
+        <v>2</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333">
+        <v>3</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
         <v>4</v>
       </c>
-      <c r="B331" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C331" s="9" t="s">
+      <c r="B334" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C334" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D331" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="332" customFormat="1" spans="1:4">
-      <c r="A332">
+      <c r="D334" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="335" customFormat="1" spans="1:4">
+      <c r="A335">
         <v>5</v>
       </c>
-      <c r="B332" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="C332" s="9" t="s">
+      <c r="B335" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C335" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D332" s="9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="333" customFormat="1" spans="2:4">
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="9"/>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
-    </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="3" t="s">
+      <c r="D335" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="336" customFormat="1" spans="2:4">
+      <c r="B336" s="9"/>
+      <c r="C336" s="9"/>
+      <c r="D336" s="9"/>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B338" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C338" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D338" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
-      <c r="A336">
-        <v>1</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D336" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337">
-        <v>2</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D337" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
-      <c r="A338">
-        <v>3</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D338" s="5" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
+        <v>1</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340">
+        <v>2</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341">
+        <v>3</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342">
         <v>4</v>
       </c>
-      <c r="B339" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C339" s="5" t="s">
+      <c r="B342" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C342" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D339" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="340" customFormat="1" spans="1:4">
-      <c r="A340">
+      <c r="D342" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="343" customFormat="1" spans="1:4">
+      <c r="A343">
         <v>5</v>
       </c>
-      <c r="B340" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C340" s="5" t="s">
+      <c r="B343" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C343" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D340" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="341" customFormat="1" spans="1:4">
-      <c r="A341">
-        <v>6</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C341" s="5" t="s">
+      <c r="D343" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="344" customFormat="1" spans="1:4">
+      <c r="A344">
+        <v>6</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C344" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D341" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="342" customFormat="1" spans="1:4">
-      <c r="A342">
+      <c r="D344" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="345" customFormat="1" spans="1:4">
+      <c r="A345">
         <v>7</v>
       </c>
-      <c r="B342" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D342" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="343" customFormat="1" spans="2:4">
-      <c r="B343" s="5"/>
-      <c r="C343" s="5"/>
-      <c r="D343" s="5"/>
-    </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2" t="s">
+      <c r="B345" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-    </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="3" t="s">
+      <c r="C345" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="346" customFormat="1" spans="2:4">
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B347" s="2"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B348" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C348" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D345" s="3" t="s">
+      <c r="D348" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346">
+    <row r="349" spans="1:4">
+      <c r="A349">
         <v>1</v>
       </c>
-      <c r="B346" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C346" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D346" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="347" customFormat="1" spans="1:4">
-      <c r="A347">
-        <v>2</v>
-      </c>
-      <c r="B347" t="s">
-        <v>43</v>
-      </c>
-      <c r="C347" t="s">
-        <v>6</v>
-      </c>
-      <c r="D347" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="348" customFormat="1" spans="1:4">
-      <c r="A348">
-        <v>3</v>
-      </c>
-      <c r="B348" t="s">
+      <c r="B349" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C348" t="s">
-        <v>37</v>
-      </c>
-      <c r="D348" t="s">
+      <c r="C349" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" s="5" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="349" customFormat="1" spans="1:4">
-      <c r="A349">
-        <v>4</v>
-      </c>
-      <c r="B349" t="s">
-        <v>479</v>
-      </c>
-      <c r="C349" t="s">
-        <v>234</v>
-      </c>
-      <c r="D349" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="350" customFormat="1" spans="1:4">
       <c r="A350">
+        <v>2</v>
+      </c>
+      <c r="B350" t="s">
+        <v>43</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="351" customFormat="1" spans="1:4">
+      <c r="A351">
+        <v>3</v>
+      </c>
+      <c r="B351" t="s">
+        <v>479</v>
+      </c>
+      <c r="C351" t="s">
+        <v>37</v>
+      </c>
+      <c r="D351" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="352" customFormat="1" spans="1:4">
+      <c r="A352">
+        <v>4</v>
+      </c>
+      <c r="B352" t="s">
+        <v>481</v>
+      </c>
+      <c r="C352" t="s">
+        <v>234</v>
+      </c>
+      <c r="D352" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="353" customFormat="1" spans="1:4">
+      <c r="A353">
         <v>5</v>
       </c>
-      <c r="B350" t="s">
-        <v>481</v>
-      </c>
-      <c r="C350" t="s">
-        <v>6</v>
-      </c>
-      <c r="D350" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4">
-      <c r="A351">
-        <v>6</v>
-      </c>
-      <c r="B351" t="s">
+      <c r="B353" t="s">
         <v>483</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354">
+        <v>6</v>
+      </c>
+      <c r="B354" t="s">
+        <v>485</v>
+      </c>
+      <c r="C354" t="s">
         <v>61</v>
       </c>
-      <c r="D351" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="352" customFormat="1"/>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="3" t="s">
+      <c r="D354" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="355" customFormat="1"/>
+    <row r="356" spans="1:4">
+      <c r="A356" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B357" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="C357" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D354" s="3" t="s">
+      <c r="D357" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355">
+    <row r="358" spans="1:4">
+      <c r="A358">
         <v>1</v>
       </c>
-      <c r="B355" t="s">
-        <v>486</v>
-      </c>
-      <c r="C355" t="s">
-        <v>6</v>
-      </c>
-      <c r="D355" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
-      <c r="A356">
+      <c r="B358" t="s">
+        <v>488</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359">
         <v>2</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B359" t="s">
+        <v>490</v>
+      </c>
+      <c r="C359" t="s">
+        <v>18</v>
+      </c>
+      <c r="D359" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="360" customFormat="1" spans="1:4">
+      <c r="A360">
+        <v>3</v>
+      </c>
+      <c r="B360" t="s">
+        <v>492</v>
+      </c>
+      <c r="C360" t="s">
+        <v>40</v>
+      </c>
+      <c r="D360" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="361" customFormat="1"/>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364" t="s">
+        <v>495</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365">
+        <v>2</v>
+      </c>
+      <c r="B365" t="s">
+        <v>497</v>
+      </c>
+      <c r="C365" t="s">
+        <v>18</v>
+      </c>
+      <c r="D365" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="366" customFormat="1" spans="1:4">
+      <c r="A366">
+        <v>3</v>
+      </c>
+      <c r="B366" t="s">
+        <v>499</v>
+      </c>
+      <c r="C366" t="s">
+        <v>40</v>
+      </c>
+      <c r="D366" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="367" customFormat="1"/>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" s="1" customFormat="1" spans="1:4">
+      <c r="A370" s="1">
+        <v>1</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="371" s="1" customFormat="1" spans="1:4">
+      <c r="A371" s="1">
+        <v>2</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>3</v>
+      </c>
+      <c r="B372" t="s">
         <v>488</v>
       </c>
-      <c r="C356" t="s">
-        <v>18</v>
-      </c>
-      <c r="D356" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="357" customFormat="1" spans="1:4">
-      <c r="A357">
-        <v>3</v>
-      </c>
-      <c r="B357" t="s">
-        <v>490</v>
-      </c>
-      <c r="C357" t="s">
-        <v>40</v>
-      </c>
-      <c r="D357" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="358" customFormat="1"/>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-    </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361">
-        <v>1</v>
-      </c>
-      <c r="B361" t="s">
-        <v>493</v>
-      </c>
-      <c r="C361" t="s">
-        <v>6</v>
-      </c>
-      <c r="D361" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
-      <c r="A362">
-        <v>2</v>
-      </c>
-      <c r="B362" t="s">
-        <v>495</v>
-      </c>
-      <c r="C362" t="s">
-        <v>18</v>
-      </c>
-      <c r="D362" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="363" customFormat="1" spans="1:4">
-      <c r="A363">
-        <v>3</v>
-      </c>
-      <c r="B363" t="s">
-        <v>497</v>
-      </c>
-      <c r="C363" t="s">
-        <v>40</v>
-      </c>
-      <c r="D363" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="364" customFormat="1"/>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
-    </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="367" s="1" customFormat="1" spans="1:4">
-      <c r="A367" s="1">
-        <v>1</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="368" s="1" customFormat="1" spans="1:4">
-      <c r="A368" s="1">
-        <v>2</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="1">
-        <v>3</v>
-      </c>
-      <c r="B369" t="s">
-        <v>486</v>
-      </c>
-      <c r="C369" t="s">
-        <v>6</v>
-      </c>
-      <c r="D369" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="370" customFormat="1" spans="1:4">
-      <c r="A370" s="1">
-        <v>4</v>
-      </c>
-      <c r="B370" t="s">
-        <v>504</v>
-      </c>
-      <c r="C370" t="s">
-        <v>32</v>
-      </c>
-      <c r="D370" t="s">
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="371" customFormat="1" spans="1:4">
-      <c r="A371" s="1">
-        <v>5</v>
-      </c>
-      <c r="B371" t="s">
-        <v>506</v>
-      </c>
-      <c r="C371" t="s">
-        <v>6</v>
-      </c>
-      <c r="D371" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="372" customFormat="1" spans="1:4">
-      <c r="A372" s="1">
-        <v>6</v>
-      </c>
-      <c r="B372" t="s">
-        <v>508</v>
-      </c>
-      <c r="C372" t="s">
-        <v>61</v>
-      </c>
-      <c r="D372" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="373" customFormat="1" spans="1:4">
       <c r="A373" s="1">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
+        <v>506</v>
+      </c>
+      <c r="C373" t="s">
+        <v>32</v>
+      </c>
+      <c r="D373" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="374" customFormat="1" spans="1:4">
+      <c r="A374" s="1">
+        <v>5</v>
+      </c>
+      <c r="B374" t="s">
+        <v>508</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="375" customFormat="1" spans="1:4">
+      <c r="A375" s="1">
+        <v>6</v>
+      </c>
+      <c r="B375" t="s">
+        <v>510</v>
+      </c>
+      <c r="C375" t="s">
+        <v>61</v>
+      </c>
+      <c r="D375" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="376" customFormat="1" spans="1:4">
+      <c r="A376" s="1">
         <v>7</v>
       </c>
-      <c r="B373" t="s">
-        <v>510</v>
-      </c>
-      <c r="C373" t="s">
+      <c r="B376" t="s">
+        <v>512</v>
+      </c>
+      <c r="C376" t="s">
         <v>40</v>
       </c>
-      <c r="D373" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="374" customFormat="1"/>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="3" t="s">
+      <c r="D376" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="377" customFormat="1"/>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B379" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="C379" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D376" s="3" t="s">
+      <c r="D379" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377">
-        <v>1</v>
-      </c>
-      <c r="B377" t="s">
-        <v>513</v>
-      </c>
-      <c r="C377" t="s">
-        <v>6</v>
-      </c>
-      <c r="D377" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378">
-        <v>2</v>
-      </c>
-      <c r="B378" t="s">
-        <v>43</v>
-      </c>
-      <c r="C378" t="s">
-        <v>6</v>
-      </c>
-      <c r="D378" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379">
-        <v>3</v>
-      </c>
-      <c r="B379" t="s">
-        <v>515</v>
-      </c>
-      <c r="C379" t="s">
-        <v>32</v>
-      </c>
-      <c r="D379" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B380" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C380" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D380" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B381" t="s">
-        <v>519</v>
+        <v>43</v>
       </c>
       <c r="C381" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D381" t="s">
-        <v>520</v>
+        <v>119</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B382" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C382" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D382" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B383" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C383" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D383" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
+        <v>5</v>
+      </c>
+      <c r="B384" t="s">
+        <v>521</v>
+      </c>
+      <c r="C384" t="s">
+        <v>32</v>
+      </c>
+      <c r="D384" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385">
+        <v>6</v>
+      </c>
+      <c r="B385" t="s">
+        <v>523</v>
+      </c>
+      <c r="C385" t="s">
+        <v>37</v>
+      </c>
+      <c r="D385" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386">
+        <v>7</v>
+      </c>
+      <c r="B386" t="s">
+        <v>525</v>
+      </c>
+      <c r="C386" t="s">
+        <v>61</v>
+      </c>
+      <c r="D386" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387">
         <v>8</v>
       </c>
-      <c r="B384" t="s">
-        <v>525</v>
-      </c>
-      <c r="C384" t="s">
+      <c r="B387" t="s">
+        <v>527</v>
+      </c>
+      <c r="C387" t="s">
         <v>61</v>
       </c>
-      <c r="D384" t="s">
-        <v>526</v>
+      <c r="D387" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -7368,21 +7416,21 @@
     <mergeCell ref="A201:D201"/>
     <mergeCell ref="A208:D208"/>
     <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="A294:D294"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A315:D315"/>
-    <mergeCell ref="A326:D326"/>
-    <mergeCell ref="A334:D334"/>
-    <mergeCell ref="A344:D344"/>
-    <mergeCell ref="A353:D353"/>
-    <mergeCell ref="A359:D359"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A375:D375"/>
+    <mergeCell ref="A249:D249"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A270:D270"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A297:D297"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A329:D329"/>
+    <mergeCell ref="A337:D337"/>
+    <mergeCell ref="A347:D347"/>
+    <mergeCell ref="A356:D356"/>
+    <mergeCell ref="A362:D362"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A378:D378"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7399,7 +7447,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7416,7 +7464,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -1240,9 +1240,6 @@
   </si>
   <si>
     <t>领料记录编号，UUID,主键</t>
-  </si>
-  <si>
-    <t>matainRecordId</t>
   </si>
   <si>
     <t>领料数量</t>
@@ -1661,6 +1658,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1670,6 +1690,35 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1685,23 +1734,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1721,51 +1771,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1780,34 +1795,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1825,7 +1822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,7 +1834,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,25 +1924,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,49 +1966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1933,61 +1984,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,36 +2007,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2069,11 +2036,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,20 +2093,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2118,10 +2115,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2130,136 +2127,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2641,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262:D262"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -6220,7 +6217,7 @@
         <v>2</v>
       </c>
       <c r="B291" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
@@ -6254,7 +6251,7 @@
         <v>234</v>
       </c>
       <c r="D293" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6262,13 +6259,13 @@
         <v>5</v>
       </c>
       <c r="B294" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C294" t="s">
         <v>61</v>
       </c>
       <c r="D294" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6276,19 +6273,19 @@
         <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C295" t="s">
         <v>61</v>
       </c>
       <c r="D295" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="296" customFormat="1"/>
     <row r="297" spans="1:4">
       <c r="A297" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -6313,13 +6310,13 @@
         <v>1</v>
       </c>
       <c r="B299" t="s">
+        <v>414</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="s">
         <v>415</v>
-      </c>
-      <c r="C299" t="s">
-        <v>6</v>
-      </c>
-      <c r="D299" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6327,7 +6324,7 @@
         <v>2</v>
       </c>
       <c r="B300" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -6361,7 +6358,7 @@
         <v>234</v>
       </c>
       <c r="D302" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6369,13 +6366,13 @@
         <v>5</v>
       </c>
       <c r="B303" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C303" t="s">
         <v>61</v>
       </c>
       <c r="D303" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="304" customFormat="1" spans="1:4">
@@ -6383,19 +6380,19 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C304" t="s">
         <v>61</v>
       </c>
       <c r="D304" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="305" customFormat="1"/>
     <row r="306" spans="1:4">
       <c r="A306" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -6420,13 +6417,13 @@
         <v>1</v>
       </c>
       <c r="B308" t="s">
+        <v>422</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
         <v>423</v>
-      </c>
-      <c r="C308" t="s">
-        <v>6</v>
-      </c>
-      <c r="D308" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6448,13 +6445,13 @@
         <v>3</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C310" t="s">
         <v>32</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="311" customFormat="1" spans="1:4">
@@ -6462,13 +6459,13 @@
         <v>4</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C311" t="s">
         <v>18</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6476,13 +6473,13 @@
         <v>5</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C312" t="s">
         <v>32</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6490,13 +6487,13 @@
         <v>6</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C313" t="s">
         <v>61</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6504,13 +6501,13 @@
         <v>7</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C314" t="s">
         <v>61</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6518,13 +6515,13 @@
         <v>8</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C315" t="s">
         <v>37</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="316" customFormat="1" spans="1:4">
@@ -6532,13 +6529,13 @@
         <v>9</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C316" t="s">
         <v>40</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="317" customFormat="1" spans="2:4">
@@ -6547,7 +6544,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -6572,13 +6569,13 @@
         <v>1</v>
       </c>
       <c r="B320" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="C320" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D320" s="9" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="321" customFormat="1" spans="1:4">
@@ -6600,13 +6597,13 @@
         <v>3</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C322" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="323" customFormat="1" spans="1:4">
@@ -6614,13 +6611,13 @@
         <v>4</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C323" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="324" customFormat="1" spans="1:4">
@@ -6628,13 +6625,13 @@
         <v>5</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C324" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="325" customFormat="1" spans="1:4">
@@ -6642,13 +6639,13 @@
         <v>6</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C325" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="326" customFormat="1" spans="1:4">
@@ -6656,13 +6653,13 @@
         <v>7</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C326" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:4">
@@ -6670,18 +6667,18 @@
         <v>8</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C327" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -6706,13 +6703,13 @@
         <v>1</v>
       </c>
       <c r="B331" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" s="9" t="s">
         <v>455</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D331" s="9" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6734,13 +6731,13 @@
         <v>3</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C333" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6748,13 +6745,13 @@
         <v>4</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C334" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="335" customFormat="1" spans="1:4">
@@ -6762,13 +6759,13 @@
         <v>5</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C335" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="336" customFormat="1" spans="2:4">
@@ -6778,7 +6775,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -6803,13 +6800,13 @@
         <v>1</v>
       </c>
       <c r="B339" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="C339" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D339" s="5" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6831,13 +6828,13 @@
         <v>3</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6845,13 +6842,13 @@
         <v>4</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="343" customFormat="1" spans="1:4">
@@ -6859,13 +6856,13 @@
         <v>5</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="344" customFormat="1" spans="1:4">
@@ -6873,13 +6870,13 @@
         <v>6</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="345" customFormat="1" spans="1:4">
@@ -6887,13 +6884,13 @@
         <v>7</v>
       </c>
       <c r="B345" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D345" s="5" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="346" customFormat="1" spans="2:4">
@@ -6903,7 +6900,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -6928,13 +6925,13 @@
         <v>1</v>
       </c>
       <c r="B349" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D349" s="5" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="350" customFormat="1" spans="1:4">
@@ -6956,13 +6953,13 @@
         <v>3</v>
       </c>
       <c r="B351" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C351" t="s">
         <v>37</v>
       </c>
       <c r="D351" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="352" customFormat="1" spans="1:4">
@@ -6970,13 +6967,13 @@
         <v>4</v>
       </c>
       <c r="B352" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C352" t="s">
         <v>234</v>
       </c>
       <c r="D352" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="353" customFormat="1" spans="1:4">
@@ -6984,13 +6981,13 @@
         <v>5</v>
       </c>
       <c r="B353" t="s">
+        <v>482</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
         <v>483</v>
-      </c>
-      <c r="C353" t="s">
-        <v>6</v>
-      </c>
-      <c r="D353" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6998,19 +6995,19 @@
         <v>6</v>
       </c>
       <c r="B354" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C354" t="s">
         <v>61</v>
       </c>
       <c r="D354" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="355" customFormat="1"/>
     <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -7035,13 +7032,13 @@
         <v>1</v>
       </c>
       <c r="B358" t="s">
+        <v>487</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="s">
         <v>488</v>
-      </c>
-      <c r="C358" t="s">
-        <v>6</v>
-      </c>
-      <c r="D358" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -7049,13 +7046,13 @@
         <v>2</v>
       </c>
       <c r="B359" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C359" t="s">
         <v>18</v>
       </c>
       <c r="D359" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="360" customFormat="1" spans="1:4">
@@ -7063,19 +7060,19 @@
         <v>3</v>
       </c>
       <c r="B360" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C360" t="s">
         <v>40</v>
       </c>
       <c r="D360" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="361" customFormat="1"/>
     <row r="362" spans="1:4">
       <c r="A362" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -7100,13 +7097,13 @@
         <v>1</v>
       </c>
       <c r="B364" t="s">
+        <v>494</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="s">
         <v>495</v>
-      </c>
-      <c r="C364" t="s">
-        <v>6</v>
-      </c>
-      <c r="D364" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7114,13 +7111,13 @@
         <v>2</v>
       </c>
       <c r="B365" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C365" t="s">
         <v>18</v>
       </c>
       <c r="D365" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="366" customFormat="1" spans="1:4">
@@ -7128,19 +7125,19 @@
         <v>3</v>
       </c>
       <c r="B366" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C366" t="s">
         <v>40</v>
       </c>
       <c r="D366" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="367" customFormat="1"/>
     <row r="368" spans="1:4">
       <c r="A368" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -7165,13 +7162,13 @@
         <v>1</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" spans="1:4">
@@ -7179,13 +7176,13 @@
         <v>2</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7193,13 +7190,13 @@
         <v>3</v>
       </c>
       <c r="B372" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C372" t="s">
         <v>6</v>
       </c>
       <c r="D372" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="373" customFormat="1" spans="1:4">
@@ -7207,13 +7204,13 @@
         <v>4</v>
       </c>
       <c r="B373" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C373" t="s">
         <v>32</v>
       </c>
       <c r="D373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="374" customFormat="1" spans="1:4">
@@ -7221,13 +7218,13 @@
         <v>5</v>
       </c>
       <c r="B374" t="s">
+        <v>507</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="s">
         <v>508</v>
-      </c>
-      <c r="C374" t="s">
-        <v>6</v>
-      </c>
-      <c r="D374" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="375" customFormat="1" spans="1:4">
@@ -7235,13 +7232,13 @@
         <v>6</v>
       </c>
       <c r="B375" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C375" t="s">
         <v>61</v>
       </c>
       <c r="D375" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="376" customFormat="1" spans="1:4">
@@ -7249,19 +7246,19 @@
         <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C376" t="s">
         <v>40</v>
       </c>
       <c r="D376" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="377" customFormat="1"/>
     <row r="378" spans="1:4">
       <c r="A378" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -7286,13 +7283,13 @@
         <v>1</v>
       </c>
       <c r="B380" t="s">
+        <v>514</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
         <v>515</v>
-      </c>
-      <c r="C380" t="s">
-        <v>6</v>
-      </c>
-      <c r="D380" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7314,13 +7311,13 @@
         <v>3</v>
       </c>
       <c r="B382" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C382" t="s">
         <v>32</v>
       </c>
       <c r="D382" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7328,13 +7325,13 @@
         <v>4</v>
       </c>
       <c r="B383" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C383" t="s">
         <v>32</v>
       </c>
       <c r="D383" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7342,13 +7339,13 @@
         <v>5</v>
       </c>
       <c r="B384" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C384" t="s">
         <v>32</v>
       </c>
       <c r="D384" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7356,13 +7353,13 @@
         <v>6</v>
       </c>
       <c r="B385" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C385" t="s">
         <v>37</v>
       </c>
       <c r="D385" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7370,13 +7367,13 @@
         <v>7</v>
       </c>
       <c r="B386" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C386" t="s">
         <v>61</v>
       </c>
       <c r="D386" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7384,13 +7381,13 @@
         <v>8</v>
       </c>
       <c r="B387" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C387" t="s">
         <v>61</v>
       </c>
       <c r="D387" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -1493,6 +1493,12 @@
     <t>跟踪回访创建时间</t>
   </si>
   <si>
+    <t>trackStatus</t>
+  </si>
+  <si>
+    <t>是否回访，默认是N，Y表示已经回访</t>
+  </si>
+  <si>
     <t>支出类型表t_outgoing_type</t>
   </si>
   <si>
@@ -1624,10 +1630,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1659,15 +1665,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1678,6 +1741,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1697,8 +1768,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1711,101 +1812,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1816,7 +1822,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,7 +1864,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1846,7 +1954,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,145 +1996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2007,6 +2013,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2037,43 +2085,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2092,171 +2113,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2636,18 +2642,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="D273" sqref="D273"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="D356" sqref="D356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.50925925925926" customWidth="1"/>
-    <col min="2" max="2" width="23.9907407407407" customWidth="1"/>
-    <col min="3" max="3" width="13.9259259259259" customWidth="1"/>
-    <col min="4" max="4" width="97.2407407407407" customWidth="1"/>
+    <col min="1" max="1" width="5.50833333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.9916666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.925" customWidth="1"/>
+    <col min="4" max="4" width="97.2416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4612,7 +4618,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" ht="43.2" spans="1:4">
+    <row r="163" ht="40.5" spans="1:4">
       <c r="A163">
         <v>2</v>
       </c>
@@ -7004,210 +7010,210 @@
         <v>485</v>
       </c>
     </row>
-    <row r="355" customFormat="1"/>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2" t="s">
+    <row r="355" customFormat="1" spans="1:4">
+      <c r="A355">
+        <v>7</v>
+      </c>
+      <c r="B355" t="s">
         <v>486</v>
       </c>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-    </row>
+      <c r="C355" t="s">
+        <v>40</v>
+      </c>
+      <c r="D355" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="356" customFormat="1"/>
     <row r="357" spans="1:4">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B358" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="C358" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D357" s="3" t="s">
+      <c r="D358" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4">
-      <c r="A358">
-        <v>1</v>
-      </c>
-      <c r="B358" t="s">
-        <v>487</v>
-      </c>
-      <c r="C358" t="s">
-        <v>6</v>
-      </c>
-      <c r="D358" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B359" t="s">
         <v>489</v>
       </c>
       <c r="C359" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D359" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="360" customFormat="1" spans="1:4">
+    <row r="360" spans="1:4">
       <c r="A360">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B360" t="s">
         <v>491</v>
       </c>
       <c r="C360" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D360" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="361" customFormat="1"/>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2" t="s">
+    <row r="361" customFormat="1" spans="1:4">
+      <c r="A361">
+        <v>3</v>
+      </c>
+      <c r="B361" t="s">
         <v>493</v>
       </c>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-    </row>
+      <c r="C361" t="s">
+        <v>40</v>
+      </c>
+      <c r="D361" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="362" customFormat="1"/>
     <row r="363" spans="1:4">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B364" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C364" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D363" s="3" t="s">
+      <c r="D364" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364">
-        <v>1</v>
-      </c>
-      <c r="B364" t="s">
-        <v>494</v>
-      </c>
-      <c r="C364" t="s">
-        <v>6</v>
-      </c>
-      <c r="D364" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B365" t="s">
         <v>496</v>
       </c>
       <c r="C365" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D365" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="366" customFormat="1" spans="1:4">
+    <row r="366" spans="1:4">
       <c r="A366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B366" t="s">
         <v>498</v>
       </c>
       <c r="C366" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D366" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="367" customFormat="1"/>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2" t="s">
+    <row r="367" customFormat="1" spans="1:4">
+      <c r="A367">
+        <v>3</v>
+      </c>
+      <c r="B367" t="s">
         <v>500</v>
       </c>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-    </row>
+      <c r="C367" t="s">
+        <v>40</v>
+      </c>
+      <c r="D367" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="368" customFormat="1"/>
     <row r="369" spans="1:4">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B370" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="C370" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D369" s="3" t="s">
+      <c r="D370" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="370" s="1" customFormat="1" spans="1:4">
-      <c r="A370" s="1">
-        <v>1</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" spans="1:4">
       <c r="A371" s="1">
+        <v>1</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="372" s="1" customFormat="1" spans="1:4">
+      <c r="A372" s="1">
         <v>2</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="1">
+      <c r="B372" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
         <v>3</v>
       </c>
-      <c r="B372" t="s">
-        <v>487</v>
-      </c>
-      <c r="C372" t="s">
-        <v>6</v>
-      </c>
-      <c r="D372" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="373" customFormat="1" spans="1:4">
-      <c r="A373" s="1">
-        <v>4</v>
-      </c>
       <c r="B373" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C373" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D373" t="s">
         <v>506</v>
@@ -7215,13 +7221,13 @@
     </row>
     <row r="374" customFormat="1" spans="1:4">
       <c r="A374" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B374" t="s">
         <v>507</v>
       </c>
       <c r="C374" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D374" t="s">
         <v>508</v>
@@ -7229,13 +7235,13 @@
     </row>
     <row r="375" customFormat="1" spans="1:4">
       <c r="A375" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B375" t="s">
         <v>509</v>
       </c>
       <c r="C375" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D375" t="s">
         <v>510</v>
@@ -7243,86 +7249,86 @@
     </row>
     <row r="376" customFormat="1" spans="1:4">
       <c r="A376" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B376" t="s">
         <v>511</v>
       </c>
       <c r="C376" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D376" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="377" customFormat="1"/>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2" t="s">
+    <row r="377" customFormat="1" spans="1:4">
+      <c r="A377" s="1">
+        <v>7</v>
+      </c>
+      <c r="B377" t="s">
         <v>513</v>
       </c>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-    </row>
+      <c r="C377" t="s">
+        <v>40</v>
+      </c>
+      <c r="D377" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="378" customFormat="1"/>
     <row r="379" spans="1:4">
-      <c r="A379" s="3" t="s">
+      <c r="A379" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B380" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="C380" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D379" s="3" t="s">
+      <c r="D380" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380">
-        <v>1</v>
-      </c>
-      <c r="B380" t="s">
-        <v>514</v>
-      </c>
-      <c r="C380" t="s">
-        <v>6</v>
-      </c>
-      <c r="D380" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B381" t="s">
-        <v>43</v>
+        <v>516</v>
       </c>
       <c r="C381" t="s">
         <v>6</v>
       </c>
       <c r="D381" t="s">
-        <v>119</v>
+        <v>517</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B382" t="s">
-        <v>516</v>
+        <v>43</v>
       </c>
       <c r="C382" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D382" t="s">
-        <v>517</v>
+        <v>119</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B383" t="s">
         <v>518</v>
@@ -7336,7 +7342,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B384" t="s">
         <v>520</v>
@@ -7350,13 +7356,13 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B385" t="s">
         <v>522</v>
       </c>
       <c r="C385" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D385" t="s">
         <v>523</v>
@@ -7364,13 +7370,13 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B386" t="s">
         <v>524</v>
       </c>
       <c r="C386" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D386" t="s">
         <v>525</v>
@@ -7378,7 +7384,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B387" t="s">
         <v>526</v>
@@ -7388,6 +7394,20 @@
       </c>
       <c r="D387" t="s">
         <v>527</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388">
+        <v>8</v>
+      </c>
+      <c r="B388" t="s">
+        <v>528</v>
+      </c>
+      <c r="C388" t="s">
+        <v>61</v>
+      </c>
+      <c r="D388" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -7424,10 +7444,10 @@
     <mergeCell ref="A329:D329"/>
     <mergeCell ref="A337:D337"/>
     <mergeCell ref="A347:D347"/>
-    <mergeCell ref="A356:D356"/>
-    <mergeCell ref="A362:D362"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A378:D378"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A363:D363"/>
+    <mergeCell ref="A369:D369"/>
+    <mergeCell ref="A379:D379"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7444,7 +7464,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7461,7 +7481,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -1493,12 +1493,6 @@
     <t>跟踪回访创建时间</t>
   </si>
   <si>
-    <t>trackStatus</t>
-  </si>
-  <si>
-    <t>是否回访，默认是N，Y表示已经回访</t>
-  </si>
-  <si>
     <t>支出类型表t_outgoing_type</t>
   </si>
   <si>
@@ -1630,10 +1624,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1665,13 +1659,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1679,7 +1666,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,15 +1695,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1730,15 +1726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,6 +1750,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1776,27 +1772,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1805,9 +1780,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1822,31 +1816,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,43 +1888,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,37 +1930,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,55 +1990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,33 +2007,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2060,10 +2027,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2113,156 +2087,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2642,10 +2636,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="D356" sqref="D356"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="A355" sqref="$A355:$XFD355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7010,210 +7004,210 @@
         <v>485</v>
       </c>
     </row>
-    <row r="355" customFormat="1" spans="1:4">
-      <c r="A355">
-        <v>7</v>
-      </c>
-      <c r="B355" t="s">
+    <row r="355" customFormat="1"/>
+    <row r="356" spans="1:4">
+      <c r="A356" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C355" t="s">
-        <v>40</v>
-      </c>
-      <c r="D355" t="s">
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358">
+        <v>1</v>
+      </c>
+      <c r="B358" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="356" customFormat="1"/>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2" t="s">
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="s">
         <v>488</v>
-      </c>
-      <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B359" t="s">
         <v>489</v>
       </c>
       <c r="C359" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D359" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" customFormat="1" spans="1:4">
       <c r="A360">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B360" t="s">
         <v>491</v>
       </c>
       <c r="C360" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D360" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="361" customFormat="1" spans="1:4">
-      <c r="A361">
+    <row r="361" customFormat="1"/>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B361" t="s">
-        <v>493</v>
-      </c>
-      <c r="C361" t="s">
-        <v>40</v>
-      </c>
-      <c r="D361" t="s">
+      <c r="D363" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="362" customFormat="1"/>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2" t="s">
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="s">
         <v>495</v>
-      </c>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B365" t="s">
         <v>496</v>
       </c>
       <c r="C365" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D365" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" customFormat="1" spans="1:4">
       <c r="A366">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B366" t="s">
         <v>498</v>
       </c>
       <c r="C366" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D366" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="367" customFormat="1" spans="1:4">
-      <c r="A367">
+    <row r="367" customFormat="1"/>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C369" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B367" t="s">
-        <v>500</v>
-      </c>
-      <c r="C367" t="s">
-        <v>40</v>
-      </c>
-      <c r="D367" t="s">
+      <c r="D369" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" s="1" customFormat="1" spans="1:4">
+      <c r="A370" s="1">
+        <v>1</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="368" customFormat="1"/>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2" t="s">
+      <c r="C370" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" spans="1:4">
       <c r="A371" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C371" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D371" s="1" t="s">
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>3</v>
+      </c>
+      <c r="B372" t="s">
+        <v>487</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="372" s="1" customFormat="1" spans="1:4">
-      <c r="A372" s="1">
-        <v>2</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D372" s="1" t="s">
+    <row r="373" customFormat="1" spans="1:4">
+      <c r="A373" s="1">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="1">
-        <v>3</v>
-      </c>
-      <c r="B373" t="s">
-        <v>489</v>
-      </c>
       <c r="C373" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D373" t="s">
         <v>506</v>
@@ -7221,13 +7215,13 @@
     </row>
     <row r="374" customFormat="1" spans="1:4">
       <c r="A374" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B374" t="s">
         <v>507</v>
       </c>
       <c r="C374" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D374" t="s">
         <v>508</v>
@@ -7235,13 +7229,13 @@
     </row>
     <row r="375" customFormat="1" spans="1:4">
       <c r="A375" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B375" t="s">
         <v>509</v>
       </c>
       <c r="C375" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D375" t="s">
         <v>510</v>
@@ -7249,86 +7243,86 @@
     </row>
     <row r="376" customFormat="1" spans="1:4">
       <c r="A376" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B376" t="s">
         <v>511</v>
       </c>
       <c r="C376" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D376" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="377" customFormat="1" spans="1:4">
-      <c r="A377" s="1">
-        <v>7</v>
-      </c>
-      <c r="B377" t="s">
+    <row r="377" customFormat="1"/>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C377" t="s">
-        <v>40</v>
-      </c>
-      <c r="D377" t="s">
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380">
+        <v>1</v>
+      </c>
+      <c r="B380" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="378" customFormat="1"/>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2" t="s">
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
         <v>515</v>
-      </c>
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B381" t="s">
-        <v>516</v>
+        <v>43</v>
       </c>
       <c r="C381" t="s">
         <v>6</v>
       </c>
       <c r="D381" t="s">
-        <v>517</v>
+        <v>119</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B382" t="s">
-        <v>43</v>
+        <v>516</v>
       </c>
       <c r="C382" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D382" t="s">
-        <v>119</v>
+        <v>517</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B383" t="s">
         <v>518</v>
@@ -7342,7 +7336,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B384" t="s">
         <v>520</v>
@@ -7356,13 +7350,13 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B385" t="s">
         <v>522</v>
       </c>
       <c r="C385" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D385" t="s">
         <v>523</v>
@@ -7370,13 +7364,13 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B386" t="s">
         <v>524</v>
       </c>
       <c r="C386" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D386" t="s">
         <v>525</v>
@@ -7384,7 +7378,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B387" t="s">
         <v>526</v>
@@ -7394,20 +7388,6 @@
       </c>
       <c r="D387" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388">
-        <v>8</v>
-      </c>
-      <c r="B388" t="s">
-        <v>528</v>
-      </c>
-      <c r="C388" t="s">
-        <v>61</v>
-      </c>
-      <c r="D388" t="s">
-        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -7444,10 +7424,10 @@
     <mergeCell ref="A329:D329"/>
     <mergeCell ref="A337:D337"/>
     <mergeCell ref="A347:D347"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A363:D363"/>
-    <mergeCell ref="A369:D369"/>
-    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A356:D356"/>
+    <mergeCell ref="A362:D362"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A378:D378"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="20385" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -1514,6 +1514,12 @@
     <t>支出类型状态，Y表示可用，N表示不可用</t>
   </si>
   <si>
+    <t>outTypeCreatedTime</t>
+  </si>
+  <si>
+    <t>支出类型创建时间</t>
+  </si>
+  <si>
     <t>收入类型表t_incoming_type</t>
   </si>
   <si>
@@ -1533,6 +1539,12 @@
   </si>
   <si>
     <t>收入类型状态，Y表示可用，N表示不可用</t>
+  </si>
+  <si>
+    <t>inTypeCreatedTime</t>
+  </si>
+  <si>
+    <t>收人类型创建时间</t>
   </si>
   <si>
     <t>收支记录表t_incoming_outgoing</t>
@@ -1624,10 +1636,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1659,14 +1671,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,9 +1686,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1695,26 +1707,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1725,8 +1730,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1748,33 +1769,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1786,14 +1782,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1816,73 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,43 +1846,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,7 +1876,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,13 +1894,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,13 +1942,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1996,7 +1966,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,30 +2041,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2073,17 +2076,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2112,151 +2124,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2636,10 +2648,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="A355" sqref="$A355:$XFD355"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="D368" sqref="D368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7069,156 +7081,150 @@
         <v>492</v>
       </c>
     </row>
-    <row r="361" customFormat="1"/>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2" t="s">
+    <row r="361" customFormat="1" spans="2:4">
+      <c r="B361" t="s">
         <v>493</v>
       </c>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-    </row>
+      <c r="C361" t="s">
+        <v>61</v>
+      </c>
+      <c r="D361" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="362" customFormat="1"/>
     <row r="363" spans="1:4">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B364" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C364" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D363" s="3" t="s">
+      <c r="D364" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364">
-        <v>1</v>
-      </c>
-      <c r="B364" t="s">
-        <v>494</v>
-      </c>
-      <c r="C364" t="s">
-        <v>6</v>
-      </c>
-      <c r="D364" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B365" t="s">
         <v>496</v>
       </c>
       <c r="C365" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D365" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="366" customFormat="1" spans="1:4">
+    <row r="366" spans="1:4">
       <c r="A366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B366" t="s">
         <v>498</v>
       </c>
       <c r="C366" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D366" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="367" customFormat="1"/>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2" t="s">
+    <row r="367" customFormat="1" spans="1:4">
+      <c r="A367">
+        <v>3</v>
+      </c>
+      <c r="B367" t="s">
         <v>500</v>
       </c>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="3" t="s">
+      <c r="C367" t="s">
+        <v>40</v>
+      </c>
+      <c r="D367" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="368" customFormat="1" spans="2:4">
+      <c r="B368" t="s">
+        <v>502</v>
+      </c>
+      <c r="C368" t="s">
+        <v>61</v>
+      </c>
+      <c r="D368" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="369" customFormat="1"/>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B371" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="C371" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D369" s="3" t="s">
+      <c r="D371" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="370" s="1" customFormat="1" spans="1:4">
-      <c r="A370" s="1">
+    <row r="372" s="1" customFormat="1" spans="1:4">
+      <c r="A372" s="1">
         <v>1</v>
       </c>
-      <c r="B370" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="371" s="1" customFormat="1" spans="1:4">
-      <c r="A371" s="1">
+      <c r="B372" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="373" s="1" customFormat="1" spans="1:4">
+      <c r="A373" s="1">
         <v>2</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="1">
+      <c r="B373" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
         <v>3</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B374" t="s">
         <v>487</v>
-      </c>
-      <c r="C372" t="s">
-        <v>6</v>
-      </c>
-      <c r="D372" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="373" customFormat="1" spans="1:4">
-      <c r="A373" s="1">
-        <v>4</v>
-      </c>
-      <c r="B373" t="s">
-        <v>505</v>
-      </c>
-      <c r="C373" t="s">
-        <v>32</v>
-      </c>
-      <c r="D373" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="374" customFormat="1" spans="1:4">
-      <c r="A374" s="1">
-        <v>5</v>
-      </c>
-      <c r="B374" t="s">
-        <v>507</v>
       </c>
       <c r="C374" t="s">
         <v>6</v>
@@ -7229,13 +7235,13 @@
     </row>
     <row r="375" customFormat="1" spans="1:4">
       <c r="A375" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B375" t="s">
         <v>509</v>
       </c>
       <c r="C375" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D375" t="s">
         <v>510</v>
@@ -7243,100 +7249,100 @@
     </row>
     <row r="376" customFormat="1" spans="1:4">
       <c r="A376" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B376" t="s">
         <v>511</v>
       </c>
       <c r="C376" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D376" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="377" customFormat="1"/>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2" t="s">
+    <row r="377" customFormat="1" spans="1:4">
+      <c r="A377" s="1">
+        <v>6</v>
+      </c>
+      <c r="B377" t="s">
         <v>513</v>
       </c>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="3" t="s">
+      <c r="C377" t="s">
+        <v>61</v>
+      </c>
+      <c r="D377" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="378" customFormat="1" spans="1:4">
+      <c r="A378" s="1">
+        <v>7</v>
+      </c>
+      <c r="B378" t="s">
+        <v>515</v>
+      </c>
+      <c r="C378" t="s">
+        <v>40</v>
+      </c>
+      <c r="D378" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="379" customFormat="1"/>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B381" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="C381" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D379" s="3" t="s">
+      <c r="D381" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380">
-        <v>1</v>
-      </c>
-      <c r="B380" t="s">
-        <v>514</v>
-      </c>
-      <c r="C380" t="s">
-        <v>6</v>
-      </c>
-      <c r="D380" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381">
-        <v>2</v>
-      </c>
-      <c r="B381" t="s">
-        <v>43</v>
-      </c>
-      <c r="C381" t="s">
-        <v>6</v>
-      </c>
-      <c r="D381" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B382" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C382" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D382" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B383" t="s">
-        <v>518</v>
+        <v>43</v>
       </c>
       <c r="C383" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D383" t="s">
-        <v>519</v>
+        <v>119</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B384" t="s">
         <v>520</v>
@@ -7350,13 +7356,13 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B385" t="s">
         <v>522</v>
       </c>
       <c r="C385" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D385" t="s">
         <v>523</v>
@@ -7364,13 +7370,13 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B386" t="s">
         <v>524</v>
       </c>
       <c r="C386" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D386" t="s">
         <v>525</v>
@@ -7378,16 +7384,44 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B387" t="s">
         <v>526</v>
       </c>
       <c r="C387" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D387" t="s">
         <v>527</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388">
+        <v>7</v>
+      </c>
+      <c r="B388" t="s">
+        <v>528</v>
+      </c>
+      <c r="C388" t="s">
+        <v>61</v>
+      </c>
+      <c r="D388" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389">
+        <v>8</v>
+      </c>
+      <c r="B389" t="s">
+        <v>530</v>
+      </c>
+      <c r="C389" t="s">
+        <v>61</v>
+      </c>
+      <c r="D389" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -7425,9 +7459,9 @@
     <mergeCell ref="A337:D337"/>
     <mergeCell ref="A347:D347"/>
     <mergeCell ref="A356:D356"/>
-    <mergeCell ref="A362:D362"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A378:D378"/>
+    <mergeCell ref="A363:D363"/>
+    <mergeCell ref="A370:D370"/>
+    <mergeCell ref="A380:D380"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8970"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,58 +201,58 @@
     <t>userBirthday</t>
   </si>
   <si>
+    <t>用户生日，车主选填，汽修公司和管理员必填</t>
+  </si>
+  <si>
+    <t>userAddress</t>
+  </si>
+  <si>
+    <t>用户地址，车主选填，汽修公司和管理员必填</t>
+  </si>
+  <si>
+    <t>qqOpenId</t>
+  </si>
+  <si>
+    <t>QQ open id</t>
+  </si>
+  <si>
+    <t>weiboOpenId</t>
+  </si>
+  <si>
+    <t>微博open id</t>
+  </si>
+  <si>
+    <t>wechatOpenId</t>
+  </si>
+  <si>
+    <t>微信open id</t>
+  </si>
+  <si>
+    <t>userIcon</t>
+  </si>
+  <si>
+    <t>用户头像，使用默认值</t>
+  </si>
+  <si>
+    <t>userDes</t>
+  </si>
+  <si>
+    <t>用户描述</t>
+  </si>
+  <si>
+    <t>用户所属公司，来源于t_company表，不需要设置外键，可为空</t>
+  </si>
+  <si>
+    <t>userSalary</t>
+  </si>
+  <si>
+    <t>用户基本工资，汽修公司设置</t>
+  </si>
+  <si>
+    <t>userCreatedTime</t>
+  </si>
+  <si>
     <t>datetime</t>
-  </si>
-  <si>
-    <t>用户生日，车主选填，汽修公司和管理员必填</t>
-  </si>
-  <si>
-    <t>userAddress</t>
-  </si>
-  <si>
-    <t>用户地址，车主选填，汽修公司和管理员必填</t>
-  </si>
-  <si>
-    <t>qqOpenId</t>
-  </si>
-  <si>
-    <t>QQ open id</t>
-  </si>
-  <si>
-    <t>weiboOpenId</t>
-  </si>
-  <si>
-    <t>微博open id</t>
-  </si>
-  <si>
-    <t>wechatOpenId</t>
-  </si>
-  <si>
-    <t>微信open id</t>
-  </si>
-  <si>
-    <t>userIcon</t>
-  </si>
-  <si>
-    <t>用户头像，使用默认值</t>
-  </si>
-  <si>
-    <t>userDes</t>
-  </si>
-  <si>
-    <t>用户描述</t>
-  </si>
-  <si>
-    <t>用户所属公司，来源于t_company表，不需要设置外键，可为空</t>
-  </si>
-  <si>
-    <t>userSalary</t>
-  </si>
-  <si>
-    <t>用户基本工资，汽修公司设置</t>
-  </si>
-  <si>
-    <t>userCreatedTime</t>
   </si>
   <si>
     <t>用户创建时间</t>
@@ -1637,9 +1637,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1670,66 +1670,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1738,58 +1678,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1811,12 +1701,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1828,7 +1828,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,13 +1864,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,31 +1966,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,121 +2008,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2019,6 +2019,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2046,21 +2061,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2076,17 +2076,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2109,13 +2105,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2127,10 +2127,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2139,136 +2139,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2650,16 +2650,16 @@
   <sheetPr/>
   <dimension ref="A1:D389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="D368" sqref="D368"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.50833333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.9916666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.925" customWidth="1"/>
-    <col min="4" max="4" width="97.2416666666667" customWidth="1"/>
+    <col min="1" max="1" width="5.50925925925926" customWidth="1"/>
+    <col min="2" max="2" width="23.9907407407407" customWidth="1"/>
+    <col min="3" max="3" width="13.9259259259259" customWidth="1"/>
+    <col min="4" max="4" width="97.2407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3008,10 +3008,10 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3019,13 +3019,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3033,13 +3033,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3047,13 +3047,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3061,13 +3061,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3075,13 +3075,13 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3089,13 +3089,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3109,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3117,13 +3117,13 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3131,10 +3131,10 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
         <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
       </c>
       <c r="D36" t="s">
         <v>79</v>
@@ -3148,7 +3148,7 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -3502,7 +3502,7 @@
         <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
         <v>122</v>
@@ -3580,7 +3580,7 @@
         <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
         <v>128</v>
@@ -4202,7 +4202,7 @@
         <v>202</v>
       </c>
       <c r="C128" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D128" t="s">
         <v>203</v>
@@ -4498,7 +4498,7 @@
         <v>238</v>
       </c>
       <c r="C152" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D152" t="s">
         <v>239</v>
@@ -4512,7 +4512,7 @@
         <v>240</v>
       </c>
       <c r="C153" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D153" t="s">
         <v>241</v>
@@ -4540,7 +4540,7 @@
         <v>243</v>
       </c>
       <c r="C155" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D155" t="s">
         <v>244</v>
@@ -4624,7 +4624,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" ht="40.5" spans="1:4">
+    <row r="163" ht="43.2" spans="1:4">
       <c r="A163">
         <v>2</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>263</v>
       </c>
       <c r="C170" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D170" t="s">
         <v>264</v>
@@ -4744,7 +4744,7 @@
         <v>265</v>
       </c>
       <c r="C171" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D171" t="s">
         <v>266</v>
@@ -4836,7 +4836,7 @@
         <v>274</v>
       </c>
       <c r="C179" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D179" t="s">
         <v>275</v>
@@ -4920,7 +4920,7 @@
         <v>285</v>
       </c>
       <c r="C185" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D185" t="s">
         <v>286</v>
@@ -5336,7 +5336,7 @@
         <v>326</v>
       </c>
       <c r="C219" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D219" t="s">
         <v>327</v>
@@ -5364,7 +5364,7 @@
         <v>328</v>
       </c>
       <c r="C221" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D221" t="s">
         <v>329</v>
@@ -5568,7 +5568,7 @@
         <v>326</v>
       </c>
       <c r="C237" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D237" t="s">
         <v>342</v>
@@ -5652,7 +5652,7 @@
         <v>351</v>
       </c>
       <c r="C243" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D243" t="s">
         <v>352</v>
@@ -5772,7 +5772,7 @@
         <v>362</v>
       </c>
       <c r="C253" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D253" t="s">
         <v>363</v>
@@ -5786,7 +5786,7 @@
         <v>364</v>
       </c>
       <c r="C254" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D254" t="s">
         <v>365</v>
@@ -5800,7 +5800,7 @@
         <v>366</v>
       </c>
       <c r="C255" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D255" t="s">
         <v>367</v>
@@ -5814,7 +5814,7 @@
         <v>368</v>
       </c>
       <c r="C256" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D256" t="s">
         <v>369</v>
@@ -5828,7 +5828,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D257" t="s">
         <v>371</v>
@@ -5963,7 +5963,7 @@
         <v>384</v>
       </c>
       <c r="C268" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D268" t="s">
         <v>385</v>
@@ -6056,7 +6056,7 @@
         <v>391</v>
       </c>
       <c r="C276" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D276" t="s">
         <v>392</v>
@@ -6149,7 +6149,7 @@
         <v>399</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>400</v>
@@ -6163,7 +6163,7 @@
         <v>401</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>402</v>
@@ -6274,7 +6274,7 @@
         <v>409</v>
       </c>
       <c r="C294" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D294" t="s">
         <v>410</v>
@@ -6288,7 +6288,7 @@
         <v>411</v>
       </c>
       <c r="C295" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D295" t="s">
         <v>412</v>
@@ -6381,7 +6381,7 @@
         <v>417</v>
       </c>
       <c r="C303" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D303" t="s">
         <v>418</v>
@@ -6395,7 +6395,7 @@
         <v>419</v>
       </c>
       <c r="C304" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D304" t="s">
         <v>420</v>
@@ -6502,7 +6502,7 @@
         <v>430</v>
       </c>
       <c r="C313" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D313" s="7" t="s">
         <v>431</v>
@@ -6516,7 +6516,7 @@
         <v>432</v>
       </c>
       <c r="C314" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D314" s="7" t="s">
         <v>433</v>
@@ -6612,7 +6612,7 @@
         <v>441</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>442</v>
@@ -6654,7 +6654,7 @@
         <v>447</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D325" s="9" t="s">
         <v>448</v>
@@ -6682,7 +6682,7 @@
         <v>451</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>452</v>
@@ -6760,7 +6760,7 @@
         <v>458</v>
       </c>
       <c r="C334" s="9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>459</v>
@@ -6774,7 +6774,7 @@
         <v>460</v>
       </c>
       <c r="C335" s="9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>461</v>
@@ -6857,7 +6857,7 @@
         <v>467</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>468</v>
@@ -6885,7 +6885,7 @@
         <v>471</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>472</v>
@@ -7010,7 +7010,7 @@
         <v>484</v>
       </c>
       <c r="C354" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D354" t="s">
         <v>485</v>
@@ -7086,7 +7086,7 @@
         <v>493</v>
       </c>
       <c r="C361" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D361" t="s">
         <v>494</v>
@@ -7162,7 +7162,7 @@
         <v>502</v>
       </c>
       <c r="C368" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D368" t="s">
         <v>503</v>
@@ -7269,7 +7269,7 @@
         <v>513</v>
       </c>
       <c r="C377" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D377" t="s">
         <v>514</v>
@@ -7404,7 +7404,7 @@
         <v>528</v>
       </c>
       <c r="C388" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D388" t="s">
         <v>529</v>
@@ -7418,7 +7418,7 @@
         <v>530</v>
       </c>
       <c r="C389" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D389" t="s">
         <v>531</v>
@@ -7478,7 +7478,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7495,7 +7495,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="536">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>userIcon</t>
-  </si>
-  <si>
-    <t>用户头像，使用默认值</t>
   </si>
   <si>
     <t>userDes</t>
@@ -1630,18 +1627,31 @@
   <si>
     <t>工资发放创建时间</t>
   </si>
+  <si>
+    <t>用户头像，使用默认值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedStatus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识当前进度，如预约中，登记完，维修中或保养中,已完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识这条记录的当前进度，如登记完，维修中或保养中，待结算，已完成</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1670,350 +1680,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2021,254 +1707,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2278,9 +1722,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2297,65 +1738,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -2646,41 +2043,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D389"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.50925925925926" customWidth="1"/>
-    <col min="2" max="2" width="23.9907407407407" customWidth="1"/>
-    <col min="3" max="3" width="13.9259259259259" customWidth="1"/>
-    <col min="4" max="4" width="97.2407407407407" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="97.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2867,24 +2263,24 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3081,7 +2477,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3089,13 +2485,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3109,7 +2505,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3117,13 +2513,13 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3131,13 +2527,13 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3145,13 +2541,13 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
         <v>80</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3159,34 +2555,34 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3195,13 +2591,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
         <v>85</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3209,13 +2605,13 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3223,13 +2619,13 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3237,34 +2633,34 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
         <v>40</v>
       </c>
       <c r="D45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3273,13 +2669,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
         <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3287,13 +2683,13 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3301,13 +2697,13 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3315,34 +2711,34 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
       </c>
       <c r="D52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3351,13 +2747,13 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
         <v>103</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3365,13 +2761,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
         <v>105</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>106</v>
-      </c>
-      <c r="D57" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3379,13 +2775,13 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3393,13 +2789,13 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3407,13 +2803,13 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3421,34 +2817,34 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
         <v>40</v>
       </c>
       <c r="D61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="A64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3457,13 +2853,13 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
         <v>116</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3474,10 +2870,10 @@
         <v>43</v>
       </c>
       <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" t="s">
         <v>118</v>
-      </c>
-      <c r="D66" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3485,13 +2881,13 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3499,34 +2895,34 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
         <v>121</v>
       </c>
-      <c r="C68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3535,13 +2931,13 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
         <v>124</v>
-      </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3549,13 +2945,13 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3563,13 +2959,13 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3577,34 +2973,34 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
         <v>127</v>
       </c>
-      <c r="C75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="A78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3613,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
         <v>130</v>
-      </c>
-      <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3627,13 +3023,13 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3641,13 +3037,13 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3655,34 +3051,34 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
         <v>40</v>
       </c>
       <c r="D82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="A85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3691,13 +3087,13 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
         <v>139</v>
-      </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3705,13 +3101,13 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3719,13 +3115,13 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3733,13 +3129,13 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" t="s">
         <v>145</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>146</v>
-      </c>
-      <c r="D89" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3747,13 +3143,13 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s">
         <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3761,34 +3157,34 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s">
         <v>40</v>
       </c>
       <c r="D91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="A94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3797,13 +3193,13 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
         <v>153</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3811,13 +3207,13 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3825,13 +3221,13 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C97" t="s">
         <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3839,13 +3235,13 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3853,34 +3249,34 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C99" t="s">
         <v>40</v>
       </c>
       <c r="D99" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="A102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3889,13 +3285,13 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
         <v>163</v>
-      </c>
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3903,13 +3299,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" t="s">
         <v>165</v>
-      </c>
-      <c r="C104" t="s">
-        <v>146</v>
-      </c>
-      <c r="D104" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3917,13 +3313,13 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
         <v>37</v>
       </c>
       <c r="D105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3931,34 +3327,34 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C106" t="s">
         <v>40</v>
       </c>
       <c r="D106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="A109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3967,13 +3363,13 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
         <v>172</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3981,13 +3377,13 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3995,13 +3391,13 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s">
         <v>37</v>
       </c>
       <c r="D112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4015,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4023,34 +3419,34 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C114" t="s">
         <v>40</v>
       </c>
       <c r="D114" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="9" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="3" t="s">
+      <c r="A117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4059,13 +3455,13 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
         <v>182</v>
-      </c>
-      <c r="C118" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4073,13 +3469,13 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4087,13 +3483,13 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4101,13 +3497,13 @@
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C121" t="s">
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4115,13 +3511,13 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4129,13 +3525,13 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
+        <v>191</v>
+      </c>
+      <c r="C123" t="s">
+        <v>105</v>
+      </c>
+      <c r="D123" t="s">
         <v>192</v>
-      </c>
-      <c r="C123" t="s">
-        <v>106</v>
-      </c>
-      <c r="D123" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4143,13 +3539,13 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4157,13 +3553,13 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
       </c>
       <c r="D125" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4171,13 +3567,13 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4185,13 +3581,13 @@
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4199,13 +3595,13 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
+        <v>201</v>
+      </c>
+      <c r="C128" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" t="s">
         <v>202</v>
-      </c>
-      <c r="C128" t="s">
-        <v>78</v>
-      </c>
-      <c r="D128" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4213,13 +3609,13 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4233,7 +3629,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4241,34 +3637,34 @@
         <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C131" t="s">
         <v>40</v>
       </c>
       <c r="D131" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="9" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="3" t="s">
+      <c r="A134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4277,13 +3673,13 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
+        <v>208</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
         <v>209</v>
-      </c>
-      <c r="C135" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4291,13 +3687,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4305,13 +3701,13 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C137" t="s">
         <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4325,7 +3721,7 @@
         <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4333,34 +3729,34 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C139" t="s">
         <v>40</v>
       </c>
       <c r="D139" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="9" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="3" t="s">
+      <c r="A142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4369,13 +3765,13 @@
         <v>1</v>
       </c>
       <c r="B143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
         <v>219</v>
-      </c>
-      <c r="C143" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4383,13 +3779,13 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4397,13 +3793,13 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4411,13 +3807,13 @@
         <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C146" t="s">
         <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4425,13 +3821,13 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C147" t="s">
         <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4439,13 +3835,13 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C148" t="s">
         <v>32</v>
       </c>
       <c r="D148" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4453,13 +3849,13 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" t="s">
+        <v>145</v>
+      </c>
+      <c r="D149" t="s">
         <v>231</v>
-      </c>
-      <c r="C149" t="s">
-        <v>146</v>
-      </c>
-      <c r="D149" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4467,13 +3863,13 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
+        <v>232</v>
+      </c>
+      <c r="C150" t="s">
         <v>233</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>234</v>
-      </c>
-      <c r="D150" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4481,13 +3877,13 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
+        <v>235</v>
+      </c>
+      <c r="C151" t="s">
+        <v>233</v>
+      </c>
+      <c r="D151" t="s">
         <v>236</v>
-      </c>
-      <c r="C151" t="s">
-        <v>234</v>
-      </c>
-      <c r="D151" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4495,13 +3891,13 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
+        <v>237</v>
+      </c>
+      <c r="C152" t="s">
+        <v>77</v>
+      </c>
+      <c r="D152" t="s">
         <v>238</v>
-      </c>
-      <c r="C152" t="s">
-        <v>78</v>
-      </c>
-      <c r="D152" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4509,13 +3905,13 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
+        <v>239</v>
+      </c>
+      <c r="C153" t="s">
+        <v>77</v>
+      </c>
+      <c r="D153" t="s">
         <v>240</v>
-      </c>
-      <c r="C153" t="s">
-        <v>78</v>
-      </c>
-      <c r="D153" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4523,13 +3919,13 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4537,13 +3933,13 @@
         <v>13</v>
       </c>
       <c r="B155" t="s">
+        <v>242</v>
+      </c>
+      <c r="C155" t="s">
+        <v>77</v>
+      </c>
+      <c r="D155" t="s">
         <v>243</v>
-      </c>
-      <c r="C155" t="s">
-        <v>78</v>
-      </c>
-      <c r="D155" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4551,13 +3947,13 @@
         <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4571,7 +3967,7 @@
         <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4579,34 +3975,34 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C158" t="s">
         <v>40</v>
       </c>
       <c r="D158" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="9" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="3" t="s">
+      <c r="A161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4615,27 +4011,27 @@
         <v>1</v>
       </c>
       <c r="B162" t="s">
+        <v>249</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
         <v>250</v>
       </c>
-      <c r="C162" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" t="s">
+    </row>
+    <row r="163" spans="1:4" ht="40.5">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
+        <v>218</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="163" ht="43.2" spans="1:4">
-      <c r="A163">
-        <v>2</v>
-      </c>
-      <c r="B163" t="s">
-        <v>219</v>
-      </c>
-      <c r="C163" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4643,13 +4039,13 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
+        <v>230</v>
+      </c>
+      <c r="C164" t="s">
+        <v>145</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C164" t="s">
-        <v>146</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4657,13 +4053,13 @@
         <v>4</v>
       </c>
       <c r="B165" t="s">
+        <v>252</v>
+      </c>
+      <c r="C165" t="s">
+        <v>233</v>
+      </c>
+      <c r="D165" t="s">
         <v>253</v>
-      </c>
-      <c r="C165" t="s">
-        <v>234</v>
-      </c>
-      <c r="D165" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4671,13 +4067,13 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C166" t="s">
         <v>32</v>
       </c>
       <c r="D166" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4685,13 +4081,13 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C167" t="s">
         <v>32</v>
       </c>
       <c r="D167" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4699,13 +4095,13 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C168" t="s">
         <v>32</v>
       </c>
       <c r="D168" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4713,13 +4109,13 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C169" t="s">
         <v>32</v>
       </c>
       <c r="D169" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4727,13 +4123,13 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
+        <v>262</v>
+      </c>
+      <c r="C170" t="s">
+        <v>77</v>
+      </c>
+      <c r="D170" t="s">
         <v>263</v>
-      </c>
-      <c r="C170" t="s">
-        <v>78</v>
-      </c>
-      <c r="D170" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4741,13 +4137,13 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
+        <v>264</v>
+      </c>
+      <c r="C171" t="s">
+        <v>77</v>
+      </c>
+      <c r="D171" t="s">
         <v>265</v>
-      </c>
-      <c r="C171" t="s">
-        <v>78</v>
-      </c>
-      <c r="D171" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4761,7 +4157,7 @@
         <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4769,34 +4165,34 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C173" t="s">
         <v>40</v>
       </c>
       <c r="D173" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="9" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="A176" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4805,13 +4201,13 @@
         <v>1</v>
       </c>
       <c r="B177" t="s">
+        <v>270</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
         <v>271</v>
-      </c>
-      <c r="C177" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4819,13 +4215,13 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4833,13 +4229,13 @@
         <v>3</v>
       </c>
       <c r="B179" t="s">
+        <v>273</v>
+      </c>
+      <c r="C179" t="s">
+        <v>77</v>
+      </c>
+      <c r="D179" t="s">
         <v>274</v>
-      </c>
-      <c r="C179" t="s">
-        <v>78</v>
-      </c>
-      <c r="D179" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4847,13 +4243,13 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
+        <v>275</v>
+      </c>
+      <c r="C180" t="s">
+        <v>233</v>
+      </c>
+      <c r="D180" t="s">
         <v>276</v>
-      </c>
-      <c r="C180" t="s">
-        <v>234</v>
-      </c>
-      <c r="D180" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4861,13 +4257,13 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C181" t="s">
         <v>32</v>
       </c>
       <c r="D181" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4875,13 +4271,13 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C182" t="s">
         <v>32</v>
       </c>
       <c r="D182" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4889,13 +4285,13 @@
         <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C183" t="s">
         <v>32</v>
       </c>
       <c r="D183" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4903,13 +4299,13 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C184" t="s">
         <v>32</v>
       </c>
       <c r="D184" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4917,13 +4313,13 @@
         <v>9</v>
       </c>
       <c r="B185" t="s">
+        <v>284</v>
+      </c>
+      <c r="C185" t="s">
+        <v>77</v>
+      </c>
+      <c r="D185" t="s">
         <v>285</v>
-      </c>
-      <c r="C185" t="s">
-        <v>78</v>
-      </c>
-      <c r="D185" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4937,7 +4333,7 @@
         <v>6</v>
       </c>
       <c r="D186" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4945,34 +4341,34 @@
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C187" t="s">
         <v>40</v>
       </c>
       <c r="D187" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="9" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D190" s="3" t="s">
+      <c r="A190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4981,13 +4377,13 @@
         <v>1</v>
       </c>
       <c r="B191" t="s">
+        <v>290</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
         <v>291</v>
-      </c>
-      <c r="C191" t="s">
-        <v>6</v>
-      </c>
-      <c r="D191" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4995,13 +4391,13 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
       </c>
       <c r="D192" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5009,13 +4405,13 @@
         <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C193" t="s">
         <v>32</v>
       </c>
       <c r="D193" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5023,13 +4419,13 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C194" t="s">
         <v>32</v>
       </c>
       <c r="D194" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5037,13 +4433,13 @@
         <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C195" t="s">
         <v>32</v>
       </c>
       <c r="D195" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5051,13 +4447,13 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C196" t="s">
         <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5065,13 +4461,13 @@
         <v>7</v>
       </c>
       <c r="B197" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C197" t="s">
         <v>37</v>
       </c>
       <c r="D197" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5085,7 +4481,7 @@
         <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5093,34 +4489,34 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C199" t="s">
         <v>40</v>
       </c>
       <c r="D199" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="9" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
+      <c r="B201" s="9"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D202" s="3" t="s">
+      <c r="A202" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5129,13 +4525,13 @@
         <v>1</v>
       </c>
       <c r="B203" t="s">
+        <v>308</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
         <v>309</v>
-      </c>
-      <c r="C203" t="s">
-        <v>6</v>
-      </c>
-      <c r="D203" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5143,13 +4539,13 @@
         <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5157,13 +4553,13 @@
         <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5171,34 +4567,34 @@
         <v>4</v>
       </c>
       <c r="B206" t="s">
+        <v>311</v>
+      </c>
+      <c r="C206" t="s">
+        <v>233</v>
+      </c>
+      <c r="D206" t="s">
         <v>312</v>
       </c>
-      <c r="C206" t="s">
-        <v>234</v>
-      </c>
-      <c r="D206" t="s">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="9" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D209" s="3" t="s">
+      <c r="A209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5207,13 +4603,13 @@
         <v>1</v>
       </c>
       <c r="B210" t="s">
+        <v>314</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
         <v>315</v>
-      </c>
-      <c r="C210" t="s">
-        <v>6</v>
-      </c>
-      <c r="D210" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5227,7 +4623,7 @@
         <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5241,7 +4637,7 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5255,7 +4651,7 @@
         <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5263,13 +4659,13 @@
         <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
       </c>
       <c r="D214" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5277,13 +4673,13 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5291,13 +4687,13 @@
         <v>7</v>
       </c>
       <c r="B216" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
       </c>
       <c r="D216" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5305,13 +4701,13 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5319,13 +4715,13 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C218" t="s">
         <v>18</v>
       </c>
       <c r="D218" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5333,13 +4729,13 @@
         <v>10</v>
       </c>
       <c r="B219" t="s">
+        <v>325</v>
+      </c>
+      <c r="C219" t="s">
+        <v>77</v>
+      </c>
+      <c r="D219" t="s">
         <v>326</v>
-      </c>
-      <c r="C219" t="s">
-        <v>78</v>
-      </c>
-      <c r="D219" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5347,13 +4743,13 @@
         <v>11</v>
       </c>
       <c r="B220" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C220" t="s">
         <v>18</v>
       </c>
       <c r="D220" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5361,13 +4757,13 @@
         <v>12</v>
       </c>
       <c r="B221" t="s">
+        <v>327</v>
+      </c>
+      <c r="C221" t="s">
+        <v>77</v>
+      </c>
+      <c r="D221" t="s">
         <v>328</v>
-      </c>
-      <c r="C221" t="s">
-        <v>78</v>
-      </c>
-      <c r="D221" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5381,7 +4777,7 @@
         <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5389,2116 +4785,2129 @@
         <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C223" t="s">
         <v>40</v>
       </c>
       <c r="D223" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>15</v>
+      </c>
+      <c r="B224" t="s">
+        <v>532</v>
+      </c>
+      <c r="C224" t="s">
+        <v>533</v>
+      </c>
+      <c r="D224" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="9" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D226" s="3" t="s">
+      <c r="B226" s="9"/>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227">
-        <v>1</v>
-      </c>
-      <c r="B227" t="s">
-        <v>334</v>
-      </c>
-      <c r="C227" t="s">
-        <v>6</v>
-      </c>
-      <c r="D227" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>56</v>
+        <v>314</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D230" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C231" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B232" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D232" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
       </c>
       <c r="D233" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B234" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
       </c>
       <c r="D234" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
       </c>
       <c r="D235" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="C236" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D236" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B237" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C237" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D237" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B238" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C238" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D238" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B239" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C239" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D239" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B240" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C240" t="s">
         <v>37</v>
       </c>
       <c r="D240" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B241" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C241" t="s">
         <v>37</v>
       </c>
       <c r="D241" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B242" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="C242" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D242" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B243" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="C243" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D243" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D244" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B245" t="s">
-        <v>353</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D245" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B246" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C246" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D246" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
+        <v>20</v>
+      </c>
+      <c r="B247" t="s">
+        <v>354</v>
+      </c>
+      <c r="C247" t="s">
+        <v>32</v>
+      </c>
+      <c r="D247" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
         <v>21</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
+        <v>355</v>
+      </c>
+      <c r="C248" t="s">
+        <v>40</v>
+      </c>
+      <c r="D248" t="s">
         <v>356</v>
       </c>
-      <c r="C247" t="s">
-        <v>40</v>
-      </c>
-      <c r="D247" t="s">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="9" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D250" s="3" t="s">
+      <c r="B250" s="9"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251">
-        <v>1</v>
-      </c>
-      <c r="B251" t="s">
-        <v>359</v>
-      </c>
-      <c r="C251" t="s">
-        <v>6</v>
-      </c>
-      <c r="D251" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B252" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
       </c>
       <c r="D252" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="C253" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C254" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D254" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C255" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D255" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B256" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C256" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D256" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
+        <v>6</v>
+      </c>
+      <c r="B257" t="s">
+        <v>367</v>
+      </c>
+      <c r="C257" t="s">
+        <v>77</v>
+      </c>
+      <c r="D257" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
         <v>7</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
+        <v>369</v>
+      </c>
+      <c r="C258" t="s">
+        <v>77</v>
+      </c>
+      <c r="D258" t="s">
         <v>370</v>
       </c>
-      <c r="C257" t="s">
-        <v>78</v>
-      </c>
-      <c r="D257" t="s">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>8</v>
+      </c>
+      <c r="B259" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="258" customFormat="1" spans="1:4">
-      <c r="A258">
-        <v>8</v>
-      </c>
-      <c r="B258" t="s">
+      <c r="C259" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" t="s">
         <v>372</v>
       </c>
-      <c r="C258" t="s">
-        <v>37</v>
-      </c>
-      <c r="D258" t="s">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>9</v>
+      </c>
+      <c r="B260" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="259" customFormat="1" spans="1:4">
-      <c r="A259">
-        <v>9</v>
-      </c>
-      <c r="B259" t="s">
+      <c r="C260" t="s">
+        <v>40</v>
+      </c>
+      <c r="D260" t="s">
         <v>374</v>
       </c>
-      <c r="C259" t="s">
-        <v>40</v>
-      </c>
-      <c r="D259" t="s">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>10</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="260" customFormat="1" spans="1:4">
-      <c r="A260">
-        <v>10</v>
-      </c>
-      <c r="B260" t="s">
-        <v>5</v>
-      </c>
-      <c r="C260" t="s">
-        <v>6</v>
-      </c>
-      <c r="D260" t="s">
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>11</v>
+      </c>
+      <c r="B262" t="s">
+        <v>532</v>
+      </c>
+      <c r="C262" t="s">
+        <v>533</v>
+      </c>
+      <c r="D262" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="9" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="261" customFormat="1"/>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D263" s="3" t="s">
+      <c r="B264" s="9"/>
+      <c r="C264" s="9"/>
+      <c r="D264" s="9"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264">
-        <v>1</v>
-      </c>
-      <c r="B264" t="s">
-        <v>378</v>
-      </c>
-      <c r="C264" t="s">
-        <v>6</v>
-      </c>
-      <c r="D264" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265">
-        <v>2</v>
-      </c>
-      <c r="B265" t="s">
-        <v>359</v>
-      </c>
-      <c r="C265" t="s">
-        <v>6</v>
-      </c>
-      <c r="D265" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
       </c>
       <c r="D266" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>2</v>
+      </c>
+      <c r="B267" t="s">
+        <v>358</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>290</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>4</v>
+      </c>
+      <c r="B269" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="267" customFormat="1" spans="1:4">
-      <c r="A267">
+      <c r="C269" t="s">
+        <v>32</v>
+      </c>
+      <c r="D269" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>5</v>
+      </c>
+      <c r="B270" t="s">
+        <v>383</v>
+      </c>
+      <c r="C270" t="s">
+        <v>77</v>
+      </c>
+      <c r="D270" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B272" s="9"/>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B267" t="s">
-        <v>382</v>
-      </c>
-      <c r="C267" t="s">
-        <v>32</v>
-      </c>
-      <c r="D267" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="268" customFormat="1" spans="1:4">
-      <c r="A268">
-        <v>5</v>
-      </c>
-      <c r="B268" t="s">
-        <v>384</v>
-      </c>
-      <c r="C268" t="s">
-        <v>78</v>
-      </c>
-      <c r="D268" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="269" customFormat="1"/>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272">
-        <v>1</v>
-      </c>
-      <c r="B272" t="s">
-        <v>387</v>
-      </c>
-      <c r="C272" t="s">
-        <v>6</v>
-      </c>
-      <c r="D272" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273">
-        <v>2</v>
-      </c>
-      <c r="B273" t="s">
-        <v>359</v>
-      </c>
-      <c r="C273" t="s">
-        <v>6</v>
-      </c>
-      <c r="D273" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B274" t="s">
-        <v>219</v>
+        <v>386</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
       </c>
       <c r="D274" t="s">
-        <v>273</v>
+        <v>387</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B275" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="C275" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="D275" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B276" t="s">
-        <v>391</v>
+        <v>218</v>
       </c>
       <c r="C276" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D276" t="s">
-        <v>392</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B277" t="s">
+        <v>388</v>
+      </c>
+      <c r="C277" t="s">
+        <v>233</v>
+      </c>
+      <c r="D277" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>5</v>
+      </c>
+      <c r="B278" t="s">
+        <v>390</v>
+      </c>
+      <c r="C278" t="s">
+        <v>77</v>
+      </c>
+      <c r="D278" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>6</v>
+      </c>
+      <c r="B279" t="s">
+        <v>392</v>
+      </c>
+      <c r="C279" t="s">
+        <v>40</v>
+      </c>
+      <c r="D279" t="s">
         <v>393</v>
       </c>
-      <c r="C277" t="s">
-        <v>40</v>
-      </c>
-      <c r="D277" t="s">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="9" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="278" customFormat="1"/>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D280" s="3" t="s">
+      <c r="B281" s="9"/>
+      <c r="C281" s="9"/>
+      <c r="D281" s="9"/>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281">
-        <v>1</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282">
-        <v>2</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>3</v>
-      </c>
-      <c r="B283" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>2</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>3</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C283" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D283" s="5" t="s">
+      <c r="C285" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>4</v>
+      </c>
+      <c r="B286" s="4" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="284" customFormat="1" spans="1:4">
-      <c r="A284">
+      <c r="C286" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>5</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>6</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B290" s="9"/>
+      <c r="C290" s="9"/>
+      <c r="D290" s="9"/>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D291" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="285" customFormat="1" spans="1:4">
-      <c r="A285">
-        <v>5</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="286" customFormat="1" spans="1:4">
-      <c r="A286">
-        <v>6</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="287" customFormat="1" spans="2:4">
-      <c r="B287" s="5"/>
-      <c r="C287" s="5"/>
-      <c r="D287" s="5"/>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290">
-        <v>1</v>
-      </c>
-      <c r="B290" t="s">
-        <v>406</v>
-      </c>
-      <c r="C290" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291">
-        <v>2</v>
-      </c>
-      <c r="B291" t="s">
-        <v>359</v>
-      </c>
-      <c r="C291" t="s">
-        <v>6</v>
-      </c>
-      <c r="D291" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>219</v>
+        <v>405</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
       </c>
       <c r="D292" t="s">
-        <v>273</v>
+        <v>406</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B293" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="C293" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="D293" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B294" t="s">
-        <v>409</v>
+        <v>218</v>
       </c>
       <c r="C294" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>410</v>
+        <v>272</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B295" t="s">
+        <v>311</v>
+      </c>
+      <c r="C295" t="s">
+        <v>233</v>
+      </c>
+      <c r="D295" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>5</v>
+      </c>
+      <c r="B296" t="s">
+        <v>408</v>
+      </c>
+      <c r="C296" t="s">
+        <v>77</v>
+      </c>
+      <c r="D296" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>6</v>
+      </c>
+      <c r="B297" t="s">
+        <v>410</v>
+      </c>
+      <c r="C297" t="s">
+        <v>77</v>
+      </c>
+      <c r="D297" t="s">
         <v>411</v>
       </c>
-      <c r="C295" t="s">
-        <v>78</v>
-      </c>
-      <c r="D295" t="s">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="9" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="296" customFormat="1"/>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D298" s="3" t="s">
+      <c r="B299" s="9"/>
+      <c r="C299" s="9"/>
+      <c r="D299" s="9"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D300" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299">
-        <v>1</v>
-      </c>
-      <c r="B299" t="s">
-        <v>414</v>
-      </c>
-      <c r="C299" t="s">
-        <v>6</v>
-      </c>
-      <c r="D299" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300">
-        <v>2</v>
-      </c>
-      <c r="B300" t="s">
-        <v>359</v>
-      </c>
-      <c r="C300" t="s">
-        <v>6</v>
-      </c>
-      <c r="D300" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B301" t="s">
-        <v>219</v>
+        <v>413</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
       </c>
       <c r="D301" t="s">
-        <v>273</v>
+        <v>414</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B302" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="C302" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="D302" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
+        <v>3</v>
+      </c>
+      <c r="B303" t="s">
+        <v>218</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>4</v>
+      </c>
+      <c r="B304" t="s">
+        <v>311</v>
+      </c>
+      <c r="C304" t="s">
+        <v>233</v>
+      </c>
+      <c r="D304" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
         <v>5</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B305" t="s">
+        <v>416</v>
+      </c>
+      <c r="C305" t="s">
+        <v>77</v>
+      </c>
+      <c r="D305" t="s">
         <v>417</v>
       </c>
-      <c r="C303" t="s">
-        <v>78</v>
-      </c>
-      <c r="D303" t="s">
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>6</v>
+      </c>
+      <c r="B306" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="304" customFormat="1" spans="1:4">
-      <c r="A304">
-        <v>6</v>
-      </c>
-      <c r="B304" t="s">
+      <c r="C306" t="s">
+        <v>77</v>
+      </c>
+      <c r="D306" t="s">
         <v>419</v>
       </c>
-      <c r="C304" t="s">
-        <v>78</v>
-      </c>
-      <c r="D304" t="s">
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="9" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="305" customFormat="1"/>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2" t="s">
+      <c r="B308" s="9"/>
+      <c r="C308" s="9"/>
+      <c r="D308" s="9"/>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>1</v>
+      </c>
+      <c r="B310" t="s">
         <v>421</v>
       </c>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308">
-        <v>1</v>
-      </c>
-      <c r="B308" t="s">
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="s">
         <v>422</v>
       </c>
-      <c r="C308" t="s">
-        <v>6</v>
-      </c>
-      <c r="D308" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309">
-        <v>2</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C309" t="s">
-        <v>6</v>
-      </c>
-      <c r="D309" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="310" customFormat="1" spans="1:4">
-      <c r="A310">
-        <v>3</v>
-      </c>
-      <c r="B310" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C310" t="s">
-        <v>32</v>
-      </c>
-      <c r="D310" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="311" customFormat="1" spans="1:4">
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311">
-        <v>4</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>426</v>
+        <v>2</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="C311" t="s">
-        <v>18</v>
-      </c>
-      <c r="D311" s="7" t="s">
-        <v>427</v>
+        <v>6</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>5</v>
-      </c>
-      <c r="B312" s="7" t="s">
-        <v>428</v>
+        <v>3</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="C312" t="s">
         <v>32</v>
       </c>
-      <c r="D312" s="7" t="s">
-        <v>429</v>
+      <c r="D312" s="6" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>6</v>
-      </c>
-      <c r="B313" s="7" t="s">
-        <v>430</v>
+        <v>4</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="C313" t="s">
-        <v>78</v>
-      </c>
-      <c r="D313" s="7" t="s">
-        <v>431</v>
+        <v>18</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>7</v>
-      </c>
-      <c r="B314" s="7" t="s">
-        <v>432</v>
+        <v>5</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="C314" t="s">
-        <v>78</v>
-      </c>
-      <c r="D314" s="7" t="s">
-        <v>433</v>
+        <v>32</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
+        <v>6</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C315" t="s">
+        <v>77</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>7</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C316" t="s">
+        <v>77</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
         <v>8</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B317" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C317" t="s">
+        <v>37</v>
+      </c>
+      <c r="D317" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C315" t="s">
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>9</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C318" t="s">
+        <v>40</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="B319" s="6"/>
+      <c r="D319" s="6"/>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B320" s="9"/>
+      <c r="C320" s="9"/>
+      <c r="D320" s="9"/>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>3</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D324" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>4</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D325" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>5</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C326" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D315" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="316" customFormat="1" spans="1:4">
-      <c r="A316">
-        <v>9</v>
-      </c>
-      <c r="B316" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C316" t="s">
-        <v>40</v>
-      </c>
-      <c r="D316" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="317" customFormat="1" spans="2:4">
-      <c r="B317" s="7"/>
-      <c r="D317" s="7"/>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D319" s="3" t="s">
+      <c r="D326" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>6</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>7</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>8</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B331" s="9"/>
+      <c r="C331" s="9"/>
+      <c r="D331" s="9"/>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D332" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320">
-        <v>1</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C320" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D320" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="321" customFormat="1" spans="1:4">
-      <c r="A321">
-        <v>2</v>
-      </c>
-      <c r="B321" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C321" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D321" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="322" customFormat="1" spans="1:4">
-      <c r="A322">
-        <v>3</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C322" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D322" s="9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="323" customFormat="1" spans="1:4">
-      <c r="A323">
-        <v>4</v>
-      </c>
-      <c r="B323" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D323" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="324" customFormat="1" spans="1:4">
-      <c r="A324">
-        <v>5</v>
-      </c>
-      <c r="B324" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C324" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D324" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="325" customFormat="1" spans="1:4">
-      <c r="A325">
-        <v>6</v>
-      </c>
-      <c r="B325" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C325" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D325" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="326" customFormat="1" spans="1:4">
-      <c r="A326">
-        <v>7</v>
-      </c>
-      <c r="B326" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D326" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="327" customFormat="1" spans="1:4">
-      <c r="A327">
-        <v>8</v>
-      </c>
-      <c r="B327" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C327" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D327" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4">
-      <c r="A331">
-        <v>1</v>
-      </c>
-      <c r="B331" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D331" s="9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="A332">
-        <v>2</v>
-      </c>
-      <c r="B332" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C332" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D332" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>3</v>
-      </c>
-      <c r="B333" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C333" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D333" s="9" t="s">
-        <v>457</v>
+        <v>1</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
+        <v>2</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335">
+        <v>3</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D335" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336">
         <v>4</v>
       </c>
-      <c r="B334" s="9" t="s">
+      <c r="B336" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C336" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D336" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C334" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D334" s="9" t="s">
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337">
+        <v>5</v>
+      </c>
+      <c r="B337" s="8" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="335" customFormat="1" spans="1:4">
-      <c r="A335">
-        <v>5</v>
-      </c>
-      <c r="B335" s="9" t="s">
+      <c r="C337" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D337" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C335" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D335" s="9" t="s">
+    </row>
+    <row r="338" spans="1:4">
+      <c r="B338" s="8"/>
+      <c r="C338" s="8"/>
+      <c r="D338" s="8"/>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="9" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="336" customFormat="1" spans="2:4">
-      <c r="B336" s="9"/>
-      <c r="C336" s="9"/>
-      <c r="D336" s="9"/>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
-    </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D338" s="3" t="s">
+      <c r="B339" s="9"/>
+      <c r="C339" s="9"/>
+      <c r="D339" s="9"/>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D340" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
-      <c r="A339">
-        <v>1</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C339" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D339" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4">
-      <c r="A340">
-        <v>2</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D340" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>3</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D341" s="5" t="s">
-        <v>466</v>
+        <v>1</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
+        <v>2</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343">
+        <v>3</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344">
         <v>4</v>
       </c>
-      <c r="B342" s="5" t="s">
+      <c r="B344" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D344" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C342" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D342" s="5" t="s">
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345">
+        <v>5</v>
+      </c>
+      <c r="B345" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="343" customFormat="1" spans="1:4">
-      <c r="A343">
-        <v>5</v>
-      </c>
-      <c r="B343" s="5" t="s">
+      <c r="C345" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D345" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C343" s="5" t="s">
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346">
+        <v>6</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347">
+        <v>7</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="B348" s="4"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B349" s="9"/>
+      <c r="C349" s="9"/>
+      <c r="D349" s="9"/>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352">
+        <v>2</v>
+      </c>
+      <c r="B352" t="s">
+        <v>43</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353">
+        <v>3</v>
+      </c>
+      <c r="B353" t="s">
+        <v>477</v>
+      </c>
+      <c r="C353" t="s">
         <v>37</v>
       </c>
-      <c r="D343" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="344" customFormat="1" spans="1:4">
-      <c r="A344">
-        <v>6</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C344" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D344" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="345" customFormat="1" spans="1:4">
-      <c r="A345">
-        <v>7</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D345" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="346" customFormat="1" spans="2:4">
-      <c r="B346" s="5"/>
-      <c r="C346" s="5"/>
-      <c r="D346" s="5"/>
-    </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
-      <c r="A349">
-        <v>1</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D349" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="350" customFormat="1" spans="1:4">
-      <c r="A350">
-        <v>2</v>
-      </c>
-      <c r="B350" t="s">
-        <v>43</v>
-      </c>
-      <c r="C350" t="s">
-        <v>6</v>
-      </c>
-      <c r="D350" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="351" customFormat="1" spans="1:4">
-      <c r="A351">
-        <v>3</v>
-      </c>
-      <c r="B351" t="s">
+      <c r="D353" t="s">
         <v>478</v>
-      </c>
-      <c r="C351" t="s">
-        <v>37</v>
-      </c>
-      <c r="D351" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="352" customFormat="1" spans="1:4">
-      <c r="A352">
-        <v>4</v>
-      </c>
-      <c r="B352" t="s">
-        <v>480</v>
-      </c>
-      <c r="C352" t="s">
-        <v>234</v>
-      </c>
-      <c r="D352" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="353" customFormat="1" spans="1:4">
-      <c r="A353">
-        <v>5</v>
-      </c>
-      <c r="B353" t="s">
-        <v>482</v>
-      </c>
-      <c r="C353" t="s">
-        <v>6</v>
-      </c>
-      <c r="D353" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B354" t="s">
+        <v>479</v>
+      </c>
+      <c r="C354" t="s">
+        <v>233</v>
+      </c>
+      <c r="D354" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355">
+        <v>5</v>
+      </c>
+      <c r="B355" t="s">
+        <v>481</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356">
+        <v>6</v>
+      </c>
+      <c r="B356" t="s">
+        <v>483</v>
+      </c>
+      <c r="C356" t="s">
+        <v>77</v>
+      </c>
+      <c r="D356" t="s">
         <v>484</v>
       </c>
-      <c r="C354" t="s">
-        <v>78</v>
-      </c>
-      <c r="D354" t="s">
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="9" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="355" customFormat="1"/>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2" t="s">
+      <c r="B358" s="9"/>
+      <c r="C358" s="9"/>
+      <c r="D358" s="9"/>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360" t="s">
         <v>486</v>
       </c>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-    </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D357" s="3" t="s">
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361">
+        <v>2</v>
+      </c>
+      <c r="B361" t="s">
+        <v>488</v>
+      </c>
+      <c r="C361" t="s">
+        <v>18</v>
+      </c>
+      <c r="D361" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362">
+        <v>3</v>
+      </c>
+      <c r="B362" t="s">
+        <v>490</v>
+      </c>
+      <c r="C362" t="s">
+        <v>40</v>
+      </c>
+      <c r="D362" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="B363" t="s">
+        <v>492</v>
+      </c>
+      <c r="C363" t="s">
+        <v>77</v>
+      </c>
+      <c r="D363" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B365" s="9"/>
+      <c r="C365" s="9"/>
+      <c r="D365" s="9"/>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D366" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358">
-        <v>1</v>
-      </c>
-      <c r="B358" t="s">
-        <v>487</v>
-      </c>
-      <c r="C358" t="s">
-        <v>6</v>
-      </c>
-      <c r="D358" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4">
-      <c r="A359">
-        <v>2</v>
-      </c>
-      <c r="B359" t="s">
-        <v>489</v>
-      </c>
-      <c r="C359" t="s">
+    <row r="367" spans="1:4">
+      <c r="A367">
+        <v>1</v>
+      </c>
+      <c r="B367" t="s">
+        <v>495</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368">
+        <v>2</v>
+      </c>
+      <c r="B368" t="s">
+        <v>497</v>
+      </c>
+      <c r="C368" t="s">
         <v>18</v>
       </c>
-      <c r="D359" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="360" customFormat="1" spans="1:4">
-      <c r="A360">
-        <v>3</v>
-      </c>
-      <c r="B360" t="s">
-        <v>491</v>
-      </c>
-      <c r="C360" t="s">
+      <c r="D368" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369">
+        <v>3</v>
+      </c>
+      <c r="B369" t="s">
+        <v>499</v>
+      </c>
+      <c r="C369" t="s">
         <v>40</v>
       </c>
-      <c r="D360" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="361" customFormat="1" spans="2:4">
-      <c r="B361" t="s">
-        <v>493</v>
-      </c>
-      <c r="C361" t="s">
-        <v>78</v>
-      </c>
-      <c r="D361" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="362" customFormat="1"/>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2" t="s">
+      <c r="D369" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="B370" t="s">
+        <v>501</v>
+      </c>
+      <c r="C370" t="s">
+        <v>77</v>
+      </c>
+      <c r="D370" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B372" s="9"/>
+      <c r="C372" s="9"/>
+      <c r="D372" s="9"/>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" s="1" customFormat="1">
+      <c r="A374" s="1">
+        <v>1</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" s="1" customFormat="1">
+      <c r="A375" s="1">
+        <v>2</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D364" s="3" t="s">
+      <c r="C375" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>3</v>
+      </c>
+      <c r="B376" t="s">
+        <v>486</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:4">
-      <c r="A365">
-        <v>1</v>
-      </c>
-      <c r="B365" t="s">
-        <v>496</v>
-      </c>
-      <c r="C365" t="s">
-        <v>6</v>
-      </c>
-      <c r="D365" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4">
-      <c r="A366">
-        <v>2</v>
-      </c>
-      <c r="B366" t="s">
-        <v>498</v>
-      </c>
-      <c r="C366" t="s">
-        <v>18</v>
-      </c>
-      <c r="D366" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="367" customFormat="1" spans="1:4">
-      <c r="A367">
-        <v>3</v>
-      </c>
-      <c r="B367" t="s">
-        <v>500</v>
-      </c>
-      <c r="C367" t="s">
+      <c r="B377" t="s">
+        <v>508</v>
+      </c>
+      <c r="C377" t="s">
+        <v>32</v>
+      </c>
+      <c r="D377" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>5</v>
+      </c>
+      <c r="B378" t="s">
+        <v>510</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>6</v>
+      </c>
+      <c r="B379" t="s">
+        <v>512</v>
+      </c>
+      <c r="C379" t="s">
+        <v>77</v>
+      </c>
+      <c r="D379" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>7</v>
+      </c>
+      <c r="B380" t="s">
+        <v>514</v>
+      </c>
+      <c r="C380" t="s">
         <v>40</v>
       </c>
-      <c r="D367" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="368" customFormat="1" spans="2:4">
-      <c r="B368" t="s">
-        <v>502</v>
-      </c>
-      <c r="C368" t="s">
-        <v>78</v>
-      </c>
-      <c r="D368" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="369" customFormat="1"/>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D371" s="3" t="s">
+      <c r="D380" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B382" s="9"/>
+      <c r="C382" s="9"/>
+      <c r="D382" s="9"/>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D383" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="372" s="1" customFormat="1" spans="1:4">
-      <c r="A372" s="1">
-        <v>1</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="373" s="1" customFormat="1" spans="1:4">
-      <c r="A373" s="1">
-        <v>2</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="1">
-        <v>3</v>
-      </c>
-      <c r="B374" t="s">
-        <v>487</v>
-      </c>
-      <c r="C374" t="s">
-        <v>6</v>
-      </c>
-      <c r="D374" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="375" customFormat="1" spans="1:4">
-      <c r="A375" s="1">
-        <v>4</v>
-      </c>
-      <c r="B375" t="s">
-        <v>509</v>
-      </c>
-      <c r="C375" t="s">
-        <v>32</v>
-      </c>
-      <c r="D375" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="376" customFormat="1" spans="1:4">
-      <c r="A376" s="1">
-        <v>5</v>
-      </c>
-      <c r="B376" t="s">
-        <v>511</v>
-      </c>
-      <c r="C376" t="s">
-        <v>6</v>
-      </c>
-      <c r="D376" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="377" customFormat="1" spans="1:4">
-      <c r="A377" s="1">
-        <v>6</v>
-      </c>
-      <c r="B377" t="s">
-        <v>513</v>
-      </c>
-      <c r="C377" t="s">
-        <v>78</v>
-      </c>
-      <c r="D377" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="378" customFormat="1" spans="1:4">
-      <c r="A378" s="1">
-        <v>7</v>
-      </c>
-      <c r="B378" t="s">
-        <v>515</v>
-      </c>
-      <c r="C378" t="s">
-        <v>40</v>
-      </c>
-      <c r="D378" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="379" customFormat="1"/>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382">
-        <v>1</v>
-      </c>
-      <c r="B382" t="s">
-        <v>518</v>
-      </c>
-      <c r="C382" t="s">
-        <v>6</v>
-      </c>
-      <c r="D382" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383">
-        <v>2</v>
-      </c>
-      <c r="B383" t="s">
-        <v>43</v>
-      </c>
-      <c r="C383" t="s">
-        <v>6</v>
-      </c>
-      <c r="D383" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B384" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C384" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D384" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B385" t="s">
-        <v>522</v>
+        <v>43</v>
       </c>
       <c r="C385" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D385" t="s">
-        <v>523</v>
+        <v>118</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B386" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C386" t="s">
         <v>32</v>
       </c>
       <c r="D386" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B387" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C387" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D387" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B388" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C388" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D388" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
+        <v>6</v>
+      </c>
+      <c r="B389" t="s">
+        <v>525</v>
+      </c>
+      <c r="C389" t="s">
+        <v>37</v>
+      </c>
+      <c r="D389" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390">
+        <v>7</v>
+      </c>
+      <c r="B390" t="s">
+        <v>527</v>
+      </c>
+      <c r="C390" t="s">
+        <v>77</v>
+      </c>
+      <c r="D390" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391">
         <v>8</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B391" t="s">
+        <v>529</v>
+      </c>
+      <c r="C391" t="s">
+        <v>77</v>
+      </c>
+      <c r="D391" t="s">
         <v>530</v>
-      </c>
-      <c r="C389" t="s">
-        <v>78</v>
-      </c>
-      <c r="D389" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A382:D382"/>
+    <mergeCell ref="A339:D339"/>
+    <mergeCell ref="A349:D349"/>
+    <mergeCell ref="A358:D358"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A372:D372"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A299:D299"/>
+    <mergeCell ref="A308:D308"/>
+    <mergeCell ref="A320:D320"/>
+    <mergeCell ref="A331:D331"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A250:D250"/>
+    <mergeCell ref="A264:D264"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A93:D93"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A249:D249"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A270:D270"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A297:D297"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A329:D329"/>
-    <mergeCell ref="A337:D337"/>
-    <mergeCell ref="A347:D347"/>
-    <mergeCell ref="A356:D356"/>
-    <mergeCell ref="A363:D363"/>
-    <mergeCell ref="A370:D370"/>
-    <mergeCell ref="A380:D380"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levc\Desktop\AutoPlatform\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9510"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="577">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -1784,12 +1779,92 @@
     <t>配件是否购买状态，Y表示可用，N表示不可用，默认为N</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>意向公司表t_intention_company</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>intentionId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>intentionStatus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(36)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向记录表id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人手机号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人邮箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向记录表状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向记录创建时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户要求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1918,7 +1993,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1960,7 +2035,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1992,10 +2067,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2027,7 +2101,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2203,14 +2276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD407"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="D417" sqref="D417"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -2218,7 +2291,7 @@
     <col min="4" max="4" width="97.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2299,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2240,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2254,7 +2327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2268,7 +2341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2282,7 +2355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2296,7 +2369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2310,7 +2383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2324,7 +2397,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2338,7 +2411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2352,7 +2425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2366,7 +2439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2380,7 +2453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2394,7 +2467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2408,7 +2481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2422,7 +2495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2436,7 +2509,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2450,7 +2523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
         <v>42</v>
       </c>
@@ -2458,7 +2531,7 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2486,7 +2559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2500,7 +2573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2514,7 +2587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2528,7 +2601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2542,7 +2615,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2556,7 +2629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>7</v>
       </c>
@@ -2570,7 +2643,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>8</v>
       </c>
@@ -2584,7 +2657,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>9</v>
       </c>
@@ -2598,7 +2671,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>10</v>
       </c>
@@ -2612,7 +2685,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>11</v>
       </c>
@@ -2626,7 +2699,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>12</v>
       </c>
@@ -2640,7 +2713,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>13</v>
       </c>
@@ -2654,7 +2727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2668,7 +2741,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>15</v>
       </c>
@@ -2682,7 +2755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2696,7 +2769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2710,7 +2783,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>18</v>
       </c>
@@ -2724,7 +2797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>19</v>
       </c>
@@ -2738,7 +2811,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>20</v>
       </c>
@@ -2752,7 +2825,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
         <v>84</v>
       </c>
@@ -2760,7 +2833,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
@@ -2774,7 +2847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2788,7 +2861,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2802,7 +2875,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2816,7 +2889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2830,7 +2903,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
         <v>93</v>
       </c>
@@ -2838,7 +2911,7 @@
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
@@ -2852,7 +2925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2866,7 +2939,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2880,7 +2953,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2894,7 +2967,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2908,7 +2981,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="11" t="s">
         <v>102</v>
       </c>
@@ -2916,7 +2989,7 @@
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2930,7 +3003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2944,7 +3017,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2958,7 +3031,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2972,7 +3045,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2986,7 +3059,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>5</v>
       </c>
@@ -3000,7 +3073,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>6</v>
       </c>
@@ -3014,7 +3087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" s="11" t="s">
         <v>115</v>
       </c>
@@ -3022,7 +3095,7 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
         <v>1</v>
       </c>
@@ -3036,7 +3109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3050,7 +3123,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3064,7 +3137,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3078,7 +3151,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>4</v>
       </c>
@@ -3092,7 +3165,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72" s="11" t="s">
         <v>123</v>
       </c>
@@ -3100,7 +3173,7 @@
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
         <v>1</v>
       </c>
@@ -3114,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3128,7 +3201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3142,7 +3215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3156,7 +3229,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>4</v>
       </c>
@@ -3170,7 +3243,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79" s="11" t="s">
         <v>129</v>
       </c>
@@ -3178,7 +3251,7 @@
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
         <v>1</v>
       </c>
@@ -3192,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3206,7 +3279,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>2</v>
       </c>
@@ -3220,7 +3293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3234,7 +3307,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>4</v>
       </c>
@@ -3248,7 +3321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" s="11" t="s">
         <v>138</v>
       </c>
@@ -3256,7 +3329,7 @@
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>1</v>
       </c>
@@ -3270,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3284,7 +3357,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3298,7 +3371,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3312,7 +3385,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>4</v>
       </c>
@@ -3326,7 +3399,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>5</v>
       </c>
@@ -3340,7 +3413,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>6</v>
       </c>
@@ -3354,7 +3427,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95" s="11" t="s">
         <v>152</v>
       </c>
@@ -3362,7 +3435,7 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
@@ -3376,7 +3449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3390,7 +3463,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>2</v>
       </c>
@@ -3404,7 +3477,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>3</v>
       </c>
@@ -3418,7 +3491,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>4</v>
       </c>
@@ -3432,7 +3505,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>5</v>
       </c>
@@ -3446,7 +3519,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103" s="11" t="s">
         <v>162</v>
       </c>
@@ -3454,7 +3527,7 @@
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104" s="3" t="s">
         <v>1</v>
       </c>
@@ -3468,7 +3541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3482,7 +3555,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>2</v>
       </c>
@@ -3496,7 +3569,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3510,7 +3583,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>4</v>
       </c>
@@ -3524,7 +3597,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4">
       <c r="A110" s="11" t="s">
         <v>171</v>
       </c>
@@ -3532,7 +3605,7 @@
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4">
       <c r="A111" s="3" t="s">
         <v>1</v>
       </c>
@@ -3546,7 +3619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3560,7 +3633,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>2</v>
       </c>
@@ -3574,7 +3647,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>3</v>
       </c>
@@ -3588,7 +3661,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>4</v>
       </c>
@@ -3602,7 +3675,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>5</v>
       </c>
@@ -3616,7 +3689,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4">
       <c r="A118" s="11" t="s">
         <v>181</v>
       </c>
@@ -3624,7 +3697,7 @@
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4">
       <c r="A119" s="3" t="s">
         <v>1</v>
       </c>
@@ -3638,7 +3711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3652,7 +3725,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>2</v>
       </c>
@@ -3666,7 +3739,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3680,7 +3753,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>4</v>
       </c>
@@ -3694,7 +3767,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3708,7 +3781,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>6</v>
       </c>
@@ -3722,7 +3795,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>7</v>
       </c>
@@ -3736,7 +3809,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>8</v>
       </c>
@@ -3750,7 +3823,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>9</v>
       </c>
@@ -3764,7 +3837,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>10</v>
       </c>
@@ -3778,7 +3851,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>11</v>
       </c>
@@ -3792,7 +3865,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>12</v>
       </c>
@@ -3806,7 +3879,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>13</v>
       </c>
@@ -3820,7 +3893,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>14</v>
       </c>
@@ -3834,7 +3907,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4">
       <c r="A135" s="11" t="s">
         <v>208</v>
       </c>
@@ -3842,7 +3915,7 @@
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4">
       <c r="A136" s="3" t="s">
         <v>1</v>
       </c>
@@ -3856,7 +3929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3870,7 +3943,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>2</v>
       </c>
@@ -3884,7 +3957,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>3</v>
       </c>
@@ -3898,7 +3971,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>4</v>
       </c>
@@ -3912,7 +3985,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>5</v>
       </c>
@@ -3926,7 +3999,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4">
       <c r="A143" s="11" t="s">
         <v>218</v>
       </c>
@@ -3934,7 +4007,7 @@
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
         <v>1</v>
       </c>
@@ -3948,7 +4021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>1</v>
       </c>
@@ -3962,7 +4035,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>2</v>
       </c>
@@ -3976,7 +4049,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>3</v>
       </c>
@@ -3990,7 +4063,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>4</v>
       </c>
@@ -4004,7 +4077,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>5</v>
       </c>
@@ -4018,7 +4091,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>6</v>
       </c>
@@ -4032,7 +4105,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>7</v>
       </c>
@@ -4046,7 +4119,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>8</v>
       </c>
@@ -4060,7 +4133,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>9</v>
       </c>
@@ -4074,7 +4147,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>10</v>
       </c>
@@ -4088,7 +4161,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>11</v>
       </c>
@@ -4102,7 +4175,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>12</v>
       </c>
@@ -4116,7 +4189,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>13</v>
       </c>
@@ -4130,7 +4203,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>14</v>
       </c>
@@ -4144,7 +4217,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>15</v>
       </c>
@@ -4158,7 +4231,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>16</v>
       </c>
@@ -4172,7 +4245,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4">
       <c r="A162" s="11" t="s">
         <v>249</v>
       </c>
@@ -4180,7 +4253,7 @@
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4">
       <c r="A163" s="3" t="s">
         <v>1</v>
       </c>
@@ -4194,7 +4267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4208,7 +4281,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" ht="40.5">
       <c r="A165">
         <v>2</v>
       </c>
@@ -4222,7 +4295,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>3</v>
       </c>
@@ -4236,7 +4309,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>4</v>
       </c>
@@ -4250,7 +4323,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>5</v>
       </c>
@@ -4264,7 +4337,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>6</v>
       </c>
@@ -4278,7 +4351,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>7</v>
       </c>
@@ -4292,7 +4365,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>8</v>
       </c>
@@ -4306,7 +4379,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>9</v>
       </c>
@@ -4320,7 +4393,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>10</v>
       </c>
@@ -4334,7 +4407,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>11</v>
       </c>
@@ -4348,7 +4421,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>12</v>
       </c>
@@ -4362,7 +4435,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>13</v>
       </c>
@@ -4376,7 +4449,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177">
         <v>14</v>
       </c>
@@ -4390,7 +4463,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4">
       <c r="A179" s="11" t="s">
         <v>272</v>
       </c>
@@ -4398,7 +4471,7 @@
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4">
       <c r="A180" s="3" t="s">
         <v>1</v>
       </c>
@@ -4412,7 +4485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4426,7 +4499,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4">
       <c r="A182">
         <v>2</v>
       </c>
@@ -4440,7 +4513,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>3</v>
       </c>
@@ -4454,7 +4527,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>4</v>
       </c>
@@ -4468,7 +4541,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>5</v>
       </c>
@@ -4482,7 +4555,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>3</v>
       </c>
@@ -4496,7 +4569,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>4</v>
       </c>
@@ -4510,7 +4583,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4">
       <c r="A188">
         <v>5</v>
       </c>
@@ -4524,7 +4597,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>6</v>
       </c>
@@ -4538,7 +4611,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4">
       <c r="A190">
         <v>7</v>
       </c>
@@ -4552,7 +4625,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4566,7 +4639,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4">
       <c r="A192">
         <v>9</v>
       </c>
@@ -4580,7 +4653,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>10</v>
       </c>
@@ -4594,7 +4667,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>11</v>
       </c>
@@ -4608,7 +4681,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4">
       <c r="A196" s="11" t="s">
         <v>294</v>
       </c>
@@ -4616,7 +4689,7 @@
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
         <v>1</v>
       </c>
@@ -4630,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4">
       <c r="A198">
         <v>1</v>
       </c>
@@ -4644,7 +4717,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>2</v>
       </c>
@@ -4658,7 +4731,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>3</v>
       </c>
@@ -4672,7 +4745,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>4</v>
       </c>
@@ -4686,7 +4759,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>5</v>
       </c>
@@ -4700,7 +4773,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4">
       <c r="A203">
         <v>6</v>
       </c>
@@ -4714,7 +4787,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4">
       <c r="A204">
         <v>7</v>
       </c>
@@ -4728,7 +4801,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4">
       <c r="A205">
         <v>8</v>
       </c>
@@ -4742,7 +4815,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4">
       <c r="A206">
         <v>9</v>
       </c>
@@ -4756,7 +4829,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4">
       <c r="A208" s="11" t="s">
         <v>312</v>
       </c>
@@ -4764,7 +4837,7 @@
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4">
       <c r="A209" s="3" t="s">
         <v>1</v>
       </c>
@@ -4778,7 +4851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4">
       <c r="A210">
         <v>1</v>
       </c>
@@ -4792,7 +4865,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4">
       <c r="A211">
         <v>2</v>
       </c>
@@ -4806,7 +4879,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4">
       <c r="A212">
         <v>3</v>
       </c>
@@ -4820,7 +4893,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4">
       <c r="A213">
         <v>4</v>
       </c>
@@ -4834,7 +4907,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4">
       <c r="A215" s="11" t="s">
         <v>318</v>
       </c>
@@ -4842,7 +4915,7 @@
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4">
       <c r="A216" s="3" t="s">
         <v>1</v>
       </c>
@@ -4856,7 +4929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4">
       <c r="A217">
         <v>1</v>
       </c>
@@ -4870,7 +4943,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4">
       <c r="A218">
         <v>2</v>
       </c>
@@ -4884,7 +4957,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4">
       <c r="A219">
         <v>3</v>
       </c>
@@ -4898,7 +4971,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4">
       <c r="A220">
         <v>4</v>
       </c>
@@ -4912,7 +4985,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:4">
       <c r="A221">
         <v>5</v>
       </c>
@@ -4926,7 +4999,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:4">
       <c r="A222">
         <v>6</v>
       </c>
@@ -4940,7 +5013,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:4">
       <c r="A223">
         <v>7</v>
       </c>
@@ -4954,7 +5027,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4">
       <c r="A224">
         <v>8</v>
       </c>
@@ -4968,7 +5041,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:4">
       <c r="A225">
         <v>9</v>
       </c>
@@ -4982,7 +5055,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:4">
       <c r="A226">
         <v>10</v>
       </c>
@@ -4996,7 +5069,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>11</v>
       </c>
@@ -5010,7 +5083,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>12</v>
       </c>
@@ -5024,7 +5097,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>13</v>
       </c>
@@ -5038,7 +5111,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>14</v>
       </c>
@@ -5052,7 +5125,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:4">
       <c r="A231">
         <v>15</v>
       </c>
@@ -5066,7 +5139,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:4">
       <c r="A233" s="11" t="s">
         <v>339</v>
       </c>
@@ -5074,7 +5147,7 @@
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:4">
       <c r="A234" s="3" t="s">
         <v>1</v>
       </c>
@@ -5088,7 +5161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:4">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5102,7 +5175,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:4">
       <c r="A236">
         <v>2</v>
       </c>
@@ -5116,7 +5189,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:4">
       <c r="A237">
         <v>3</v>
       </c>
@@ -5130,7 +5203,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:4">
       <c r="A238">
         <v>4</v>
       </c>
@@ -5144,7 +5217,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:4">
       <c r="A239">
         <v>5</v>
       </c>
@@ -5158,7 +5231,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:4">
       <c r="A240">
         <v>6</v>
       </c>
@@ -5172,7 +5245,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:4">
       <c r="A241">
         <v>7</v>
       </c>
@@ -5186,7 +5259,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:4">
       <c r="A242">
         <v>8</v>
       </c>
@@ -5200,7 +5273,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4">
       <c r="A243">
         <v>9</v>
       </c>
@@ -5214,7 +5287,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4">
       <c r="A244">
         <v>10</v>
       </c>
@@ -5228,7 +5301,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4">
       <c r="A245">
         <v>11</v>
       </c>
@@ -5242,7 +5315,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4">
       <c r="A246">
         <v>12</v>
       </c>
@@ -5256,7 +5329,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4">
       <c r="A247">
         <v>13</v>
       </c>
@@ -5270,7 +5343,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4">
       <c r="A248">
         <v>14</v>
       </c>
@@ -5284,7 +5357,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4">
       <c r="A249">
         <v>15</v>
       </c>
@@ -5298,7 +5371,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:4">
       <c r="A250">
         <v>16</v>
       </c>
@@ -5312,7 +5385,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:4">
       <c r="A251">
         <v>17</v>
       </c>
@@ -5326,7 +5399,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:4">
       <c r="A252">
         <v>18</v>
       </c>
@@ -5340,7 +5413,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4">
       <c r="A253">
         <v>19</v>
       </c>
@@ -5354,7 +5427,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4">
       <c r="A254">
         <v>20</v>
       </c>
@@ -5368,7 +5441,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4">
       <c r="A255">
         <v>21</v>
       </c>
@@ -5382,7 +5455,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:4">
       <c r="A257" s="11" t="s">
         <v>364</v>
       </c>
@@ -5390,7 +5463,7 @@
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:4">
       <c r="A258" s="3" t="s">
         <v>1</v>
       </c>
@@ -5404,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:4">
       <c r="A259">
         <v>1</v>
       </c>
@@ -5418,7 +5491,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:4">
       <c r="A260">
         <v>2</v>
       </c>
@@ -5432,7 +5505,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:4">
       <c r="A261">
         <v>3</v>
       </c>
@@ -5446,7 +5519,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:4">
       <c r="A262">
         <v>4</v>
       </c>
@@ -5460,7 +5533,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:4">
       <c r="A263">
         <v>5</v>
       </c>
@@ -5474,7 +5547,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:4">
       <c r="A264">
         <v>6</v>
       </c>
@@ -5488,7 +5561,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:4">
       <c r="A265">
         <v>7</v>
       </c>
@@ -5502,7 +5575,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:4">
       <c r="A266">
         <v>8</v>
       </c>
@@ -5516,7 +5589,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:4">
       <c r="A267">
         <v>9</v>
       </c>
@@ -5530,7 +5603,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:4">
       <c r="A268">
         <v>10</v>
       </c>
@@ -5544,7 +5617,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:4">
       <c r="A269">
         <v>11</v>
       </c>
@@ -5558,7 +5631,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:4">
       <c r="A270">
         <v>12</v>
       </c>
@@ -5572,7 +5645,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:4">
       <c r="A272" s="11" t="s">
         <v>384</v>
       </c>
@@ -5580,7 +5653,7 @@
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:4">
       <c r="A273" s="3" t="s">
         <v>1</v>
       </c>
@@ -5594,7 +5667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:4">
       <c r="A274">
         <v>1</v>
       </c>
@@ -5608,7 +5681,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:4">
       <c r="A275">
         <v>2</v>
       </c>
@@ -5622,7 +5695,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:4">
       <c r="A276">
         <v>3</v>
       </c>
@@ -5636,7 +5709,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:4">
       <c r="A277">
         <v>4</v>
       </c>
@@ -5650,7 +5723,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:4">
       <c r="A278">
         <v>5</v>
       </c>
@@ -5664,7 +5737,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:4">
       <c r="A280" s="11" t="s">
         <v>393</v>
       </c>
@@ -5672,7 +5745,7 @@
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:4">
       <c r="A281" s="3" t="s">
         <v>1</v>
       </c>
@@ -5686,7 +5759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:4">
       <c r="A282">
         <v>1</v>
       </c>
@@ -5700,7 +5773,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:4">
       <c r="A283">
         <v>2</v>
       </c>
@@ -5714,7 +5787,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:4">
       <c r="A284">
         <v>3</v>
       </c>
@@ -5728,7 +5801,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:4">
       <c r="A285">
         <v>4</v>
       </c>
@@ -5742,7 +5815,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:4">
       <c r="A286">
         <v>5</v>
       </c>
@@ -5756,7 +5829,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:4">
       <c r="A287">
         <v>6</v>
       </c>
@@ -5770,7 +5843,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:4">
       <c r="A289" s="11" t="s">
         <v>402</v>
       </c>
@@ -5778,7 +5851,7 @@
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:4">
       <c r="A290" s="3" t="s">
         <v>1</v>
       </c>
@@ -5792,7 +5865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:4">
       <c r="A291">
         <v>1</v>
       </c>
@@ -5806,7 +5879,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:4">
       <c r="A292">
         <v>2</v>
       </c>
@@ -5820,7 +5893,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:4">
       <c r="A293">
         <v>3</v>
       </c>
@@ -5834,7 +5907,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:4">
       <c r="A294">
         <v>4</v>
       </c>
@@ -5848,7 +5921,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:4">
       <c r="A295">
         <v>5</v>
       </c>
@@ -5862,7 +5935,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:4">
       <c r="A296">
         <v>6</v>
       </c>
@@ -5876,12 +5949,12 @@
         <v>411</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:4">
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:4">
       <c r="A298" s="11" t="s">
         <v>412</v>
       </c>
@@ -5889,7 +5962,7 @@
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:4">
       <c r="A299" s="3" t="s">
         <v>1</v>
       </c>
@@ -5903,7 +5976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:4">
       <c r="A300">
         <v>1</v>
       </c>
@@ -5917,7 +5990,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:4">
       <c r="A301">
         <v>2</v>
       </c>
@@ -5931,7 +6004,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:4">
       <c r="A302">
         <v>3</v>
       </c>
@@ -5945,7 +6018,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:4">
       <c r="A303">
         <v>4</v>
       </c>
@@ -5959,7 +6032,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:4">
       <c r="A304">
         <v>5</v>
       </c>
@@ -5973,7 +6046,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:4">
       <c r="A305">
         <v>6</v>
       </c>
@@ -5987,7 +6060,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:4">
       <c r="A307" s="11" t="s">
         <v>420</v>
       </c>
@@ -5995,7 +6068,7 @@
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:4">
       <c r="A308" s="3" t="s">
         <v>1</v>
       </c>
@@ -6009,7 +6082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:4">
       <c r="A309">
         <v>1</v>
       </c>
@@ -6023,7 +6096,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:4">
       <c r="A310">
         <v>2</v>
       </c>
@@ -6037,7 +6110,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:4">
       <c r="A311">
         <v>3</v>
       </c>
@@ -6051,7 +6124,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:4">
       <c r="A312">
         <v>4</v>
       </c>
@@ -6065,7 +6138,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:4">
       <c r="A313">
         <v>5</v>
       </c>
@@ -6079,7 +6152,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:4">
       <c r="A314">
         <v>6</v>
       </c>
@@ -6093,7 +6166,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:4">
       <c r="A316" s="11" t="s">
         <v>428</v>
       </c>
@@ -6101,7 +6174,7 @@
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:4">
       <c r="A317" s="3" t="s">
         <v>1</v>
       </c>
@@ -6115,7 +6188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:4">
       <c r="A318">
         <v>1</v>
       </c>
@@ -6129,7 +6202,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:4">
       <c r="A319">
         <v>2</v>
       </c>
@@ -6143,7 +6216,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:4">
       <c r="A320">
         <v>3</v>
       </c>
@@ -6157,7 +6230,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:4">
       <c r="A321">
         <v>4</v>
       </c>
@@ -6171,7 +6244,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:4">
       <c r="A322">
         <v>5</v>
       </c>
@@ -6185,7 +6258,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:4">
       <c r="A323">
         <v>6</v>
       </c>
@@ -6199,7 +6272,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:4">
       <c r="A324">
         <v>7</v>
       </c>
@@ -6213,7 +6286,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:4">
       <c r="A325">
         <v>8</v>
       </c>
@@ -6227,7 +6300,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:4">
       <c r="A326">
         <v>9</v>
       </c>
@@ -6241,7 +6314,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:4">
       <c r="A327">
         <v>10</v>
       </c>
@@ -6255,11 +6328,11 @@
         <v>444</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:4">
       <c r="B328" s="7"/>
       <c r="D328" s="7"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:4">
       <c r="A329" s="11" t="s">
         <v>445</v>
       </c>
@@ -6267,7 +6340,7 @@
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:4">
       <c r="A330" s="3" t="s">
         <v>1</v>
       </c>
@@ -6281,7 +6354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:4">
       <c r="A331">
         <v>1</v>
       </c>
@@ -6295,7 +6368,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:4">
       <c r="A332">
         <v>2</v>
       </c>
@@ -6309,7 +6382,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:4">
       <c r="A333">
         <v>3</v>
       </c>
@@ -6323,7 +6396,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:4">
       <c r="A334">
         <v>4</v>
       </c>
@@ -6337,7 +6410,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:4">
       <c r="A335">
         <v>5</v>
       </c>
@@ -6351,7 +6424,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:4">
       <c r="A336">
         <v>6</v>
       </c>
@@ -6365,7 +6438,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="337" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:16384">
       <c r="A337">
         <v>7</v>
       </c>
@@ -6379,7 +6452,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="338" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:16384" s="1" customFormat="1">
       <c r="A338" s="7">
         <v>8</v>
       </c>
@@ -22773,7 +22846,7 @@
       <c r="XFC338" s="9"/>
       <c r="XFD338" s="9"/>
     </row>
-    <row r="339" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:16384">
       <c r="A339">
         <v>9</v>
       </c>
@@ -22787,7 +22860,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="341" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:16384">
       <c r="A341" s="11" t="s">
         <v>461</v>
       </c>
@@ -22795,7 +22868,7 @@
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
     </row>
-    <row r="342" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:16384">
       <c r="A342" s="3" t="s">
         <v>1</v>
       </c>
@@ -22809,7 +22882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:16384">
       <c r="A343">
         <v>1</v>
       </c>
@@ -22823,7 +22896,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="344" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:16384">
       <c r="A344">
         <v>2</v>
       </c>
@@ -22837,7 +22910,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="345" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:16384">
       <c r="A345">
         <v>3</v>
       </c>
@@ -22851,7 +22924,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="346" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:16384">
       <c r="A346">
         <v>4</v>
       </c>
@@ -22865,7 +22938,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="347" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:16384" s="1" customFormat="1">
       <c r="A347" s="7">
         <v>5</v>
       </c>
@@ -39259,7 +39332,7 @@
       <c r="XFC347" s="9"/>
       <c r="XFD347" s="9"/>
     </row>
-    <row r="348" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:16384">
       <c r="A348">
         <v>6</v>
       </c>
@@ -39273,12 +39346,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="349" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:16384">
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
     </row>
-    <row r="350" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:16384">
       <c r="A350" s="11" t="s">
         <v>470</v>
       </c>
@@ -39286,7 +39359,7 @@
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
     </row>
-    <row r="351" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:16384">
       <c r="A351" s="3" t="s">
         <v>1</v>
       </c>
@@ -39300,7 +39373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:16384">
       <c r="A352">
         <v>1</v>
       </c>
@@ -39314,7 +39387,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:4">
       <c r="A353">
         <v>2</v>
       </c>
@@ -39328,7 +39401,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:4">
       <c r="A354">
         <v>3</v>
       </c>
@@ -39342,7 +39415,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:4">
       <c r="A355">
         <v>4</v>
       </c>
@@ -39356,7 +39429,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:4">
       <c r="A356">
         <v>5</v>
       </c>
@@ -39370,7 +39443,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:4">
       <c r="A357">
         <v>6</v>
       </c>
@@ -39384,7 +39457,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:4" s="1" customFormat="1">
       <c r="A358" s="7">
         <v>7</v>
       </c>
@@ -39398,7 +39471,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:4">
       <c r="A359">
         <v>8</v>
       </c>
@@ -39412,12 +39485,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:4">
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:4">
       <c r="A361" s="11" t="s">
         <v>483</v>
       </c>
@@ -39425,7 +39498,7 @@
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:4">
       <c r="A362" s="3" t="s">
         <v>1</v>
       </c>
@@ -39439,7 +39512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:4">
       <c r="A363">
         <v>1</v>
       </c>
@@ -39453,7 +39526,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:4">
       <c r="A364">
         <v>2</v>
       </c>
@@ -39467,7 +39540,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:4">
       <c r="A365">
         <v>3</v>
       </c>
@@ -39481,7 +39554,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:4">
       <c r="A366">
         <v>4</v>
       </c>
@@ -39495,7 +39568,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:4">
       <c r="A367">
         <v>5</v>
       </c>
@@ -39509,7 +39582,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:4" s="1" customFormat="1">
       <c r="A368" s="7">
         <v>6</v>
       </c>
@@ -39523,7 +39596,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:4">
       <c r="A369">
         <v>7</v>
       </c>
@@ -39537,7 +39610,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:4">
       <c r="A371" s="11" t="s">
         <v>494</v>
       </c>
@@ -39545,7 +39618,7 @@
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:4">
       <c r="A372" s="3" t="s">
         <v>1</v>
       </c>
@@ -39559,7 +39632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:4">
       <c r="A373">
         <v>1</v>
       </c>
@@ -39573,7 +39646,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:4">
       <c r="A374">
         <v>2</v>
       </c>
@@ -39587,7 +39660,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:4">
       <c r="A375">
         <v>3</v>
       </c>
@@ -39601,7 +39674,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:4" s="1" customFormat="1">
       <c r="A376" s="7">
         <v>4</v>
       </c>
@@ -39615,7 +39688,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:4">
       <c r="A377">
         <v>5</v>
       </c>
@@ -39629,7 +39702,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:4">
       <c r="A379" s="11" t="s">
         <v>503</v>
       </c>
@@ -39637,7 +39710,7 @@
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:4">
       <c r="A380" s="3" t="s">
         <v>1</v>
       </c>
@@ -39651,7 +39724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:4">
       <c r="A381">
         <v>1</v>
       </c>
@@ -39665,7 +39738,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:4">
       <c r="A382">
         <v>2</v>
       </c>
@@ -39679,7 +39752,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:4">
       <c r="A383">
         <v>3</v>
       </c>
@@ -39693,7 +39766,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="384" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:4" s="1" customFormat="1">
       <c r="A384" s="7">
         <v>4</v>
       </c>
@@ -39707,7 +39780,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:4">
       <c r="A385">
         <v>5</v>
       </c>
@@ -39721,7 +39794,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:4">
       <c r="A387" s="11" t="s">
         <v>512</v>
       </c>
@@ -39729,7 +39802,7 @@
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:4">
       <c r="A388" s="3" t="s">
         <v>1</v>
       </c>
@@ -39743,7 +39816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:4" s="2" customFormat="1">
       <c r="A389" s="2">
         <v>1</v>
       </c>
@@ -39757,7 +39830,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:4" s="2" customFormat="1">
       <c r="A390" s="2">
         <v>2</v>
       </c>
@@ -39771,7 +39844,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:4">
       <c r="A391" s="2">
         <v>3</v>
       </c>
@@ -39785,7 +39858,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:4">
       <c r="A392" s="2">
         <v>4</v>
       </c>
@@ -39799,7 +39872,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:4">
       <c r="A393" s="2">
         <v>5</v>
       </c>
@@ -39813,7 +39886,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:4">
       <c r="A394" s="2">
         <v>6</v>
       </c>
@@ -39827,7 +39900,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="395" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:4" s="1" customFormat="1">
       <c r="A395" s="7">
         <v>7</v>
       </c>
@@ -39841,7 +39914,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:4">
       <c r="A396" s="2">
         <v>8</v>
       </c>
@@ -39855,7 +39928,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:4">
       <c r="A398" s="11" t="s">
         <v>525</v>
       </c>
@@ -39863,7 +39936,7 @@
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:4">
       <c r="A399" s="3" t="s">
         <v>1</v>
       </c>
@@ -39877,7 +39950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:4">
       <c r="A400">
         <v>1</v>
       </c>
@@ -39891,7 +39964,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:4">
       <c r="A401">
         <v>2</v>
       </c>
@@ -39905,7 +39978,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:4">
       <c r="A402">
         <v>3</v>
       </c>
@@ -39919,7 +39992,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:4">
       <c r="A403">
         <v>4</v>
       </c>
@@ -39933,7 +40006,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:4">
       <c r="A404">
         <v>5</v>
       </c>
@@ -39947,7 +40020,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:4">
       <c r="A405">
         <v>6</v>
       </c>
@@ -39961,7 +40034,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:4">
       <c r="A406">
         <v>7</v>
       </c>
@@ -39975,58 +40048,176 @@
         <v>537</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:4">
       <c r="A407">
         <v>8</v>
       </c>
       <c r="B407" t="s">
         <v>538</v>
       </c>
-      <c r="C407" t="s">
-        <v>78</v>
-      </c>
       <c r="D407" t="s">
         <v>539</v>
       </c>
     </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B409" s="11"/>
+      <c r="C409" s="11"/>
+      <c r="D409" s="11"/>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411">
+        <v>1</v>
+      </c>
+      <c r="B411" t="s">
+        <v>558</v>
+      </c>
+      <c r="C411" t="s">
+        <v>565</v>
+      </c>
+      <c r="D411" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412">
+        <v>2</v>
+      </c>
+      <c r="B412" t="s">
+        <v>559</v>
+      </c>
+      <c r="C412" t="s">
+        <v>566</v>
+      </c>
+      <c r="D412" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413">
+        <v>3</v>
+      </c>
+      <c r="B413" t="s">
+        <v>560</v>
+      </c>
+      <c r="C413" t="s">
+        <v>567</v>
+      </c>
+      <c r="D413" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414">
+        <v>4</v>
+      </c>
+      <c r="B414" t="s">
+        <v>561</v>
+      </c>
+      <c r="C414" t="s">
+        <v>566</v>
+      </c>
+      <c r="D414" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415">
+        <v>5</v>
+      </c>
+      <c r="B415" t="s">
+        <v>562</v>
+      </c>
+      <c r="C415" t="s">
+        <v>568</v>
+      </c>
+      <c r="D415" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416">
+        <v>6</v>
+      </c>
+      <c r="B416" t="s">
+        <v>563</v>
+      </c>
+      <c r="C416" t="s">
+        <v>78</v>
+      </c>
+      <c r="D416" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417">
+        <v>7</v>
+      </c>
+      <c r="B417" t="s">
+        <v>564</v>
+      </c>
+      <c r="C417" t="s">
+        <v>569</v>
+      </c>
+      <c r="D417" t="s">
+        <v>576</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="A409:D409"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A298:D298"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A329:D329"/>
+    <mergeCell ref="A341:D341"/>
     <mergeCell ref="A398:D398"/>
     <mergeCell ref="A350:D350"/>
     <mergeCell ref="A361:D361"/>
     <mergeCell ref="A371:D371"/>
     <mergeCell ref="A379:D379"/>
     <mergeCell ref="A387:D387"/>
-    <mergeCell ref="A298:D298"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A329:D329"/>
-    <mergeCell ref="A341:D341"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A196:D196"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A56:D56"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40035,12 +40226,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40049,12 +40240,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="580">
   <si>
     <t>公司表t_company</t>
   </si>
@@ -1857,6 +1857,18 @@
   </si>
   <si>
     <t>用户要求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(36)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工的id，，来源于t_user表</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2277,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD417"/>
+  <dimension ref="A1:XFD418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="D417" sqref="D417"/>
+    <sheetView tabSelected="1" topLeftCell="C416" workbookViewId="0">
+      <selection activeCell="D418" sqref="D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -40179,8 +40191,43 @@
         <v>576</v>
       </c>
     </row>
+    <row r="418" spans="1:4">
+      <c r="A418">
+        <v>8</v>
+      </c>
+      <c r="B418" t="s">
+        <v>577</v>
+      </c>
+      <c r="C418" t="s">
+        <v>578</v>
+      </c>
+      <c r="D418" t="s">
+        <v>579</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A398:D398"/>
+    <mergeCell ref="A350:D350"/>
+    <mergeCell ref="A361:D361"/>
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A387:D387"/>
+    <mergeCell ref="A298:D298"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A329:D329"/>
+    <mergeCell ref="A341:D341"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A215:D215"/>
     <mergeCell ref="A409:D409"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A19:D19"/>
@@ -40197,27 +40244,6 @@
     <mergeCell ref="A118:D118"/>
     <mergeCell ref="A135:D135"/>
     <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A196:D196"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A298:D298"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A329:D329"/>
-    <mergeCell ref="A341:D341"/>
-    <mergeCell ref="A398:D398"/>
-    <mergeCell ref="A350:D350"/>
-    <mergeCell ref="A361:D361"/>
-    <mergeCell ref="A371:D371"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A387:D387"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\AutoPlatform\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9510"/>
   </bookViews>
@@ -1875,8 +1880,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2005,7 +2010,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2047,7 +2052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2079,9 +2084,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2113,6 +2119,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2288,14 +2295,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C416" workbookViewId="0">
-      <selection activeCell="D418" sqref="D418"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -2303,7 +2310,7 @@
     <col min="4" max="4" width="97.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2318,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2325,7 +2332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2339,7 +2346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2353,7 +2360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2367,7 +2374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2381,7 +2388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2395,7 +2402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2409,7 +2416,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2423,7 +2430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2437,7 +2444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2451,7 +2458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2465,7 +2472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2479,7 +2486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2493,7 +2500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2507,7 +2514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2521,9 +2528,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -2535,7 +2542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
         <v>42</v>
       </c>
@@ -2543,7 +2550,7 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2571,7 +2578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2585,7 +2592,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2613,7 +2620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2627,7 +2634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2641,7 +2648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>7</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>8</v>
       </c>
@@ -2669,7 +2676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>9</v>
       </c>
@@ -2683,7 +2690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>10</v>
       </c>
@@ -2697,7 +2704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>11</v>
       </c>
@@ -2711,7 +2718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>12</v>
       </c>
@@ -2725,7 +2732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>13</v>
       </c>
@@ -2739,7 +2746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2753,7 +2760,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>15</v>
       </c>
@@ -2767,7 +2774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2781,7 +2788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2795,7 +2802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>18</v>
       </c>
@@ -2809,7 +2816,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>19</v>
       </c>
@@ -2823,7 +2830,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>20</v>
       </c>
@@ -2837,7 +2844,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>84</v>
       </c>
@@ -2845,7 +2852,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
@@ -2859,7 +2866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2873,7 +2880,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2887,7 +2894,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2901,7 +2908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2915,7 +2922,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
         <v>93</v>
       </c>
@@ -2923,7 +2930,7 @@
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
@@ -2937,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2951,7 +2958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2965,7 +2972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2979,7 +2986,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
         <v>102</v>
       </c>
@@ -3001,7 +3008,7 @@
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
@@ -3015,7 +3022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3029,7 +3036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3043,7 +3050,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3057,7 +3064,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>4</v>
       </c>
@@ -3071,7 +3078,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>5</v>
       </c>
@@ -3085,7 +3092,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>6</v>
       </c>
@@ -3099,7 +3106,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="s">
         <v>115</v>
       </c>
@@ -3107,7 +3114,7 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>1</v>
       </c>
@@ -3121,7 +3128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3135,7 +3142,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3149,7 +3156,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3163,7 +3170,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>4</v>
       </c>
@@ -3177,7 +3184,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
         <v>123</v>
       </c>
@@ -3185,7 +3192,7 @@
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>1</v>
       </c>
@@ -3199,7 +3206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3213,7 +3220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3227,7 +3234,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3241,7 +3248,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>4</v>
       </c>
@@ -3255,7 +3262,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="s">
         <v>129</v>
       </c>
@@ -3263,7 +3270,7 @@
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>1</v>
       </c>
@@ -3277,7 +3284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3291,7 +3298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2</v>
       </c>
@@ -3305,7 +3312,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3319,7 +3326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>4</v>
       </c>
@@ -3333,7 +3340,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>138</v>
       </c>
@@ -3341,7 +3348,7 @@
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>1</v>
       </c>
@@ -3355,7 +3362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3369,7 +3376,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3383,7 +3390,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3397,7 +3404,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>4</v>
       </c>
@@ -3411,7 +3418,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>5</v>
       </c>
@@ -3425,7 +3432,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>6</v>
       </c>
@@ -3439,7 +3446,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
         <v>152</v>
       </c>
@@ -3447,7 +3454,7 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3475,7 +3482,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2</v>
       </c>
@@ -3489,7 +3496,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>3</v>
       </c>
@@ -3503,7 +3510,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>4</v>
       </c>
@@ -3517,7 +3524,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>5</v>
       </c>
@@ -3531,7 +3538,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="11" t="s">
         <v>162</v>
       </c>
@@ -3539,7 +3546,7 @@
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>1</v>
       </c>
@@ -3553,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3567,7 +3574,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>2</v>
       </c>
@@ -3581,7 +3588,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3595,7 +3602,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>4</v>
       </c>
@@ -3609,7 +3616,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="11" t="s">
         <v>171</v>
       </c>
@@ -3617,7 +3624,7 @@
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
         <v>1</v>
       </c>
@@ -3631,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3645,7 +3652,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>2</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>3</v>
       </c>
@@ -3673,7 +3680,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>4</v>
       </c>
@@ -3687,7 +3694,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>5</v>
       </c>
@@ -3701,7 +3708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="11" t="s">
         <v>181</v>
       </c>
@@ -3709,7 +3716,7 @@
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>1</v>
       </c>
@@ -3723,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3737,7 +3744,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>2</v>
       </c>
@@ -3751,7 +3758,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3765,7 +3772,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>4</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3793,7 +3800,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>6</v>
       </c>
@@ -3807,7 +3814,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>7</v>
       </c>
@@ -3821,7 +3828,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>8</v>
       </c>
@@ -3835,7 +3842,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>9</v>
       </c>
@@ -3849,7 +3856,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>10</v>
       </c>
@@ -3863,7 +3870,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>11</v>
       </c>
@@ -3877,7 +3884,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>12</v>
       </c>
@@ -3891,7 +3898,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>13</v>
       </c>
@@ -3905,7 +3912,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>14</v>
       </c>
@@ -3919,7 +3926,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="11" t="s">
         <v>208</v>
       </c>
@@ -3927,7 +3934,7 @@
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
         <v>1</v>
       </c>
@@ -3941,7 +3948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3955,7 +3962,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>2</v>
       </c>
@@ -3969,7 +3976,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>3</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>4</v>
       </c>
@@ -3997,7 +4004,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>5</v>
       </c>
@@ -4011,7 +4018,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="11" t="s">
         <v>218</v>
       </c>
@@ -4019,7 +4026,7 @@
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
         <v>1</v>
       </c>
@@ -4033,7 +4040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4047,7 +4054,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>2</v>
       </c>
@@ -4061,7 +4068,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>3</v>
       </c>
@@ -4075,7 +4082,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>4</v>
       </c>
@@ -4089,7 +4096,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>5</v>
       </c>
@@ -4103,7 +4110,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>6</v>
       </c>
@@ -4117,7 +4124,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>7</v>
       </c>
@@ -4131,7 +4138,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>8</v>
       </c>
@@ -4145,7 +4152,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>9</v>
       </c>
@@ -4159,7 +4166,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>10</v>
       </c>
@@ -4173,7 +4180,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>11</v>
       </c>
@@ -4187,7 +4194,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>12</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>13</v>
       </c>
@@ -4215,7 +4222,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>14</v>
       </c>
@@ -4229,7 +4236,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>15</v>
       </c>
@@ -4243,7 +4250,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>16</v>
       </c>
@@ -4257,7 +4264,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="11" t="s">
         <v>249</v>
       </c>
@@ -4265,7 +4272,7 @@
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
         <v>1</v>
       </c>
@@ -4279,7 +4286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="40.5">
+    <row r="165" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>2</v>
       </c>
@@ -4307,7 +4314,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>3</v>
       </c>
@@ -4321,7 +4328,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>4</v>
       </c>
@@ -4335,7 +4342,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>5</v>
       </c>
@@ -4349,7 +4356,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>6</v>
       </c>
@@ -4363,7 +4370,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>7</v>
       </c>
@@ -4377,7 +4384,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>8</v>
       </c>
@@ -4391,7 +4398,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>9</v>
       </c>
@@ -4405,7 +4412,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>10</v>
       </c>
@@ -4419,7 +4426,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>11</v>
       </c>
@@ -4433,7 +4440,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>12</v>
       </c>
@@ -4447,7 +4454,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>13</v>
       </c>
@@ -4461,7 +4468,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>14</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="11" t="s">
         <v>272</v>
       </c>
@@ -4483,7 +4490,7 @@
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
         <v>1</v>
       </c>
@@ -4497,7 +4504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4511,7 +4518,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>2</v>
       </c>
@@ -4525,7 +4532,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>3</v>
       </c>
@@ -4539,7 +4546,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>4</v>
       </c>
@@ -4553,7 +4560,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>5</v>
       </c>
@@ -4567,7 +4574,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>3</v>
       </c>
@@ -4581,7 +4588,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>4</v>
       </c>
@@ -4595,7 +4602,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>5</v>
       </c>
@@ -4609,7 +4616,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>6</v>
       </c>
@@ -4623,7 +4630,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>7</v>
       </c>
@@ -4637,7 +4644,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4651,7 +4658,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>9</v>
       </c>
@@ -4665,7 +4672,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>10</v>
       </c>
@@ -4679,7 +4686,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>11</v>
       </c>
@@ -4693,7 +4700,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="11" t="s">
         <v>294</v>
       </c>
@@ -4701,7 +4708,7 @@
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
         <v>1</v>
       </c>
@@ -4715,7 +4722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>1</v>
       </c>
@@ -4729,7 +4736,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>2</v>
       </c>
@@ -4743,7 +4750,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>3</v>
       </c>
@@ -4757,7 +4764,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>4</v>
       </c>
@@ -4771,7 +4778,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>5</v>
       </c>
@@ -4785,7 +4792,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>6</v>
       </c>
@@ -4799,7 +4806,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>7</v>
       </c>
@@ -4813,7 +4820,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>8</v>
       </c>
@@ -4827,7 +4834,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>9</v>
       </c>
@@ -4841,7 +4848,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="11" t="s">
         <v>312</v>
       </c>
@@ -4849,7 +4856,7 @@
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
         <v>1</v>
       </c>
@@ -4863,7 +4870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>1</v>
       </c>
@@ -4877,7 +4884,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>2</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>3</v>
       </c>
@@ -4905,7 +4912,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>4</v>
       </c>
@@ -4919,7 +4926,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="11" t="s">
         <v>318</v>
       </c>
@@ -4927,7 +4934,7 @@
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
         <v>1</v>
       </c>
@@ -4941,7 +4948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>1</v>
       </c>
@@ -4955,7 +4962,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>2</v>
       </c>
@@ -4969,7 +4976,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>3</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>4</v>
       </c>
@@ -4997,7 +5004,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>5</v>
       </c>
@@ -5011,7 +5018,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>6</v>
       </c>
@@ -5025,7 +5032,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>7</v>
       </c>
@@ -5039,7 +5046,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>8</v>
       </c>
@@ -5053,7 +5060,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>9</v>
       </c>
@@ -5067,7 +5074,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>10</v>
       </c>
@@ -5081,7 +5088,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>11</v>
       </c>
@@ -5095,7 +5102,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>12</v>
       </c>
@@ -5109,7 +5116,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>13</v>
       </c>
@@ -5123,7 +5130,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>14</v>
       </c>
@@ -5137,7 +5144,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>15</v>
       </c>
@@ -5151,7 +5158,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="11" t="s">
         <v>339</v>
       </c>
@@ -5159,7 +5166,7 @@
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="3" t="s">
         <v>1</v>
       </c>
@@ -5173,7 +5180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5187,7 +5194,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>2</v>
       </c>
@@ -5201,7 +5208,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>3</v>
       </c>
@@ -5215,7 +5222,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>4</v>
       </c>
@@ -5229,7 +5236,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>5</v>
       </c>
@@ -5243,7 +5250,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>6</v>
       </c>
@@ -5257,7 +5264,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>7</v>
       </c>
@@ -5271,7 +5278,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>8</v>
       </c>
@@ -5285,7 +5292,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>9</v>
       </c>
@@ -5299,7 +5306,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>10</v>
       </c>
@@ -5313,7 +5320,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>11</v>
       </c>
@@ -5327,7 +5334,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>12</v>
       </c>
@@ -5341,7 +5348,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>13</v>
       </c>
@@ -5355,7 +5362,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>14</v>
       </c>
@@ -5369,7 +5376,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>15</v>
       </c>
@@ -5383,7 +5390,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>16</v>
       </c>
@@ -5397,7 +5404,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>17</v>
       </c>
@@ -5411,7 +5418,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>18</v>
       </c>
@@ -5425,7 +5432,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>19</v>
       </c>
@@ -5439,7 +5446,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>20</v>
       </c>
@@ -5453,7 +5460,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>21</v>
       </c>
@@ -5467,7 +5474,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="11" t="s">
         <v>364</v>
       </c>
@@ -5475,7 +5482,7 @@
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="3" t="s">
         <v>1</v>
       </c>
@@ -5489,7 +5496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>1</v>
       </c>
@@ -5503,7 +5510,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>2</v>
       </c>
@@ -5517,7 +5524,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>3</v>
       </c>
@@ -5531,7 +5538,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>4</v>
       </c>
@@ -5545,7 +5552,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>5</v>
       </c>
@@ -5559,7 +5566,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>6</v>
       </c>
@@ -5573,7 +5580,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>7</v>
       </c>
@@ -5587,7 +5594,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>8</v>
       </c>
@@ -5601,7 +5608,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>9</v>
       </c>
@@ -5615,7 +5622,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>10</v>
       </c>
@@ -5629,7 +5636,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>11</v>
       </c>
@@ -5643,7 +5650,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>12</v>
       </c>
@@ -5657,7 +5664,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="11" t="s">
         <v>384</v>
       </c>
@@ -5665,7 +5672,7 @@
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="3" t="s">
         <v>1</v>
       </c>
@@ -5679,7 +5686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>1</v>
       </c>
@@ -5693,7 +5700,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>2</v>
       </c>
@@ -5707,7 +5714,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>3</v>
       </c>
@@ -5721,7 +5728,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>4</v>
       </c>
@@ -5735,7 +5742,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>5</v>
       </c>
@@ -5749,7 +5756,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="11" t="s">
         <v>393</v>
       </c>
@@ -5757,7 +5764,7 @@
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="3" t="s">
         <v>1</v>
       </c>
@@ -5771,7 +5778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>1</v>
       </c>
@@ -5785,7 +5792,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>2</v>
       </c>
@@ -5799,7 +5806,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>3</v>
       </c>
@@ -5813,7 +5820,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>4</v>
       </c>
@@ -5827,7 +5834,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>5</v>
       </c>
@@ -5841,7 +5848,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>6</v>
       </c>
@@ -5855,7 +5862,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="11" t="s">
         <v>402</v>
       </c>
@@ -5863,7 +5870,7 @@
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="3" t="s">
         <v>1</v>
       </c>
@@ -5877,7 +5884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>1</v>
       </c>
@@ -5891,7 +5898,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>2</v>
       </c>
@@ -5905,7 +5912,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>3</v>
       </c>
@@ -5919,7 +5926,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>4</v>
       </c>
@@ -5933,7 +5940,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>5</v>
       </c>
@@ -5947,7 +5954,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>6</v>
       </c>
@@ -5961,12 +5968,12 @@
         <v>411</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="11" t="s">
         <v>412</v>
       </c>
@@ -5974,7 +5981,7 @@
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="3" t="s">
         <v>1</v>
       </c>
@@ -5988,7 +5995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>1</v>
       </c>
@@ -6002,7 +6009,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6016,7 +6023,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>3</v>
       </c>
@@ -6030,7 +6037,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>4</v>
       </c>
@@ -6044,7 +6051,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>5</v>
       </c>
@@ -6058,7 +6065,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>6</v>
       </c>
@@ -6072,7 +6079,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="11" t="s">
         <v>420</v>
       </c>
@@ -6080,7 +6087,7 @@
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
         <v>1</v>
       </c>
@@ -6094,7 +6101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>1</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>2</v>
       </c>
@@ -6122,7 +6129,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>3</v>
       </c>
@@ -6136,7 +6143,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>4</v>
       </c>
@@ -6150,7 +6157,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>5</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>6</v>
       </c>
@@ -6178,7 +6185,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="11" t="s">
         <v>428</v>
       </c>
@@ -6186,7 +6193,7 @@
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="3" t="s">
         <v>1</v>
       </c>
@@ -6200,7 +6207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>1</v>
       </c>
@@ -6214,7 +6221,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>2</v>
       </c>
@@ -6228,7 +6235,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>3</v>
       </c>
@@ -6242,7 +6249,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>4</v>
       </c>
@@ -6256,7 +6263,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>5</v>
       </c>
@@ -6270,7 +6277,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>6</v>
       </c>
@@ -6284,7 +6291,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>7</v>
       </c>
@@ -6298,7 +6305,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>8</v>
       </c>
@@ -6312,7 +6319,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>9</v>
       </c>
@@ -6326,7 +6333,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>10</v>
       </c>
@@ -6340,11 +6347,11 @@
         <v>444</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B328" s="7"/>
       <c r="D328" s="7"/>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="11" t="s">
         <v>445</v>
       </c>
@@ -6352,7 +6359,7 @@
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="3" t="s">
         <v>1</v>
       </c>
@@ -6366,7 +6373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>1</v>
       </c>
@@ -6380,7 +6387,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>2</v>
       </c>
@@ -6394,7 +6401,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>3</v>
       </c>
@@ -6408,7 +6415,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>4</v>
       </c>
@@ -6422,7 +6429,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>5</v>
       </c>
@@ -6436,7 +6443,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>6</v>
       </c>
@@ -6450,7 +6457,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="337" spans="1:16384">
+    <row r="337" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>7</v>
       </c>
@@ -6464,7 +6471,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="338" spans="1:16384" s="1" customFormat="1">
+    <row r="338" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A338" s="7">
         <v>8</v>
       </c>
@@ -22858,7 +22865,7 @@
       <c r="XFC338" s="9"/>
       <c r="XFD338" s="9"/>
     </row>
-    <row r="339" spans="1:16384">
+    <row r="339" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>9</v>
       </c>
@@ -22872,7 +22879,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="341" spans="1:16384">
+    <row r="341" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A341" s="11" t="s">
         <v>461</v>
       </c>
@@ -22880,7 +22887,7 @@
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
     </row>
-    <row r="342" spans="1:16384">
+    <row r="342" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A342" s="3" t="s">
         <v>1</v>
       </c>
@@ -22894,7 +22901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:16384">
+    <row r="343" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>1</v>
       </c>
@@ -22908,7 +22915,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="344" spans="1:16384">
+    <row r="344" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>2</v>
       </c>
@@ -22922,7 +22929,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="345" spans="1:16384">
+    <row r="345" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>3</v>
       </c>
@@ -22936,7 +22943,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="346" spans="1:16384">
+    <row r="346" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>4</v>
       </c>
@@ -22950,7 +22957,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="347" spans="1:16384" s="1" customFormat="1">
+    <row r="347" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A347" s="7">
         <v>5</v>
       </c>
@@ -39344,7 +39351,7 @@
       <c r="XFC347" s="9"/>
       <c r="XFD347" s="9"/>
     </row>
-    <row r="348" spans="1:16384">
+    <row r="348" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>6</v>
       </c>
@@ -39358,12 +39365,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="349" spans="1:16384">
+    <row r="349" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
     </row>
-    <row r="350" spans="1:16384">
+    <row r="350" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A350" s="11" t="s">
         <v>470</v>
       </c>
@@ -39371,7 +39378,7 @@
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
     </row>
-    <row r="351" spans="1:16384">
+    <row r="351" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A351" s="3" t="s">
         <v>1</v>
       </c>
@@ -39385,7 +39392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:16384">
+    <row r="352" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>1</v>
       </c>
@@ -39399,7 +39406,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>2</v>
       </c>
@@ -39413,7 +39420,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>3</v>
       </c>
@@ -39427,7 +39434,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>4</v>
       </c>
@@ -39441,7 +39448,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>5</v>
       </c>
@@ -39455,7 +39462,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>6</v>
       </c>
@@ -39469,7 +39476,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="1" customFormat="1">
+    <row r="358" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A358" s="7">
         <v>7</v>
       </c>
@@ -39483,7 +39490,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>8</v>
       </c>
@@ -39497,12 +39504,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="11" t="s">
         <v>483</v>
       </c>
@@ -39510,7 +39517,7 @@
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="3" t="s">
         <v>1</v>
       </c>
@@ -39524,7 +39531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>1</v>
       </c>
@@ -39538,7 +39545,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>2</v>
       </c>
@@ -39552,7 +39559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>3</v>
       </c>
@@ -39566,7 +39573,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>4</v>
       </c>
@@ -39580,7 +39587,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>5</v>
       </c>
@@ -39594,7 +39601,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="1" customFormat="1">
+    <row r="368" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A368" s="7">
         <v>6</v>
       </c>
@@ -39608,7 +39615,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>7</v>
       </c>
@@ -39622,7 +39629,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="11" t="s">
         <v>494</v>
       </c>
@@ -39630,7 +39637,7 @@
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="3" t="s">
         <v>1</v>
       </c>
@@ -39644,7 +39651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>1</v>
       </c>
@@ -39658,7 +39665,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>2</v>
       </c>
@@ -39672,7 +39679,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>3</v>
       </c>
@@ -39686,7 +39693,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="1" customFormat="1">
+    <row r="376" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A376" s="7">
         <v>4</v>
       </c>
@@ -39700,7 +39707,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>5</v>
       </c>
@@ -39714,7 +39721,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="11" t="s">
         <v>503</v>
       </c>
@@ -39722,7 +39729,7 @@
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="3" t="s">
         <v>1</v>
       </c>
@@ -39736,7 +39743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>1</v>
       </c>
@@ -39750,7 +39757,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>2</v>
       </c>
@@ -39764,7 +39771,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>3</v>
       </c>
@@ -39778,7 +39785,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="384" spans="1:4" s="1" customFormat="1">
+    <row r="384" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A384" s="7">
         <v>4</v>
       </c>
@@ -39792,7 +39799,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>5</v>
       </c>
@@ -39806,7 +39813,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="11" t="s">
         <v>512</v>
       </c>
@@ -39814,7 +39821,7 @@
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="3" t="s">
         <v>1</v>
       </c>
@@ -39828,7 +39835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:4" s="2" customFormat="1">
+    <row r="389" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A389" s="2">
         <v>1</v>
       </c>
@@ -39842,7 +39849,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="2" customFormat="1">
+    <row r="390" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A390" s="2">
         <v>2</v>
       </c>
@@ -39856,7 +39863,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="2">
         <v>3</v>
       </c>
@@ -39870,7 +39877,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="2">
         <v>4</v>
       </c>
@@ -39884,7 +39891,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="2">
         <v>5</v>
       </c>
@@ -39898,7 +39905,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="2">
         <v>6</v>
       </c>
@@ -39912,7 +39919,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="395" spans="1:4" s="1" customFormat="1">
+    <row r="395" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A395" s="7">
         <v>7</v>
       </c>
@@ -39926,7 +39933,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="2">
         <v>8</v>
       </c>
@@ -39940,7 +39947,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="11" t="s">
         <v>525</v>
       </c>
@@ -39948,7 +39955,7 @@
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="3" t="s">
         <v>1</v>
       </c>
@@ -39962,7 +39969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>1</v>
       </c>
@@ -39976,7 +39983,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>2</v>
       </c>
@@ -39990,7 +39997,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>3</v>
       </c>
@@ -40004,7 +40011,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>4</v>
       </c>
@@ -40018,7 +40025,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>5</v>
       </c>
@@ -40032,7 +40039,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405">
         <v>6</v>
       </c>
@@ -40046,7 +40053,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>7</v>
       </c>
@@ -40060,7 +40067,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>8</v>
       </c>
@@ -40071,7 +40078,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="11" t="s">
         <v>557</v>
       </c>
@@ -40079,7 +40086,7 @@
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="3" t="s">
         <v>1</v>
       </c>
@@ -40093,7 +40100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>1</v>
       </c>
@@ -40107,7 +40114,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>2</v>
       </c>
@@ -40121,7 +40128,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>3</v>
       </c>
@@ -40135,7 +40142,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>4</v>
       </c>
@@ -40149,7 +40156,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415">
         <v>5</v>
       </c>
@@ -40163,7 +40170,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>6</v>
       </c>
@@ -40177,7 +40184,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>7</v>
       </c>
@@ -40191,7 +40198,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>8</v>
       </c>
@@ -40207,27 +40214,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A398:D398"/>
-    <mergeCell ref="A350:D350"/>
-    <mergeCell ref="A361:D361"/>
-    <mergeCell ref="A371:D371"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A387:D387"/>
-    <mergeCell ref="A298:D298"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A329:D329"/>
-    <mergeCell ref="A341:D341"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A196:D196"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A215:D215"/>
     <mergeCell ref="A409:D409"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A19:D19"/>
@@ -40244,6 +40230,27 @@
     <mergeCell ref="A118:D118"/>
     <mergeCell ref="A135:D135"/>
     <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A298:D298"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A329:D329"/>
+    <mergeCell ref="A341:D341"/>
+    <mergeCell ref="A398:D398"/>
+    <mergeCell ref="A350:D350"/>
+    <mergeCell ref="A361:D361"/>
+    <mergeCell ref="A371:D371"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A387:D387"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40252,12 +40259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40266,12 +40273,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
